--- a/Docs/Script.xlsx
+++ b/Docs/Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D976654-6059-4F5C-8473-6BFAAD07DB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD34A5F-9CEC-4CCE-BF23-739F539B4682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Script" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1070">
   <si>
     <t>Language Code</t>
   </si>
@@ -3653,6 +3653,36 @@
   <si>
     <t>- Нет, не беспокойся, я все помню;
 - Хорошо... Позвони после экзамена. Успехов!;</t>
+  </si>
+  <si>
+    <t>Level_1_Mistake_Ending_0</t>
+  </si>
+  <si>
+    <t>Level_1_Ending_2</t>
+  </si>
+  <si>
+    <t>Экзамен закочнен. Подойдите к компьютеру.</t>
+  </si>
+  <si>
+    <t>Сэр, пожалуйста, подойдите к компьютеру.</t>
+  </si>
+  <si>
+    <t>Level_1_Mistake_Ending_1</t>
+  </si>
+  <si>
+    <t>Сэр, прошу вас пройти в лифт для проведения следущего экзамена.</t>
+  </si>
+  <si>
+    <t>Level_2_Thanks_0</t>
+  </si>
+  <si>
+    <t>Level_2_Thanks_1</t>
+  </si>
+  <si>
+    <t>Спасибо, что сыграли в игру "АКАШ"</t>
+  </si>
+  <si>
+    <t>Ваша обратная связь поможет сделать игру лучше</t>
   </si>
 </sst>
 </file>
@@ -7626,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED7673E-04F8-432C-BDD2-F8DC231601DD}">
   <dimension ref="A1:Z142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="92.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8072,7 +8102,7 @@
         <v>1056</v>
       </c>
       <c r="C26" s="189" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="69"/>
@@ -8085,20 +8115,19 @@
         <v>1057</v>
       </c>
       <c r="C27" s="189" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D27" s="98"/>
+        <v>1058</v>
+      </c>
       <c r="E27" s="69"/>
       <c r="F27" s="69"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="181"/>
-      <c r="B28" s="49" t="s">
-        <v>979</v>
-      </c>
-      <c r="C28" s="98" t="s">
-        <v>1004</v>
+      <c r="B28" s="69" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C28" s="189" t="s">
+        <v>1042</v>
       </c>
       <c r="D28" s="98"/>
       <c r="E28" s="69"/>
@@ -8107,24 +8136,22 @@
     </row>
     <row r="29" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="181"/>
-      <c r="B29" s="49" t="s">
-        <v>981</v>
-      </c>
-      <c r="C29" s="189" t="s">
-        <v>980</v>
-      </c>
-      <c r="D29" s="98"/>
-      <c r="E29" s="69"/>
+      <c r="B29" s="69" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>1063</v>
+      </c>
       <c r="F29" s="69"/>
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="181"/>
-      <c r="B30" s="49" t="s">
-        <v>982</v>
-      </c>
-      <c r="C30" s="189" t="s">
-        <v>1005</v>
+      <c r="B30" s="69" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>1065</v>
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="69"/>
@@ -8134,10 +8161,10 @@
     <row r="31" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="181"/>
       <c r="B31" s="49" t="s">
-        <v>983</v>
-      </c>
-      <c r="C31" s="189" t="s">
-        <v>1006</v>
+        <v>979</v>
+      </c>
+      <c r="C31" s="98" t="s">
+        <v>1004</v>
       </c>
       <c r="D31" s="98"/>
       <c r="E31" s="69"/>
@@ -8147,10 +8174,10 @@
     <row r="32" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="181"/>
       <c r="B32" s="49" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C32" s="189" t="s">
-        <v>1007</v>
+        <v>980</v>
       </c>
       <c r="D32" s="98"/>
       <c r="E32" s="69"/>
@@ -8160,10 +8187,10 @@
     <row r="33" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="181"/>
       <c r="B33" s="49" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C33" s="189" t="s">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="D33" s="98"/>
       <c r="E33" s="69"/>
@@ -8173,10 +8200,10 @@
     <row r="34" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="181"/>
       <c r="B34" s="49" t="s">
-        <v>987</v>
-      </c>
-      <c r="C34" s="98" t="s">
-        <v>1008</v>
+        <v>983</v>
+      </c>
+      <c r="C34" s="189" t="s">
+        <v>1006</v>
       </c>
       <c r="D34" s="98"/>
       <c r="E34" s="69"/>
@@ -8186,10 +8213,10 @@
     <row r="35" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="85"/>
       <c r="B35" s="49" t="s">
-        <v>988</v>
-      </c>
-      <c r="C35" s="98" t="s">
-        <v>1009</v>
+        <v>984</v>
+      </c>
+      <c r="C35" s="189" t="s">
+        <v>1007</v>
       </c>
       <c r="E35" s="69"/>
       <c r="F35" s="69"/>
@@ -8198,10 +8225,10 @@
     <row r="36" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="85"/>
       <c r="B36" s="49" t="s">
-        <v>989</v>
-      </c>
-      <c r="C36" s="98" t="s">
-        <v>1010</v>
+        <v>985</v>
+      </c>
+      <c r="C36" s="189" t="s">
+        <v>986</v>
       </c>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
@@ -8210,10 +8237,10 @@
     <row r="37" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="49" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C37" s="98" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
@@ -8222,10 +8249,10 @@
     <row r="38" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="49" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69"/>
@@ -8234,10 +8261,10 @@
     <row r="39" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="49" t="s">
-        <v>992</v>
-      </c>
-      <c r="C39" s="189" t="s">
-        <v>1012</v>
+        <v>989</v>
+      </c>
+      <c r="C39" s="98" t="s">
+        <v>1010</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="69"/>
@@ -8247,10 +8274,10 @@
     <row r="40" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="49" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="D40" s="98"/>
       <c r="E40" s="69"/>
@@ -8260,10 +8287,10 @@
     <row r="41" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48"/>
       <c r="B41" s="49" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D41" s="98"/>
       <c r="E41" s="69"/>
@@ -8273,10 +8300,10 @@
     <row r="42" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="85"/>
       <c r="B42" s="49" t="s">
-        <v>995</v>
-      </c>
-      <c r="C42" s="98" t="s">
-        <v>1015</v>
+        <v>992</v>
+      </c>
+      <c r="C42" s="189" t="s">
+        <v>1012</v>
       </c>
       <c r="D42" s="98"/>
       <c r="E42" s="69"/>
@@ -8286,10 +8313,10 @@
     <row r="43" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="85"/>
       <c r="B43" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D43" s="98"/>
       <c r="E43" s="69"/>
@@ -8299,10 +8326,10 @@
     <row r="44" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="85"/>
       <c r="B44" s="49" t="s">
-        <v>998</v>
-      </c>
-      <c r="C44" s="190" t="s">
-        <v>1017</v>
+        <v>994</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>1014</v>
       </c>
       <c r="D44" s="98"/>
       <c r="E44" s="69"/>
@@ -8312,10 +8339,10 @@
     <row r="45" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="85"/>
       <c r="B45" s="49" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C45" s="98" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D45" s="98"/>
       <c r="E45" s="69"/>
@@ -8325,10 +8352,10 @@
     <row r="46" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85"/>
       <c r="B46" s="49" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C46" s="98" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D46" s="98"/>
       <c r="E46" s="69"/>
@@ -8338,10 +8365,10 @@
     <row r="47" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="49" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C47" s="98" t="s">
-        <v>1020</v>
+        <v>998</v>
+      </c>
+      <c r="C47" s="190" t="s">
+        <v>1017</v>
       </c>
       <c r="D47" s="98"/>
       <c r="E47" s="69"/>
@@ -8350,22 +8377,22 @@
     </row>
     <row r="48" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
-      <c r="B48" s="27" t="s">
-        <v>1043</v>
+      <c r="B48" s="49" t="s">
+        <v>999</v>
       </c>
       <c r="C48" s="98" t="s">
-        <v>1059</v>
+        <v>1018</v>
       </c>
       <c r="F48" s="69"/>
       <c r="G48" s="61"/>
     </row>
-    <row r="49" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
-      <c r="B49" s="69" t="s">
-        <v>948</v>
+      <c r="B49" s="49" t="s">
+        <v>996</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="D49" s="98"/>
       <c r="E49" s="69"/>
@@ -8374,26 +8401,38 @@
     </row>
     <row r="50" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="98"/>
+      <c r="B50" s="49" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C50" s="98" t="s">
+        <v>1020</v>
+      </c>
       <c r="D50" s="98"/>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
       <c r="G50" s="61"/>
     </row>
-    <row r="51" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="85"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="98"/>
+      <c r="B51" s="27" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C51" s="98" t="s">
+        <v>1059</v>
+      </c>
       <c r="D51" s="98"/>
       <c r="E51" s="69"/>
       <c r="F51" s="69"/>
       <c r="G51" s="61"/>
     </row>
-    <row r="52" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="85"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="98"/>
+      <c r="B52" s="69" t="s">
+        <v>948</v>
+      </c>
+      <c r="C52" s="98" t="s">
+        <v>1001</v>
+      </c>
       <c r="D52" s="98"/>
       <c r="E52" s="69"/>
       <c r="F52" s="69"/>
@@ -28782,8 +28821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C07F714-778F-4928-8F48-FBA7295FFC41}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29009,16 +29048,24 @@
     </row>
     <row r="13" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="176"/>
+      <c r="B13" s="27" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C13" s="176" t="s">
+        <v>1068</v>
+      </c>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="176"/>
+      <c r="B14" s="27" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C14" s="176" t="s">
+        <v>1069</v>
+      </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
       <c r="G14" s="61"/>

--- a/Docs/Script.xlsx
+++ b/Docs/Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD34A5F-9CEC-4CCE-BF23-739F539B4682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F87B2-68CF-40B7-BB96-D31790F6CEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Script" sheetId="1" r:id="rId1"/>
@@ -3166,21 +3166,12 @@
     <t>Стой! Да, ладно тебе, я шучу; Иди куда идешь конечно же; Иди-иди</t>
   </si>
   <si>
-    <t>Чтобы намекунть ученику</t>
-  </si>
-  <si>
-    <t>Чтобы сказать прямо ученику</t>
-  </si>
-  <si>
     <t>Чтобы что-то сделать</t>
   </si>
   <si>
     <t>Чтобы приблизить</t>
   </si>
   <si>
-    <t>Чтобы сказать всем</t>
-  </si>
-  <si>
     <t>Чтобы "Казнить" ученика</t>
   </si>
   <si>
@@ -3214,9 +3205,6 @@
     <t>Menu_Main_Exit</t>
   </si>
   <si>
-    <t>Чтобы увидеть информацию</t>
-  </si>
-  <si>
     <t>Hint_Talk_Good_0</t>
   </si>
   <si>
@@ -3287,9 +3275,6 @@
   </si>
   <si>
     <t>Level_1_Begining_1</t>
-  </si>
-  <si>
-    <t>Level_2_End_0</t>
   </si>
   <si>
     <t>Tutorial_1_Begining_0</t>
@@ -3683,6 +3668,21 @@
   </si>
   <si>
     <t>Ваша обратная связь поможет сделать игру лучше</t>
+  </si>
+  <si>
+    <t>Чтобы сказать что-то резкое ученику</t>
+  </si>
+  <si>
+    <t>Чтобы сказать что-то мягкое ученику</t>
+  </si>
+  <si>
+    <t>Чтобы сказать что-то резкое всем</t>
+  </si>
+  <si>
+    <t>Чтобы посмотреть оставшееся время</t>
+  </si>
+  <si>
+    <t>Level_2_Ending_0</t>
   </si>
 </sst>
 </file>
@@ -7656,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED7673E-04F8-432C-BDD2-F8DC231601DD}">
   <dimension ref="A1:Z142"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="92.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7733,13 +7733,13 @@
     </row>
     <row r="3" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="212" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="57"/>
@@ -7765,10 +7765,10 @@
     <row r="4" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="213"/>
       <c r="B4" s="58" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="60"/>
@@ -7794,10 +7794,10 @@
     <row r="5" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="213"/>
       <c r="B5" s="58" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D5" s="91"/>
       <c r="E5" s="60"/>
@@ -7823,10 +7823,10 @@
     <row r="6" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="213"/>
       <c r="B6" s="58" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="60"/>
@@ -7852,10 +7852,10 @@
     <row r="7" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="213"/>
       <c r="B7" s="58" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D7" s="91"/>
       <c r="E7" s="60"/>
@@ -7865,10 +7865,10 @@
     <row r="8" spans="1:26" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="213"/>
       <c r="B8" s="62" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D8" s="93"/>
       <c r="E8" s="60"/>
@@ -7878,10 +7878,10 @@
     <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="213"/>
       <c r="B9" s="65" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D9" s="94"/>
       <c r="E9" s="60"/>
@@ -7891,10 +7891,10 @@
     <row r="10" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="213"/>
       <c r="B10" s="67" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="D10" s="87"/>
       <c r="E10" s="60"/>
@@ -7904,10 +7904,10 @@
     <row r="11" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="213"/>
       <c r="B11" s="67" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D11" s="87"/>
       <c r="E11" s="60"/>
@@ -7917,10 +7917,10 @@
     <row r="12" spans="1:26" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="213"/>
       <c r="B12" s="67" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="D12" s="87"/>
       <c r="E12" s="60"/>
@@ -7930,10 +7930,10 @@
     <row r="13" spans="1:26" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="213"/>
       <c r="B13" s="70" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D13" s="95"/>
       <c r="E13" s="60"/>
@@ -7943,7 +7943,7 @@
     <row r="14" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="213"/>
       <c r="B14" s="71" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C14" s="91" t="s">
         <v>339</v>
@@ -7956,10 +7956,10 @@
     <row r="15" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="213"/>
       <c r="B15" s="73" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D15" s="91"/>
       <c r="E15" s="69"/>
@@ -7969,10 +7969,10 @@
     <row r="16" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="213"/>
       <c r="B16" s="58" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D16" s="97"/>
       <c r="E16" s="69"/>
@@ -7982,10 +7982,10 @@
     <row r="17" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="213"/>
       <c r="B17" s="49" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="D17" s="98"/>
       <c r="E17" s="69"/>
@@ -7995,10 +7995,10 @@
     <row r="18" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="213"/>
       <c r="B18" s="58" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="69"/>
@@ -8008,10 +8008,10 @@
     <row r="19" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="213"/>
       <c r="B19" s="49" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="69"/>
@@ -8021,10 +8021,10 @@
     <row r="20" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="213"/>
       <c r="B20" s="58" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="69"/>
@@ -8034,10 +8034,10 @@
     <row r="21" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="213"/>
       <c r="B21" s="49" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="69"/>
@@ -8047,10 +8047,10 @@
     <row r="22" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="213"/>
       <c r="B22" s="58" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="69"/>
@@ -8060,10 +8060,10 @@
     <row r="23" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="213"/>
       <c r="B23" s="49" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D23" s="98"/>
       <c r="E23" s="69"/>
@@ -8073,10 +8073,10 @@
     <row r="24" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="213"/>
       <c r="B24" s="69" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="69"/>
@@ -8086,10 +8086,10 @@
     <row r="25" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="213"/>
       <c r="B25" s="69" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="69"/>
@@ -8099,10 +8099,10 @@
     <row r="26" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="181"/>
       <c r="B26" s="69" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C26" s="189" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="69"/>
@@ -8112,10 +8112,10 @@
     <row r="27" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="181"/>
       <c r="B27" s="69" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C27" s="189" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="E27" s="69"/>
       <c r="F27" s="69"/>
@@ -8124,10 +8124,10 @@
     <row r="28" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="181"/>
       <c r="B28" s="69" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C28" s="189" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D28" s="98"/>
       <c r="E28" s="69"/>
@@ -8137,10 +8137,10 @@
     <row r="29" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="181"/>
       <c r="B29" s="69" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="61"/>
@@ -8148,10 +8148,10 @@
     <row r="30" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="181"/>
       <c r="B30" s="69" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="69"/>
@@ -8161,10 +8161,10 @@
     <row r="31" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="181"/>
       <c r="B31" s="49" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D31" s="98"/>
       <c r="E31" s="69"/>
@@ -8174,10 +8174,10 @@
     <row r="32" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="181"/>
       <c r="B32" s="49" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C32" s="189" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="D32" s="98"/>
       <c r="E32" s="69"/>
@@ -8187,10 +8187,10 @@
     <row r="33" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="181"/>
       <c r="B33" s="49" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C33" s="189" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D33" s="98"/>
       <c r="E33" s="69"/>
@@ -8200,10 +8200,10 @@
     <row r="34" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="181"/>
       <c r="B34" s="49" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C34" s="189" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D34" s="98"/>
       <c r="E34" s="69"/>
@@ -8213,10 +8213,10 @@
     <row r="35" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="85"/>
       <c r="B35" s="49" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C35" s="189" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E35" s="69"/>
       <c r="F35" s="69"/>
@@ -8225,10 +8225,10 @@
     <row r="36" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="85"/>
       <c r="B36" s="49" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C36" s="189" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
@@ -8237,10 +8237,10 @@
     <row r="37" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="49" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C37" s="98" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
@@ -8249,10 +8249,10 @@
     <row r="38" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="49" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69"/>
@@ -8261,10 +8261,10 @@
     <row r="39" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="49" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="69"/>
@@ -8274,10 +8274,10 @@
     <row r="40" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="49" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D40" s="98"/>
       <c r="E40" s="69"/>
@@ -8287,10 +8287,10 @@
     <row r="41" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48"/>
       <c r="B41" s="49" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D41" s="98"/>
       <c r="E41" s="69"/>
@@ -8300,10 +8300,10 @@
     <row r="42" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="85"/>
       <c r="B42" s="49" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C42" s="189" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D42" s="98"/>
       <c r="E42" s="69"/>
@@ -8313,10 +8313,10 @@
     <row r="43" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="85"/>
       <c r="B43" s="49" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D43" s="98"/>
       <c r="E43" s="69"/>
@@ -8326,10 +8326,10 @@
     <row r="44" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="85"/>
       <c r="B44" s="49" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C44" s="98" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D44" s="98"/>
       <c r="E44" s="69"/>
@@ -8339,10 +8339,10 @@
     <row r="45" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="85"/>
       <c r="B45" s="49" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C45" s="98" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D45" s="98"/>
       <c r="E45" s="69"/>
@@ -8352,10 +8352,10 @@
     <row r="46" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85"/>
       <c r="B46" s="49" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C46" s="98" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D46" s="98"/>
       <c r="E46" s="69"/>
@@ -8365,10 +8365,10 @@
     <row r="47" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="49" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C47" s="190" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D47" s="98"/>
       <c r="E47" s="69"/>
@@ -8378,10 +8378,10 @@
     <row r="48" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="49" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C48" s="98" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="F48" s="69"/>
       <c r="G48" s="61"/>
@@ -8389,10 +8389,10 @@
     <row r="49" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
       <c r="B49" s="49" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D49" s="98"/>
       <c r="E49" s="69"/>
@@ -8402,10 +8402,10 @@
     <row r="50" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="49" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C50" s="98" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D50" s="98"/>
       <c r="E50" s="69"/>
@@ -8415,10 +8415,10 @@
     <row r="51" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="85"/>
       <c r="B51" s="27" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C51" s="98" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="D51" s="98"/>
       <c r="E51" s="69"/>
@@ -8428,10 +8428,10 @@
     <row r="52" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="85"/>
       <c r="B52" s="69" t="s">
-        <v>948</v>
+        <v>1069</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D52" s="98"/>
       <c r="E52" s="69"/>
@@ -15589,7 +15589,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>27</v>
@@ -15602,7 +15602,7 @@
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="224"/>
       <c r="B4" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>21</v>
@@ -15615,7 +15615,7 @@
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="224"/>
       <c r="B5" s="7" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>22</v>
@@ -15628,7 +15628,7 @@
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="225"/>
       <c r="B6" s="8" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
@@ -26461,8 +26461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37D1FB9-258B-4C97-9642-203172A7D97A}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26611,10 +26611,10 @@
     <row r="7" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="27" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C7" s="176" t="s">
-        <v>907</v>
+        <v>1066</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="60"/>
@@ -26624,10 +26624,10 @@
     <row r="8" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="27" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C8" s="176" t="s">
-        <v>908</v>
+        <v>1065</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="60"/>
@@ -26637,10 +26637,10 @@
     <row r="9" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="27" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C9" s="176" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="60"/>
@@ -26650,10 +26650,10 @@
     <row r="10" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="27" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C10" s="176" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="60"/>
@@ -26663,10 +26663,10 @@
     <row r="11" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="27" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C11" s="176" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="60"/>
@@ -26676,10 +26676,10 @@
     <row r="12" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="27" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C12" s="176" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="60"/>
@@ -26689,10 +26689,10 @@
     <row r="13" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="27" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C13" s="176" t="s">
-        <v>911</v>
+        <v>1067</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="60"/>
@@ -26702,10 +26702,10 @@
     <row r="14" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="27" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C14" s="176" t="s">
-        <v>923</v>
+        <v>1068</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="69"/>
@@ -26715,10 +26715,10 @@
     <row r="15" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="27" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="69"/>
@@ -26728,10 +26728,10 @@
     <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="27" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="69"/>
@@ -26741,10 +26741,10 @@
     <row r="17" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="27" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C17" s="177" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="69"/>
@@ -26754,10 +26754,10 @@
     <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="85"/>
       <c r="B18" s="27" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="69"/>
@@ -26767,10 +26767,10 @@
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="85"/>
       <c r="B19" s="27" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="69"/>
@@ -26780,10 +26780,10 @@
     <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="85"/>
       <c r="B20" s="27" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C20" s="177" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="69"/>
@@ -26793,10 +26793,10 @@
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="49" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C21" s="177" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="69"/>
@@ -26806,10 +26806,10 @@
     <row r="22" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="85"/>
       <c r="B22" s="27" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="69"/>
@@ -26819,10 +26819,10 @@
     <row r="23" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="27" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C23" s="177" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
@@ -26832,10 +26832,10 @@
     <row r="24" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="27" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C24" s="177" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
@@ -26845,10 +26845,10 @@
     <row r="25" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="27" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C25" s="178" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="69"/>
@@ -28821,7 +28821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C07F714-778F-4928-8F48-FBA7295FFC41}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -28919,10 +28919,10 @@
     <row r="3" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="27" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C3" s="176" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="57"/>
@@ -28932,10 +28932,10 @@
     <row r="4" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="27" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="60"/>
@@ -28945,10 +28945,10 @@
     <row r="5" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="27" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C5" s="176" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="60"/>
@@ -28958,10 +28958,10 @@
     <row r="6" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="27" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C6" s="176" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="60"/>
@@ -28971,10 +28971,10 @@
     <row r="7" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="27" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C7" s="176" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="60"/>
@@ -28984,10 +28984,10 @@
     <row r="8" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="27" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C8" s="176" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="60"/>
@@ -28997,10 +28997,10 @@
     <row r="9" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="27" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C9" s="176" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="60"/>
@@ -29010,10 +29010,10 @@
     <row r="10" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="27" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C10" s="176" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="60"/>
@@ -29023,10 +29023,10 @@
     <row r="11" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="27" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="C11" s="176" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="60"/>
@@ -29036,10 +29036,10 @@
     <row r="12" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="27" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C12" s="176" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="60"/>
@@ -29049,10 +29049,10 @@
     <row r="13" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="27" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C13" s="176" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
@@ -29061,10 +29061,10 @@
     <row r="14" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="27" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C14" s="176" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>

--- a/Docs/Script.xlsx
+++ b/Docs/Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F53B7D-0341-43D5-BDEB-1263BC87C3D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA170182-8669-4C4C-88C6-CB2C992E74E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="1590" windowWidth="21960" windowHeight="10320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Script" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1083">
   <si>
     <t>Language Code</t>
   </si>
@@ -3715,10 +3715,14 @@
     <t>Пожалуйста, пройдите в следующий комнату.</t>
   </si>
   <si>
-    <t>Сэр, я напомню; что если ученики не смогут; дописать экзамен из-за стресса; то нам придется принять меры.; Поэтому, пожалуйста; не сильно давите на учеников.</t>
-  </si>
-  <si>
     <t>Ученик не будет вечно ждать вашего ответа.; Пожалуйста, ответьте ему.</t>
+  </si>
+  <si>
+    <t>- Ало, Ваня?; 
+- Если вы хотите услышать Ваню; то не кладите трубку; и выслушайте меня.; С данного момента вы находитесь; под моим контролем.; Любое непослушание будет караться; уничтожением вашей жизни; и жизни вашего друга.; Начиная с завтрашнего дня; вы будете проводить экзамены.; Точно так же; как вы их проводили в свои лучшие годы.; Любые лишние вопросы не приветсвуются.; И да...; Я забыл представиться.; Я Егор Акимов - создать экзамена "АКАШ".; Что же; мне было очень приятно познакомиться.; Буду рад видеть вас завтра.; Успехов на экзамене...</t>
+  </si>
+  <si>
+    <t>Сэр, я напомню; что если ученики не смогут; дописать экзамен из-за стресса; то нам придется принять меры.; Поэтому, пожалуйста; не давите сильно на учеников.</t>
   </si>
 </sst>
 </file>
@@ -7692,8 +7696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED7673E-04F8-432C-BDD2-F8DC231601DD}">
   <dimension ref="A1:Z142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="92.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8082,7 +8086,7 @@
         <v>964</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="69"/>
@@ -8535,20 +8539,20 @@
         <v>1072</v>
       </c>
       <c r="C58" s="102" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D58" s="98"/>
       <c r="E58" s="69"/>
       <c r="F58" s="69"/>
       <c r="G58" s="61"/>
     </row>
-    <row r="59" spans="1:7" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="85"/>
       <c r="B59" s="69" t="s">
         <v>1064</v>
       </c>
-      <c r="C59" s="98" t="s">
-        <v>996</v>
+      <c r="C59" s="189" t="s">
+        <v>1081</v>
       </c>
       <c r="D59" s="98"/>
       <c r="E59" s="69"/>
@@ -8566,7 +8570,9 @@
       <c r="A61" s="85"/>
       <c r="D61" s="69"/>
       <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
+      <c r="F61" s="98" t="s">
+        <v>996</v>
+      </c>
       <c r="G61" s="61"/>
     </row>
     <row r="62" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/Docs/Script.xlsx
+++ b/Docs/Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA170182-8669-4C4C-88C6-CB2C992E74E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA33AB-48EB-4613-AACC-6D5B8A5C6254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Script" sheetId="1" r:id="rId1"/>
@@ -1549,9 +1549,6 @@
     <t>Да, только быстрее</t>
   </si>
   <si>
-    <t>Нет; Сейчас в туалет нельзя</t>
-  </si>
-  <si>
     <t>Teacher_Execute_0</t>
   </si>
   <si>
@@ -1567,9 +1564,6 @@
     <t>За нарушение регламентов экзамена; Я вынужден вас исключить; Казнить</t>
   </si>
   <si>
-    <t>К сожалению вы нарушили правила; Мне ничего не остается сделать, кроме как...; Казинть</t>
-  </si>
-  <si>
     <t>Слышишь, а ты чего списываешь?</t>
   </si>
   <si>
@@ -2257,9 +2251,6 @@
     <t>Но!.. Ладно...</t>
   </si>
   <si>
-    <t>Нет; Сейчас в коридор нельзя</t>
-  </si>
-  <si>
     <t>Нарушение правил в этой комнате; Приведет к серъезным последствиям</t>
   </si>
   <si>
@@ -3158,12 +3149,6 @@
   </si>
   <si>
     <t>Помню, были времена; Когда за ходьбу на экзамене ломали ноги; Эх, было время.</t>
-  </si>
-  <si>
-    <t>Знаешь, однажды я сидел на экзамене; И все сидели на экзамене; Вот так вот; Давай иди уже</t>
-  </si>
-  <si>
-    <t>Стой! Да, ладно тебе, я шучу; Иди куда идешь конечно же; Иди-иди</t>
   </si>
   <si>
     <t>Чтобы что-то сделать</t>
@@ -3455,11 +3440,6 @@
 - Ну... Ты же понимаешь; что ты уже не можешь отказаться.; А так...; Жду тебя завтра в 9.; Успехов на экзамене. </t>
   </si>
   <si>
-    <t>- Ты же помнишь как проводить экзамены?;
-- Да, я помню.; 
-- Что же, тогда...; Просто сделай так, чтобы никто не списал.; Успехов...;</t>
-  </si>
-  <si>
     <t>Добро пожаловать на экзамен, сэр.</t>
   </si>
   <si>
@@ -3481,24 +3461,9 @@
     <t>Как вы можете заметить; в таком случае его стресс стремительно возрастает.; А теперь отойдите от ученика; но продолжайте смотреть на него.</t>
   </si>
   <si>
-    <t>Если ученик видит как вы на него смотрите; то его стресс не будет меняться.; А теперь зайдите в компьютер.</t>
-  </si>
-  <si>
-    <t>Так как вы сейчас находитесь далеко от ученика; и не смотрите на него - его стресс понижается.; А чтобы понять на что стресс влияет; посмотрите на график.; Как вы видите; чем больше стресс - тем меньше желания списать; Но так же и меньше скорость написания экзамена.; Поэтому оптимальное значение стресса от 40% - 60%.; А теперь продержите оптимальный стресс; у всех учеников 30 секунд.</t>
-  </si>
-  <si>
     <t>Отличный результат!; На этом мы и закончим.; Успехов на экзамене.</t>
   </si>
   <si>
-    <t>Напоминаю; вам нужно поднять стресс этого ученика до 100%</t>
-  </si>
-  <si>
-    <t>Напоминаю; вам нужно поднять стресс этого ученика до 30%</t>
-  </si>
-  <si>
-    <t>Напоминаю; вам нужно поднять стресс; не жесткими высказываниями; а более мягкими.</t>
-  </si>
-  <si>
     <t>Пожалуйста; подойдите к ученику; и посмотрите на его монитор.</t>
   </si>
   <si>
@@ -3511,18 +3476,12 @@
     <t>Пожалуйста, зайдите в программу SS.</t>
   </si>
   <si>
-    <t>Напоминаю; вам нужно держать стресс всех учеников; в пределе от 40% до 60%</t>
-  </si>
-  <si>
     <t>Зайдите в программу SS.</t>
   </si>
   <si>
     <t>Вы должны разрешить ученику вытйти в туалет.; Пожалуйста, ответьте ему еще раз.</t>
   </si>
   <si>
-    <t>Замечу, что посторонними предметами; В даном случае; Являются различные бумажки, телефоны; И так далее.</t>
-  </si>
-  <si>
     <t>К сожалению, вы казнили ученика; Который не пользовался посторонними предметами.; Попробуйте еще раз.</t>
   </si>
   <si>
@@ -3532,197 +3491,238 @@
     <t>К сожалению, вы казнили ученика; Который не пользовался запрещенной програмой.; Попробуйте еще раз.</t>
   </si>
   <si>
-    <t>Отлично!; Вы прошли начальный курс экзаменатора.; Теперь вы готовы проводить ваш первый экзамен.; Успехов и до встречи!</t>
-  </si>
-  <si>
     <t>Ученик пошел в туалет!  Но не радуйтесь так быстро.; Возможно он там хочет списать.; Дождитесь когда ученик выйдет; И проверьте кабинку.</t>
   </si>
   <si>
-    <t>- Да?; 
+    <t>Добро пожаловать; На программу подготовки экзаменаторов.; Здесь вас научат; Как правильно проводить экзамен АКАШ.; Чтобы продолжить, пройдите в первую комнату.</t>
+  </si>
+  <si>
+    <t>Сейчас мы научим вас как "казнить".; Но не беспокойтесь; "Казнить" - эти лишь кодовое слово; Для того, чтобы выгнать ученика.; Представьте, что ученик перед вами списал.; Пожалуйста, "казните" его за это.</t>
+  </si>
+  <si>
+    <t>Супер!; Но как вы видете, вам сняли очки за это.; Все потому, что этот ученик не списывал.; Поэтому зайдите в компьютер; Чтобы узнать правила экзамена.</t>
+  </si>
+  <si>
+    <t>Ах, да, чуть не забыл; Ваш логин и пароль - 0000.; По многочисленным расчетам; Это самый надежный из доступных паролей.</t>
+  </si>
+  <si>
+    <t>Как вы видете, на экзамене можно пользоваться; Только некоторыми программами.; Понаблюдайте за учениками и казните всех; Кто начнет пользоваться запрещенными программами.</t>
+  </si>
+  <si>
+    <t>Отлично!; Так же на экзамене нельзя пользоваться; Любыми посторонними предметами.; Поэтому казните всех; кто начнет пользоваться чем-то посторонним.</t>
+  </si>
+  <si>
+    <t>Супер!; Мы научились "казнить" учеников.; А сейчас мы научимся отвечать; На вопросы учеников.; Попробуйте ответить "нет" этому ученику.</t>
+  </si>
+  <si>
+    <t>Если вы ответите нет ученику; Когда должны были ответить да; Ваша репутация снижается.; Поэтому следите за своим языком.; А теперь ответьте да.</t>
+  </si>
+  <si>
+    <t>Level_2_Begining_0</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Introdaction_Home_0</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Introdaction_Home_1</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Introdaction_Training_0</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Introdaction_Training_1</t>
+  </si>
+  <si>
+    <t>Level_1_Introdaction_0</t>
+  </si>
+  <si>
+    <t>Level_1_Introdaction_1</t>
+  </si>
+  <si>
+    <t>Level_2_Introdaction_0</t>
+  </si>
+  <si>
+    <t>Level_2_Introdaction_1</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Introdaction_0</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Introdaction_1</t>
+  </si>
+  <si>
+    <t>День 0 - Экзамен 2</t>
+  </si>
+  <si>
+    <t>День 0 - Экзамен 1</t>
+  </si>
+  <si>
+    <t>Level_1_Ending_0</t>
+  </si>
+  <si>
+    <t>Level_1_Ending_1</t>
+  </si>
+  <si>
+    <t>Экзамен на этом этаже законечен.; Прошу пройти в лифт.</t>
+  </si>
+  <si>
+    <t>Level_1_Mistake_Ending_0</t>
+  </si>
+  <si>
+    <t>Level_1_Ending_2</t>
+  </si>
+  <si>
+    <t>Экзамен закочнен. Подойдите к компьютеру.</t>
+  </si>
+  <si>
+    <t>Сэр, пожалуйста, подойдите к компьютеру.</t>
+  </si>
+  <si>
+    <t>Level_1_Mistake_Ending_1</t>
+  </si>
+  <si>
+    <t>Level_2_Thanks_0</t>
+  </si>
+  <si>
+    <t>Level_2_Thanks_1</t>
+  </si>
+  <si>
+    <t>Спасибо, что сыграли в игру "АКАШ"</t>
+  </si>
+  <si>
+    <t>Ваша обратная связь поможет сделать игру лучше</t>
+  </si>
+  <si>
+    <t>Чтобы сказать что-то резкое ученику</t>
+  </si>
+  <si>
+    <t>Чтобы сказать что-то мягкое ученику</t>
+  </si>
+  <si>
+    <t>Чтобы посмотреть оставшееся время</t>
+  </si>
+  <si>
+    <t>Level_2_Ending_0</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_8</t>
+  </si>
+  <si>
+    <t>А сейчас зайдите в программу "Правила".</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_9</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_10</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_First_Room_3</t>
+  </si>
+  <si>
+    <t>Level_2_Begining_1</t>
+  </si>
+  <si>
+    <t>Чтобы накричать на всех</t>
+  </si>
+  <si>
+    <t>Пожалуйста, зайдите в компьютер</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_11</t>
+  </si>
+  <si>
+    <t>Пожалуйста, зайдите в программу "Правила"</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_12</t>
+  </si>
+  <si>
+    <t>Пожалуйста, казните того ученика.; Он нарушил правила экзамена.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, пройдите в следующий комнату.</t>
+  </si>
+  <si>
+    <t>Ученик не будет вечно ждать вашего ответа.; Пожалуйста, ответьте ему.</t>
+  </si>
+  <si>
+    <t>Сэр, я напомню; что если ученики не смогут; дописать экзамен из-за стресса; то нам придется принять меры.; Поэтому, пожалуйста; не давите сильно на учеников.</t>
+  </si>
+  <si>
+    <t>Отлично!; Вы прошли начальный курс экзаменатора.; Теперь вы готовы проводить ваш первый экзамен.; Успехов на экзамене!</t>
+  </si>
+  <si>
+    <t>Замечу, что посторонними предметами; Являются различные бумажки, телефоны; И так далее.</t>
+  </si>
+  <si>
+    <t>Напоминаю, что вам нужно казнить учеников; использующих запрещенные программы</t>
+  </si>
+  <si>
+    <t>Напоминаю, что вам нужно казнить учеников; использующих посторонние предметы</t>
+  </si>
+  <si>
+    <t>;- Да?;
+- Ты же помнишь как проводить экзамены?;
+- Я помню.; 
+- Что же...; Тогда просто сделай так; чтобы никто не списал.; Успехов...</t>
+  </si>
+  <si>
+    <t>;- Стой; А ты точно помнишь; как проводить экзамены?;
+- Да.;
+- Просто у меня такое чувство; что ты сильно напрягаешь учеников.;;</t>
+  </si>
+  <si>
+    <t>Сэр, прошу вас пройти в лифт; для проведения следущего экзамена.</t>
+  </si>
+  <si>
+    <t>А теперь зайдите в компьютер.</t>
+  </si>
+  <si>
+    <t>Так как вы сейчас находитесь далеко от ученика; и не смотрите на него - его стресс понижается.; А чтобы понять на что стресс влияет; посмотрите на график.; Как вы видите; чем больше стресс - тем меньше желания списать; Но так же и меньше скорость написания экзамена.; Поэтому оптимальное значение стресса от 40% - 60%.; А теперь постарайтесь держать оптимальный стресс; у всех учеников 30 секунд.</t>
+  </si>
+  <si>
+    <t>Напоминаю; что вам нужно поднять стресс до 100%</t>
+  </si>
+  <si>
+    <t>Напоминаю; что вам нужно поднять стресс этого ученика до 30%</t>
+  </si>
+  <si>
+    <t>Напоминаю; что вам нужно поднять стресс; не жесткими высказываниями; а более мягкими.</t>
+  </si>
+  <si>
+    <t>Напоминаю; что вам нужно держать стресс всех учеников; в пределах от 40% до 60%</t>
+  </si>
+  <si>
+    <t>;Ладно... Позвони после экзаменов; Успехов...</t>
+  </si>
+  <si>
+    <t>;- Ало, Ваня?;;
+- Если вы хотите услышать Ваню; то не кладите трубку; и выслушайте меня.; С данного момента вы находитесь; под моим контролем.; Любое непослушание будет караться; уничтожением вашей жизни; и жизни вашего друга.; Начиная с завтрашнего дня; вы будете проводить экзамены.; Точно так же; как вы их проводили в свои лучшие годы.; Любые лишние вопросы не приветсвуются.; И да...; Я забыл представиться.; Я Егор Акимов - создать экзамена "АКАШ".; Что же; мне было очень приятно познакомиться.; Буду рад видеть вас завтра.; Успехов на экзамене...</t>
+  </si>
+  <si>
+    <t>Знаешь, однажды я сидел на экзамене; И все сидели на экзамене; Вот так вот; Ну, давай-давай! Иди уже.</t>
+  </si>
+  <si>
+    <t>Стой! Да, ладно тебе, я же шучу; Иди куда хочещь; конечно, иди-иди-иди. Иди.</t>
+  </si>
+  <si>
+    <t>Нет, сейчас в туалет нельзя</t>
+  </si>
+  <si>
+    <t>Нет, сейчас в коридор нельзя</t>
+  </si>
+  <si>
+    <t>;- Да?; 
 - Мне нужна твоя помощь.;
 - Что тебе нужно?;
 - Мне нужно, чтобы ты провёл экзамен.;
 - Я же говорил; Что больше не провожу экзамены.;
-- Да, я знаю... Я бы тебе не звонил; Если бы мне мог помочь кто-то другой.; Это вопрос жизни и смерти.;
-- Говори адрес.</t>
-  </si>
-  <si>
-    <t>Добро пожаловать; На программу подготовки экзаменаторов.; Здесь вас научат; Как правильно проводить экзамен АКАШ.; Чтобы продолжить, пройдите в первую комнату.</t>
-  </si>
-  <si>
-    <t>Сейчас мы научим вас как "казнить".; Но не беспокойтесь; "Казнить" - эти лишь кодовое слово; Для того, чтобы выгнать ученика.; Представьте, что ученик перед вами списал.; Пожалуйста, "казните" его за это.</t>
-  </si>
-  <si>
-    <t>Супер!; Но как вы видете, вам сняли очки за это.; Все потому, что этот ученик не списывал.; Поэтому зайдите в компьютер; Чтобы узнать правила экзамена.</t>
-  </si>
-  <si>
-    <t>Ах, да, чуть не забыл; Ваш логин и пароль - 0000.; По многочисленным расчетам; Это самый надежный из доступных паролей.</t>
-  </si>
-  <si>
-    <t>Как вы видете, на экзамене можно пользоваться; Только некоторыми программами.; Понаблюдайте за учениками и казните всех; Кто начнет пользоваться запрещенными программами.</t>
-  </si>
-  <si>
-    <t>Отлично!; Так же на экзамене нельзя пользоваться; Любыми посторонними предметами.; Поэтому казните всех; кто начнет пользоваться чем-то посторонним.</t>
-  </si>
-  <si>
-    <t>Супер!; Мы научились "казнить" учеников.; А сейчас мы научимся отвечать; На вопросы учеников.; Попробуйте ответить "нет" этому ученику.</t>
-  </si>
-  <si>
-    <t>Если вы ответите нет ученику; Когда должны были ответить да; Ваша репутация снижается.; Поэтому следите за своим языком.; А теперь ответьте да.</t>
-  </si>
-  <si>
-    <t>- Стой; А ты точно помнишь; как проводить экзамены?;
-- Да, а что?;
-- Просто у меня такое предчувствие; что ты забыл как обращаться с учениками.</t>
-  </si>
-  <si>
-    <t>Level_2_Begining_0</t>
-  </si>
-  <si>
-    <t>Tutorial_1_Introdaction_Home_0</t>
-  </si>
-  <si>
-    <t>Tutorial_1_Introdaction_Home_1</t>
-  </si>
-  <si>
-    <t>Tutorial_1_Introdaction_Training_0</t>
-  </si>
-  <si>
-    <t>Tutorial_1_Introdaction_Training_1</t>
-  </si>
-  <si>
-    <t>Level_1_Introdaction_0</t>
-  </si>
-  <si>
-    <t>Level_1_Introdaction_1</t>
-  </si>
-  <si>
-    <t>Level_2_Introdaction_0</t>
-  </si>
-  <si>
-    <t>Level_2_Introdaction_1</t>
-  </si>
-  <si>
-    <t>Tutorial_2_Introdaction_0</t>
-  </si>
-  <si>
-    <t>Tutorial_2_Introdaction_1</t>
-  </si>
-  <si>
-    <t>День 0 - Экзамен 2</t>
-  </si>
-  <si>
-    <t>День 0 - Экзамен 1</t>
-  </si>
-  <si>
-    <t>Level_1_Ending_0</t>
-  </si>
-  <si>
-    <t>Level_1_Ending_1</t>
-  </si>
-  <si>
-    <t>Экзамен на этом этаже законечен.; Прошу пройти в лифт.</t>
-  </si>
-  <si>
-    <t>- Нет, не беспокойся, я все помню;
-- Хорошо... Позвони после экзамена. Успехов!;</t>
-  </si>
-  <si>
-    <t>Level_1_Mistake_Ending_0</t>
-  </si>
-  <si>
-    <t>Level_1_Ending_2</t>
-  </si>
-  <si>
-    <t>Экзамен закочнен. Подойдите к компьютеру.</t>
-  </si>
-  <si>
-    <t>Сэр, пожалуйста, подойдите к компьютеру.</t>
-  </si>
-  <si>
-    <t>Level_1_Mistake_Ending_1</t>
-  </si>
-  <si>
-    <t>Сэр, прошу вас пройти в лифт для проведения следущего экзамена.</t>
-  </si>
-  <si>
-    <t>Level_2_Thanks_0</t>
-  </si>
-  <si>
-    <t>Level_2_Thanks_1</t>
-  </si>
-  <si>
-    <t>Спасибо, что сыграли в игру "АКАШ"</t>
-  </si>
-  <si>
-    <t>Ваша обратная связь поможет сделать игру лучше</t>
-  </si>
-  <si>
-    <t>Чтобы сказать что-то резкое ученику</t>
-  </si>
-  <si>
-    <t>Чтобы сказать что-то мягкое ученику</t>
-  </si>
-  <si>
-    <t>Чтобы посмотреть оставшееся время</t>
-  </si>
-  <si>
-    <t>Level_2_Ending_0</t>
-  </si>
-  <si>
-    <t>Tutorial_1_Mistake_Room_8</t>
-  </si>
-  <si>
-    <t>А сейчас зайдите в программу "Правила".</t>
-  </si>
-  <si>
-    <t>Напоминаю, что вам нужно казнить учеников использующих запрещенные программы</t>
-  </si>
-  <si>
-    <t>Напоминаю, что вам нужно казнить учеников использующих посторонние предметы</t>
-  </si>
-  <si>
-    <t>Tutorial_1_Mistake_Room_9</t>
-  </si>
-  <si>
-    <t>Tutorial_1_Mistake_Room_10</t>
-  </si>
-  <si>
-    <t>Tutorial_2_Mistake_First_Room_3</t>
-  </si>
-  <si>
-    <t>Level_2_Begining_1</t>
-  </si>
-  <si>
-    <t>Чтобы накричать на всех</t>
-  </si>
-  <si>
-    <t>Пожалуйста, зайдите в компьютер</t>
-  </si>
-  <si>
-    <t>Tutorial_1_Mistake_Room_11</t>
-  </si>
-  <si>
-    <t>Пожалуйста, зайдите в программу "Правила"</t>
-  </si>
-  <si>
-    <t>Tutorial_1_Mistake_Room_12</t>
-  </si>
-  <si>
-    <t>Пожалуйста, казните того ученика.; Он нарушил правила экзамена.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, пройдите в следующий комнату.</t>
-  </si>
-  <si>
-    <t>Ученик не будет вечно ждать вашего ответа.; Пожалуйста, ответьте ему.</t>
-  </si>
-  <si>
-    <t>- Ало, Ваня?; 
-- Если вы хотите услышать Ваню; то не кладите трубку; и выслушайте меня.; С данного момента вы находитесь; под моим контролем.; Любое непослушание будет караться; уничтожением вашей жизни; и жизни вашего друга.; Начиная с завтрашнего дня; вы будете проводить экзамены.; Точно так же; как вы их проводили в свои лучшие годы.; Любые лишние вопросы не приветсвуются.; И да...; Я забыл представиться.; Я Егор Акимов - создать экзамена "АКАШ".; Что же; мне было очень приятно познакомиться.; Буду рад видеть вас завтра.; Успехов на экзамене...</t>
-  </si>
-  <si>
-    <t>Сэр, я напомню; что если ученики не смогут; дописать экзамен из-за стресса; то нам придется принять меры.; Поэтому, пожалуйста; не давите сильно на учеников.</t>
+- Да, я знаю... Я бы тебе не звонил; Если бы мне мог помочь кто-то другой.; Это вопрос жизни и смерти.;;
+- Говори адрес.;;</t>
+  </si>
+  <si>
+    <t>К сожалению вы нарушили правила; Мне ничего не остается сделать, кроме как...; Казнить</t>
   </si>
 </sst>
 </file>
@@ -5528,8 +5528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:B81"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5631,7 +5631,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="173" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="57"/>
@@ -5644,7 +5644,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="174" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="60"/>
@@ -5657,7 +5657,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="174" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D5" s="59"/>
       <c r="E5" s="60"/>
@@ -5670,7 +5670,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="174" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
@@ -5751,7 +5751,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="60"/>
@@ -5764,7 +5764,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="69"/>
@@ -5777,7 +5777,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="69"/>
@@ -5812,7 +5812,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="69"/>
@@ -5825,7 +5825,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="69"/>
@@ -5838,7 +5838,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="108" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D20" s="59"/>
       <c r="E20" s="69"/>
@@ -5873,7 +5873,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D23" s="76"/>
       <c r="E23" s="69"/>
@@ -5886,7 +5886,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="104" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="69"/>
@@ -5899,7 +5899,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="109" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D25" s="87"/>
       <c r="E25" s="69"/>
@@ -5924,7 +5924,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="106" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D27" s="89"/>
       <c r="E27" s="69"/>
@@ -5937,7 +5937,7 @@
         <v>50</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D28" s="91"/>
       <c r="E28" s="69"/>
@@ -5950,7 +5950,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D29" s="91"/>
       <c r="E29" s="69"/>
@@ -5975,7 +5975,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D31" s="94"/>
       <c r="E31" s="69"/>
@@ -5988,7 +5988,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="111" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D32" s="87"/>
       <c r="E32" s="69"/>
@@ -6001,7 +6001,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="112" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D33" s="101"/>
       <c r="E33" s="69"/>
@@ -6016,7 +6016,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="106" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D34" s="89"/>
       <c r="E34" s="69"/>
@@ -6029,7 +6029,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D35" s="91"/>
       <c r="E35" s="69"/>
@@ -6042,7 +6042,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="108" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D36" s="93"/>
       <c r="E36" s="69"/>
@@ -6057,7 +6057,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="110" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D37" s="94"/>
       <c r="E37" s="69"/>
@@ -6070,7 +6070,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="111" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="69"/>
@@ -6083,7 +6083,7 @@
         <v>58</v>
       </c>
       <c r="C39" s="113" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="69"/>
@@ -6118,7 +6118,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="114" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D42" s="89"/>
       <c r="E42" s="69"/>
@@ -6131,7 +6131,7 @@
         <v>61</v>
       </c>
       <c r="C43" s="115" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D43" s="91"/>
       <c r="E43" s="69"/>
@@ -6144,7 +6144,7 @@
         <v>62</v>
       </c>
       <c r="C44" s="116" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D44" s="91"/>
       <c r="E44" s="69"/>
@@ -6179,7 +6179,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="117" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D47" s="94"/>
       <c r="E47" s="69"/>
@@ -6192,7 +6192,7 @@
         <v>65</v>
       </c>
       <c r="C48" s="118" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D48" s="87"/>
       <c r="E48" s="69"/>
@@ -6205,7 +6205,7 @@
         <v>66</v>
       </c>
       <c r="C49" s="119" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D49" s="87"/>
       <c r="E49" s="69"/>
@@ -6230,7 +6230,7 @@
         <v>13</v>
       </c>
       <c r="C51" s="120" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D51" s="89"/>
       <c r="E51" s="69"/>
@@ -6243,7 +6243,7 @@
         <v>68</v>
       </c>
       <c r="C52" s="121" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D52" s="91"/>
       <c r="E52" s="69"/>
@@ -6256,7 +6256,7 @@
         <v>69</v>
       </c>
       <c r="C53" s="122" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D53" s="91"/>
       <c r="E53" s="69"/>
@@ -6281,7 +6281,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D55" s="94"/>
       <c r="E55" s="69"/>
@@ -6294,7 +6294,7 @@
         <v>71</v>
       </c>
       <c r="C56" s="118" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D56" s="87"/>
       <c r="E56" s="69"/>
@@ -6307,7 +6307,7 @@
         <v>72</v>
       </c>
       <c r="C57" s="123" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D57" s="101"/>
       <c r="E57" s="69"/>
@@ -6322,7 +6322,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="124" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D58" s="89"/>
       <c r="E58" s="69"/>
@@ -6335,7 +6335,7 @@
         <v>73</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>905</v>
+        <v>1077</v>
       </c>
       <c r="D59" s="91"/>
       <c r="E59" s="69"/>
@@ -6348,7 +6348,7 @@
         <v>74</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>906</v>
+        <v>1078</v>
       </c>
       <c r="D60" s="93"/>
       <c r="E60" s="69"/>
@@ -6447,7 +6447,7 @@
         <v>343</v>
       </c>
       <c r="C68" s="98" t="s">
-        <v>368</v>
+        <v>1079</v>
       </c>
       <c r="D68" s="102"/>
     </row>
@@ -6465,7 +6465,7 @@
         <v>350</v>
       </c>
       <c r="C70" s="98" t="s">
-        <v>368</v>
+        <v>1079</v>
       </c>
       <c r="D70" s="102"/>
     </row>
@@ -6483,7 +6483,7 @@
         <v>352</v>
       </c>
       <c r="C72" s="98" t="s">
-        <v>604</v>
+        <v>1080</v>
       </c>
       <c r="D72" s="102"/>
     </row>
@@ -6543,28 +6543,28 @@
     </row>
     <row r="79" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C79" s="102" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D79" s="102"/>
     </row>
     <row r="80" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C80" s="102" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D80" s="102"/>
     </row>
     <row r="81" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C81" s="102" t="s">
-        <v>374</v>
+        <v>1082</v>
       </c>
       <c r="D81" s="102"/>
     </row>
@@ -7696,8 +7696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED7673E-04F8-432C-BDD2-F8DC231601DD}">
   <dimension ref="A1:Z142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="B16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="92.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7773,13 +7773,13 @@
     </row>
     <row r="3" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="212" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1024</v>
+        <v>1081</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="57"/>
@@ -7805,10 +7805,10 @@
     <row r="4" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="213"/>
       <c r="B4" s="58" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="60"/>
@@ -7834,10 +7834,10 @@
     <row r="5" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="213"/>
       <c r="B5" s="58" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="D5" s="91"/>
       <c r="E5" s="60"/>
@@ -7863,10 +7863,10 @@
     <row r="6" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="213"/>
       <c r="B6" s="58" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="60"/>
@@ -7892,10 +7892,10 @@
     <row r="7" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="213"/>
       <c r="B7" s="58" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="D7" s="91"/>
       <c r="E7" s="60"/>
@@ -7905,10 +7905,10 @@
     <row r="8" spans="1:26" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="213"/>
       <c r="B8" s="62" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="D8" s="93"/>
       <c r="E8" s="60"/>
@@ -7918,10 +7918,10 @@
     <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="213"/>
       <c r="B9" s="65" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="D9" s="94"/>
       <c r="E9" s="60"/>
@@ -7931,10 +7931,10 @@
     <row r="10" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="213"/>
       <c r="B10" s="67" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="D10" s="87"/>
       <c r="E10" s="60"/>
@@ -7944,10 +7944,10 @@
     <row r="11" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="213"/>
       <c r="B11" s="67" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="D11" s="87"/>
       <c r="E11" s="60"/>
@@ -7957,10 +7957,10 @@
     <row r="12" spans="1:26" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="213"/>
       <c r="B12" s="67" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="D12" s="87"/>
       <c r="E12" s="60"/>
@@ -7970,10 +7970,10 @@
     <row r="13" spans="1:26" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="213"/>
       <c r="B13" s="70" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="D13" s="95"/>
       <c r="E13" s="60"/>
@@ -7983,7 +7983,7 @@
     <row r="14" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="213"/>
       <c r="B14" s="71" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C14" s="91" t="s">
         <v>339</v>
@@ -7996,10 +7996,10 @@
     <row r="15" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="213"/>
       <c r="B15" s="73" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>1022</v>
+        <v>1062</v>
       </c>
       <c r="D15" s="91"/>
       <c r="E15" s="69"/>
@@ -8009,7 +8009,7 @@
     <row r="16" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="213"/>
       <c r="B16" s="58" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C16" s="98"/>
       <c r="D16" s="97"/>
@@ -8020,7 +8020,7 @@
     <row r="17" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="213"/>
       <c r="B17" s="49" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C17" s="98"/>
       <c r="D17" s="98"/>
@@ -8031,10 +8031,10 @@
     <row r="18" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="213"/>
       <c r="B18" s="58" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="69"/>
@@ -8044,10 +8044,10 @@
     <row r="19" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="213"/>
       <c r="B19" s="49" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="69"/>
@@ -8057,10 +8057,10 @@
     <row r="20" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="213"/>
       <c r="B20" s="58" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="69"/>
@@ -8070,10 +8070,10 @@
     <row r="21" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="213"/>
       <c r="B21" s="49" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>1018</v>
+        <v>1063</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="69"/>
@@ -8083,10 +8083,10 @@
     <row r="22" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="213"/>
       <c r="B22" s="58" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="69"/>
@@ -8096,10 +8096,10 @@
     <row r="23" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="213"/>
       <c r="B23" s="49" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="D23" s="98"/>
       <c r="E23" s="69"/>
@@ -8109,10 +8109,10 @@
     <row r="24" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="213"/>
       <c r="B24" s="49" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="69"/>
@@ -8122,10 +8122,10 @@
     <row r="25" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="213"/>
       <c r="B25" s="49" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F25" s="69"/>
       <c r="G25" s="61"/>
@@ -8133,10 +8133,10 @@
     <row r="26" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="181"/>
       <c r="B26" s="49" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="F26" s="69"/>
       <c r="G26" s="61"/>
@@ -8144,10 +8144,10 @@
     <row r="27" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="181"/>
       <c r="B27" s="49" t="s">
-        <v>1075</v>
+        <v>1055</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="E27" s="69"/>
       <c r="F27" s="69"/>
@@ -8156,10 +8156,10 @@
     <row r="28" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="181"/>
       <c r="B28" s="49" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="D28" s="98"/>
       <c r="E28" s="69"/>
@@ -8169,10 +8169,10 @@
     <row r="29" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="181"/>
       <c r="B29" s="69" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="61"/>
@@ -8180,10 +8180,10 @@
     <row r="30" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="181"/>
       <c r="B30" s="69" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="69"/>
@@ -8193,10 +8193,10 @@
     <row r="31" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="181"/>
       <c r="B31" s="69" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
       <c r="C31" s="189" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="D31" s="98"/>
       <c r="E31" s="69"/>
@@ -8206,10 +8206,10 @@
     <row r="32" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="181"/>
       <c r="B32" s="69" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
       <c r="C32" s="189" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="D32" s="98"/>
       <c r="E32" s="69"/>
@@ -8219,10 +8219,10 @@
     <row r="33" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="181"/>
       <c r="B33" s="69" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="C33" s="189" t="s">
-        <v>1033</v>
+        <v>1067</v>
       </c>
       <c r="D33" s="98"/>
       <c r="E33" s="69"/>
@@ -8232,10 +8232,10 @@
     <row r="34" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="181"/>
       <c r="B34" s="69" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="D34" s="98"/>
       <c r="E34" s="69"/>
@@ -8245,10 +8245,10 @@
     <row r="35" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="85"/>
       <c r="B35" s="69" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="E35" s="69"/>
       <c r="F35" s="69"/>
@@ -8257,10 +8257,10 @@
     <row r="36" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="85"/>
       <c r="B36" s="49" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
@@ -8269,10 +8269,10 @@
     <row r="37" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="49" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C37" s="189" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
@@ -8281,10 +8281,10 @@
     <row r="38" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="49" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C38" s="189" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69"/>
@@ -8293,10 +8293,10 @@
     <row r="39" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="49" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C39" s="189" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="69"/>
@@ -8306,10 +8306,10 @@
     <row r="40" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="49" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C40" s="189" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D40" s="98"/>
       <c r="E40" s="69"/>
@@ -8319,10 +8319,10 @@
     <row r="41" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48"/>
       <c r="B41" s="49" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C41" s="189" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="D41" s="98"/>
       <c r="E41" s="69"/>
@@ -8332,10 +8332,10 @@
     <row r="42" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="85"/>
       <c r="B42" s="49" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="D42" s="98"/>
       <c r="E42" s="69"/>
@@ -8345,10 +8345,10 @@
     <row r="43" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="85"/>
       <c r="B43" s="49" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D43" s="98"/>
       <c r="E43" s="69"/>
@@ -8358,10 +8358,10 @@
     <row r="44" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="85"/>
       <c r="B44" s="49" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C44" s="98" t="s">
-        <v>1005</v>
+        <v>1069</v>
       </c>
       <c r="D44" s="98"/>
       <c r="E44" s="69"/>
@@ -8371,10 +8371,10 @@
     <row r="45" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="85"/>
       <c r="B45" s="49" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C45" s="98" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="D45" s="98"/>
       <c r="E45" s="69"/>
@@ -8384,10 +8384,10 @@
     <row r="46" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85"/>
       <c r="B46" s="49" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C46" s="98" t="s">
-        <v>1006</v>
+        <v>1070</v>
       </c>
       <c r="D46" s="98"/>
       <c r="E46" s="69"/>
@@ -8397,10 +8397,10 @@
     <row r="47" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="49" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C47" s="189" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D47" s="98"/>
       <c r="E47" s="69"/>
@@ -8410,10 +8410,10 @@
     <row r="48" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="49" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C48" s="98" t="s">
-        <v>1008</v>
+        <v>1071</v>
       </c>
       <c r="F48" s="69"/>
       <c r="G48" s="61"/>
@@ -8421,10 +8421,10 @@
     <row r="49" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
       <c r="B49" s="49" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>1009</v>
+        <v>1072</v>
       </c>
       <c r="D49" s="98"/>
       <c r="E49" s="69"/>
@@ -8434,10 +8434,10 @@
     <row r="50" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="49" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C50" s="98" t="s">
-        <v>1010</v>
+        <v>1073</v>
       </c>
       <c r="D50" s="98"/>
       <c r="E50" s="69"/>
@@ -8447,10 +8447,10 @@
     <row r="51" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="85"/>
       <c r="B51" s="49" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
       <c r="D51" s="98"/>
       <c r="E51" s="69"/>
@@ -8460,10 +8460,10 @@
     <row r="52" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="85"/>
       <c r="B52" s="49" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="D52" s="98"/>
       <c r="E52" s="69"/>
@@ -8473,10 +8473,10 @@
     <row r="53" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="85"/>
       <c r="B53" s="49" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C53" s="190" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="D53" s="98"/>
       <c r="E53" s="69"/>
@@ -8486,10 +8486,10 @@
     <row r="54" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="85"/>
       <c r="B54" s="49" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C54" s="98" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="D54" s="98"/>
       <c r="E54" s="69"/>
@@ -8499,10 +8499,10 @@
     <row r="55" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="49" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C55" s="98" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="F55" s="69"/>
       <c r="G55" s="61"/>
@@ -8510,10 +8510,10 @@
     <row r="56" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="48"/>
       <c r="B56" s="49" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C56" s="98" t="s">
-        <v>1015</v>
+        <v>1074</v>
       </c>
       <c r="D56" s="98"/>
       <c r="E56" s="69"/>
@@ -8523,10 +8523,10 @@
     <row r="57" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="48"/>
       <c r="B57" s="27" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="C57" s="98" t="s">
-        <v>1050</v>
+        <v>1075</v>
       </c>
       <c r="D57" s="98"/>
       <c r="E57" s="69"/>
@@ -8536,10 +8536,10 @@
     <row r="58" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="85"/>
       <c r="B58" s="27" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="C58" s="102" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="D58" s="98"/>
       <c r="E58" s="69"/>
@@ -8549,10 +8549,10 @@
     <row r="59" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="85"/>
       <c r="B59" s="69" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="C59" s="189" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="D59" s="98"/>
       <c r="E59" s="69"/>
@@ -8571,7 +8571,7 @@
       <c r="D61" s="69"/>
       <c r="E61" s="69"/>
       <c r="F61" s="98" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G61" s="61"/>
     </row>
@@ -8885,94 +8885,94 @@
         <v>19</v>
       </c>
       <c r="G1" s="128" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H1" s="128" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I1" s="128" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J1" s="128" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K1" s="128" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L1" s="128" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M1" s="128" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N1" s="128" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O1" s="128" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P1" s="128" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q1" s="128" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="R1" s="128" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S1" s="128" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="T1" s="128" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="U1" s="128" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V1" s="128" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="W1" s="128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="X1" s="128" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Y1" s="128" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Z1" s="128" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AA1" s="128" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AB1" s="128" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AC1" s="128" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AD1" s="128" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AE1" s="128" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AF1" s="128" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG1" s="128" t="s">
         <v>401</v>
       </c>
-      <c r="AG1" s="128" t="s">
-        <v>403</v>
-      </c>
       <c r="AH1" s="128" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AI1" s="128" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AJ1" s="128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8987,255 +8987,255 @@
         <v>18</v>
       </c>
       <c r="G2" s="128" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H2" s="128" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I2" s="128" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J2" s="128" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K2" s="128" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L2" s="128" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M2" s="128" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N2" s="128" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O2" s="128" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P2" s="128" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q2" s="128" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R2" s="128" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="S2" s="128" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T2" s="128" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="U2" s="128" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="V2" s="128" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W2" s="128" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="X2" s="128" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Y2" s="128" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Z2" s="128" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AA2" s="128" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AB2" s="128" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AC2" s="128" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AD2" s="128" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AE2" s="128" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF2" s="128" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG2" s="128" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AH2" s="128" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AI2" s="128" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AJ2" s="128" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="219" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B3" s="129" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C3" s="151" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D3" s="131"/>
       <c r="G3" s="128" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H3" s="128" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I3" s="128" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J3" s="128" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K3" s="128" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L3" s="128" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M3" s="128" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N3" s="128" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O3" s="128" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P3" s="128" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q3" s="128" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R3" s="128" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="S3" s="128" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="T3" s="128" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U3" s="128" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="V3" s="128" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="W3" s="128" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="X3" s="128" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Y3" s="128" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z3" s="128" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AA3" s="128" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AB3" s="128" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AC3" s="128" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AD3" s="128" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AE3" s="128" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AF3" s="128" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG3" s="128" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AH3" s="128" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AI3" s="128" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AJ3" s="128" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="220"/>
       <c r="B4" s="129" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D4" s="131"/>
     </row>
     <row r="5" spans="1:36" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="220"/>
       <c r="B5" s="129" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D5" s="131"/>
     </row>
     <row r="6" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="220"/>
       <c r="B6" s="129" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D6" s="131"/>
     </row>
     <row r="7" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="220"/>
       <c r="B7" s="129" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C7" s="162" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D7" s="131"/>
     </row>
     <row r="8" spans="1:36" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="220"/>
       <c r="B8" s="129" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C8" s="163" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D8" s="131"/>
     </row>
     <row r="9" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="220"/>
       <c r="B9" s="129" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C9" s="164" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D9" s="131"/>
       <c r="M9" s="127"/>
@@ -9260,10 +9260,10 @@
     <row r="10" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="220"/>
       <c r="B10" s="129" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C10" s="156" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D10" s="131"/>
       <c r="M10" s="127"/>
@@ -9288,23 +9288,23 @@
     <row r="11" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="220"/>
       <c r="B11" s="129" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C11" s="165" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D11" s="131"/>
       <c r="G11" t="s">
+        <v>389</v>
+      </c>
+      <c r="H11" t="s">
+        <v>390</v>
+      </c>
+      <c r="I11" t="s">
         <v>391</v>
       </c>
-      <c r="H11" t="s">
-        <v>392</v>
-      </c>
-      <c r="I11" t="s">
-        <v>393</v>
-      </c>
       <c r="J11" s="128" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K11" s="129" t="str">
         <f>G$11 &amp;$J11</f>
@@ -9339,14 +9339,14 @@
     <row r="12" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="220"/>
       <c r="B12" s="129" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C12" s="166" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D12" s="131"/>
       <c r="J12" s="128" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K12" s="129" t="str">
         <f t="shared" ref="K12:K75" si="1">G$11 &amp;$J12</f>
@@ -9381,14 +9381,14 @@
     <row r="13" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="220"/>
       <c r="B13" s="129" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C13" s="167" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D13" s="132"/>
       <c r="J13" s="128" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K13" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9423,14 +9423,14 @@
     <row r="14" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="220"/>
       <c r="B14" s="129" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C14" s="168" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D14" s="132"/>
       <c r="J14" s="128" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K14" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9465,12 +9465,12 @@
     <row r="15" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="220"/>
       <c r="B15" s="129" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C15" s="132"/>
       <c r="D15" s="132"/>
       <c r="J15" s="128" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K15" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9505,12 +9505,12 @@
     <row r="16" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="220"/>
       <c r="B16" s="129" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C16" s="131"/>
       <c r="D16" s="131"/>
       <c r="J16" s="128" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K16" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9545,12 +9545,12 @@
     <row r="17" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="220"/>
       <c r="B17" s="129" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C17" s="132"/>
       <c r="D17" s="132"/>
       <c r="J17" s="128" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K17" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9585,14 +9585,14 @@
     <row r="18" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="220"/>
       <c r="B18" s="129" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C18" s="161" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D18" s="132"/>
       <c r="J18" s="128" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K18" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9627,14 +9627,14 @@
     <row r="19" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="220"/>
       <c r="B19" s="129" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C19" s="162" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D19" s="132"/>
       <c r="J19" s="128" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K19" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9669,14 +9669,14 @@
     <row r="20" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="220"/>
       <c r="B20" s="129" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C20" s="163" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D20" s="132"/>
       <c r="J20" s="128" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K20" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9711,12 +9711,12 @@
     <row r="21" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="220"/>
       <c r="B21" s="129" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C21" s="132"/>
       <c r="D21" s="132"/>
       <c r="J21" s="128" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K21" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9751,12 +9751,12 @@
     <row r="22" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="220"/>
       <c r="B22" s="129" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C22" s="132"/>
       <c r="D22" s="132"/>
       <c r="J22" s="128" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K22" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9791,12 +9791,12 @@
     <row r="23" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="220"/>
       <c r="B23" s="129" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C23" s="132"/>
       <c r="D23" s="132"/>
       <c r="J23" s="128" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K23" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9831,14 +9831,14 @@
     <row r="24" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="220"/>
       <c r="B24" s="129" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C24" s="166" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D24" s="132"/>
       <c r="J24" s="128" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K24" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9873,14 +9873,14 @@
     <row r="25" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="220"/>
       <c r="B25" s="129" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C25" s="167" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D25" s="132"/>
       <c r="J25" s="128" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K25" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9915,14 +9915,14 @@
     <row r="26" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="220"/>
       <c r="B26" s="129" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C26" s="167" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D26" s="132"/>
       <c r="J26" s="128" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K26" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9957,12 +9957,12 @@
     <row r="27" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="220"/>
       <c r="B27" s="129" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C27" s="132"/>
       <c r="D27" s="132"/>
       <c r="J27" s="128" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K27" s="129" t="str">
         <f t="shared" si="1"/>
@@ -9997,12 +9997,12 @@
     <row r="28" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="220"/>
       <c r="B28" s="129" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C28" s="132"/>
       <c r="D28" s="132"/>
       <c r="J28" s="128" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K28" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10037,12 +10037,12 @@
     <row r="29" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="220"/>
       <c r="B29" s="129" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C29" s="132"/>
       <c r="D29" s="132"/>
       <c r="J29" s="128" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K29" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10077,14 +10077,14 @@
     <row r="30" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="220"/>
       <c r="B30" s="129" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C30" s="161" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D30" s="132"/>
       <c r="J30" s="128" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K30" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10119,14 +10119,14 @@
     <row r="31" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="220"/>
       <c r="B31" s="129" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C31" s="162" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D31" s="132"/>
       <c r="J31" s="128" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K31" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10161,14 +10161,14 @@
     <row r="32" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="220"/>
       <c r="B32" s="129" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C32" s="163" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D32" s="132"/>
       <c r="J32" s="128" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K32" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10203,12 +10203,12 @@
     <row r="33" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="220"/>
       <c r="B33" s="129" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C33" s="132"/>
       <c r="D33" s="132"/>
       <c r="J33" s="128" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K33" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10243,12 +10243,12 @@
     <row r="34" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="220"/>
       <c r="B34" s="129" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C34" s="132"/>
       <c r="D34" s="132"/>
       <c r="J34" s="128" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K34" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10283,12 +10283,12 @@
     <row r="35" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="220"/>
       <c r="B35" s="129" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C35" s="131"/>
       <c r="D35" s="131"/>
       <c r="J35" s="128" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K35" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10323,14 +10323,14 @@
     <row r="36" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="220"/>
       <c r="B36" s="129" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C36" s="166" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D36" s="132"/>
       <c r="J36" s="128" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K36" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10365,14 +10365,14 @@
     <row r="37" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="220"/>
       <c r="B37" s="129" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C37" s="167" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D37" s="132"/>
       <c r="J37" s="128" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K37" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10407,14 +10407,14 @@
     <row r="38" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="220"/>
       <c r="B38" s="129" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C38" s="168" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D38" s="132"/>
       <c r="J38" s="128" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K38" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10449,14 +10449,14 @@
     <row r="39" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="220"/>
       <c r="B39" s="129" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C39" s="151" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D39" s="132"/>
       <c r="J39" s="128" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K39" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10491,14 +10491,14 @@
     <row r="40" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="220"/>
       <c r="B40" s="129" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C40" s="162" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D40" s="132"/>
       <c r="J40" s="128" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K40" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10533,14 +10533,14 @@
     <row r="41" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="220"/>
       <c r="B41" s="129" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C41" s="153" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D41" s="132"/>
       <c r="J41" s="128" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K41" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10575,14 +10575,14 @@
     <row r="42" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="220"/>
       <c r="B42" s="129" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C42" s="161" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D42" s="132"/>
       <c r="J42" s="128" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K42" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10617,14 +10617,14 @@
     <row r="43" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="220"/>
       <c r="B43" s="129" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C43" s="152" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D43" s="152"/>
       <c r="J43" s="128" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K43" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10659,14 +10659,14 @@
     <row r="44" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="220"/>
       <c r="B44" s="129" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C44" s="169" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D44" s="132"/>
       <c r="J44" s="128" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K44" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10701,14 +10701,14 @@
     <row r="45" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="220"/>
       <c r="B45" s="129" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C45" s="155" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D45" s="132"/>
       <c r="J45" s="128" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K45" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10743,14 +10743,14 @@
     <row r="46" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="220"/>
       <c r="B46" s="129" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C46" s="156" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D46" s="132"/>
       <c r="J46" s="128" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K46" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10785,14 +10785,14 @@
     <row r="47" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="220"/>
       <c r="B47" s="129" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C47" s="157" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D47" s="132"/>
       <c r="J47" s="128" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K47" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10827,14 +10827,14 @@
     <row r="48" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="220"/>
       <c r="B48" s="129" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C48" s="170" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D48" s="132"/>
       <c r="J48" s="128" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K48" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10869,14 +10869,14 @@
     <row r="49" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="220"/>
       <c r="B49" s="129" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C49" s="167" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D49" s="132"/>
       <c r="J49" s="128" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K49" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10911,14 +10911,14 @@
     <row r="50" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="220"/>
       <c r="B50" s="129" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C50" s="171" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D50" s="132"/>
       <c r="J50" s="128" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K50" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10953,12 +10953,12 @@
     <row r="51" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="220"/>
       <c r="B51" s="129" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C51" s="132"/>
       <c r="D51" s="132"/>
       <c r="J51" s="128" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K51" s="129" t="str">
         <f t="shared" si="1"/>
@@ -10993,12 +10993,12 @@
     <row r="52" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="220"/>
       <c r="B52" s="129" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C52" s="132"/>
       <c r="D52" s="132"/>
       <c r="J52" s="128" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K52" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11033,12 +11033,12 @@
     <row r="53" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="220"/>
       <c r="B53" s="129" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C53" s="132"/>
       <c r="D53" s="132"/>
       <c r="J53" s="128" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K53" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11073,12 +11073,12 @@
     <row r="54" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="220"/>
       <c r="B54" s="129" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C54" s="132"/>
       <c r="D54" s="132"/>
       <c r="J54" s="128" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K54" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11113,12 +11113,12 @@
     <row r="55" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="220"/>
       <c r="B55" s="129" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C55" s="132"/>
       <c r="D55" s="132"/>
       <c r="J55" s="128" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K55" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11153,12 +11153,12 @@
     <row r="56" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="220"/>
       <c r="B56" s="129" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C56" s="132"/>
       <c r="D56" s="132"/>
       <c r="J56" s="128" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K56" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11193,12 +11193,12 @@
     <row r="57" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="220"/>
       <c r="B57" s="129" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C57" s="132"/>
       <c r="D57" s="132"/>
       <c r="J57" s="128" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K57" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11233,12 +11233,12 @@
     <row r="58" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="220"/>
       <c r="B58" s="129" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C58" s="132"/>
       <c r="D58" s="132"/>
       <c r="J58" s="128" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K58" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11273,12 +11273,12 @@
     <row r="59" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="220"/>
       <c r="B59" s="129" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C59" s="132"/>
       <c r="D59" s="132"/>
       <c r="J59" s="128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K59" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11313,12 +11313,12 @@
     <row r="60" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="220"/>
       <c r="B60" s="129" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C60" s="132"/>
       <c r="D60" s="132"/>
       <c r="J60" s="128" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K60" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11353,12 +11353,12 @@
     <row r="61" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="220"/>
       <c r="B61" s="129" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C61" s="132"/>
       <c r="D61" s="132"/>
       <c r="J61" s="128" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K61" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11393,12 +11393,12 @@
     <row r="62" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="220"/>
       <c r="B62" s="129" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C62" s="132"/>
       <c r="D62" s="132"/>
       <c r="J62" s="128" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K62" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11433,12 +11433,12 @@
     <row r="63" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="220"/>
       <c r="B63" s="129" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C63" s="132"/>
       <c r="D63" s="132"/>
       <c r="J63" s="128" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K63" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11473,12 +11473,12 @@
     <row r="64" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="220"/>
       <c r="B64" s="129" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C64" s="132"/>
       <c r="D64" s="132"/>
       <c r="J64" s="128" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K64" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11513,12 +11513,12 @@
     <row r="65" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="220"/>
       <c r="B65" s="129" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C65" s="132"/>
       <c r="D65" s="132"/>
       <c r="J65" s="128" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K65" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11553,12 +11553,12 @@
     <row r="66" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="220"/>
       <c r="B66" s="129" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C66" s="132"/>
       <c r="D66" s="132"/>
       <c r="J66" s="128" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K66" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11593,12 +11593,12 @@
     <row r="67" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="220"/>
       <c r="B67" s="129" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C67" s="132"/>
       <c r="D67" s="132"/>
       <c r="J67" s="128" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K67" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11633,12 +11633,12 @@
     <row r="68" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="220"/>
       <c r="B68" s="129" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C68" s="132"/>
       <c r="D68" s="132"/>
       <c r="J68" s="128" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K68" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11673,12 +11673,12 @@
     <row r="69" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="220"/>
       <c r="B69" s="129" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C69" s="132"/>
       <c r="D69" s="132"/>
       <c r="J69" s="128" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K69" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11713,12 +11713,12 @@
     <row r="70" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="220"/>
       <c r="B70" s="129" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C70" s="132"/>
       <c r="D70" s="132"/>
       <c r="J70" s="128" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K70" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11753,12 +11753,12 @@
     <row r="71" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="220"/>
       <c r="B71" s="129" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C71" s="132"/>
       <c r="D71" s="132"/>
       <c r="J71" s="128" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K71" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11793,12 +11793,12 @@
     <row r="72" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="220"/>
       <c r="B72" s="129" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C72" s="132"/>
       <c r="D72" s="132"/>
       <c r="J72" s="128" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K72" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11833,12 +11833,12 @@
     <row r="73" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="220"/>
       <c r="B73" s="129" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C73" s="132"/>
       <c r="D73" s="132"/>
       <c r="J73" s="128" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K73" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11873,12 +11873,12 @@
     <row r="74" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="220"/>
       <c r="B74" s="129" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C74" s="132"/>
       <c r="D74" s="132"/>
       <c r="J74" s="128" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K74" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11913,14 +11913,14 @@
     <row r="75" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="220"/>
       <c r="B75" s="129" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C75" s="172" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D75" s="132"/>
       <c r="J75" s="128" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K75" s="129" t="str">
         <f t="shared" si="1"/>
@@ -11955,12 +11955,12 @@
     <row r="76" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="220"/>
       <c r="B76" s="129" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C76" s="132"/>
       <c r="D76" s="132"/>
       <c r="J76" s="128" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K76" s="129" t="str">
         <f t="shared" ref="K76:K100" si="4">G$11 &amp;$J76</f>
@@ -11995,12 +11995,12 @@
     <row r="77" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="220"/>
       <c r="B77" s="129" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C77" s="132"/>
       <c r="D77" s="132"/>
       <c r="J77" s="128" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K77" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12035,14 +12035,14 @@
     <row r="78" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="220"/>
       <c r="B78" s="129" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C78" s="172" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D78" s="132"/>
       <c r="J78" s="128" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K78" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12077,12 +12077,12 @@
     <row r="79" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="220"/>
       <c r="B79" s="129" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C79" s="132"/>
       <c r="D79" s="132"/>
       <c r="J79" s="128" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K79" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12117,12 +12117,12 @@
     <row r="80" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="220"/>
       <c r="B80" s="129" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C80" s="132"/>
       <c r="D80" s="132"/>
       <c r="J80" s="128" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K80" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12157,14 +12157,14 @@
     <row r="81" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="220"/>
       <c r="B81" s="129" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C81" s="172" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D81" s="132"/>
       <c r="J81" s="128" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K81" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12199,12 +12199,12 @@
     <row r="82" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="220"/>
       <c r="B82" s="129" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C82" s="132"/>
       <c r="D82" s="132"/>
       <c r="J82" s="128" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K82" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12239,12 +12239,12 @@
     <row r="83" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="220"/>
       <c r="B83" s="129" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C83" s="132"/>
       <c r="D83" s="132"/>
       <c r="J83" s="128" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K83" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12279,14 +12279,14 @@
     <row r="84" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="220"/>
       <c r="B84" s="129" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C84" s="172" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D84" s="132"/>
       <c r="J84" s="128" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K84" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12321,12 +12321,12 @@
     <row r="85" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="220"/>
       <c r="B85" s="129" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C85" s="132"/>
       <c r="D85" s="132"/>
       <c r="J85" s="128" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K85" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12361,12 +12361,12 @@
     <row r="86" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="220"/>
       <c r="B86" s="129" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C86" s="132"/>
       <c r="D86" s="132"/>
       <c r="J86" s="128" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K86" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12401,14 +12401,14 @@
     <row r="87" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="220"/>
       <c r="B87" s="129" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C87" s="172" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D87" s="132"/>
       <c r="J87" s="128" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K87" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12443,12 +12443,12 @@
     <row r="88" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="220"/>
       <c r="B88" s="129" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C88" s="132"/>
       <c r="D88" s="132"/>
       <c r="J88" s="128" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K88" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12483,12 +12483,12 @@
     <row r="89" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="220"/>
       <c r="B89" s="129" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C89" s="132"/>
       <c r="D89" s="132"/>
       <c r="J89" s="128" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K89" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12523,14 +12523,14 @@
     <row r="90" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="220"/>
       <c r="B90" s="129" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C90" s="172" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D90" s="132"/>
       <c r="J90" s="128" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K90" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12565,14 +12565,14 @@
     <row r="91" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="220"/>
       <c r="B91" s="129" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C91" s="172" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D91" s="132"/>
       <c r="J91" s="128" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K91" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12607,14 +12607,14 @@
     <row r="92" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="221"/>
       <c r="B92" s="129" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C92" s="172" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D92" s="132"/>
       <c r="J92" s="128" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K92" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12648,17 +12648,17 @@
     </row>
     <row r="93" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="219" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B93" s="128" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C93" s="151" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D93" s="132"/>
       <c r="J93" s="128" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K93" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12693,14 +12693,14 @@
     <row r="94" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="220"/>
       <c r="B94" s="128" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C94" s="152" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D94" s="132"/>
       <c r="J94" s="128" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K94" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12735,14 +12735,14 @@
     <row r="95" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="220"/>
       <c r="B95" s="128" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C95" s="160" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D95" s="132"/>
       <c r="J95" s="128" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K95" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12777,14 +12777,14 @@
     <row r="96" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="220"/>
       <c r="B96" s="128" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C96" s="161" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D96" s="132"/>
       <c r="J96" s="128" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K96" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12819,14 +12819,14 @@
     <row r="97" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="220"/>
       <c r="B97" s="128" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C97" s="162" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D97" s="132"/>
       <c r="J97" s="128" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K97" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12861,14 +12861,14 @@
     <row r="98" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="220"/>
       <c r="B98" s="128" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C98" s="163" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D98" s="132"/>
       <c r="J98" s="128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K98" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12903,14 +12903,14 @@
     <row r="99" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="220"/>
       <c r="B99" s="128" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C99" s="166" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D99" s="132"/>
       <c r="J99" s="128" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K99" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12945,14 +12945,14 @@
     <row r="100" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="220"/>
       <c r="B100" s="128" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C100" s="167" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D100" s="132"/>
       <c r="J100" s="128" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K100" s="129" t="str">
         <f t="shared" si="4"/>
@@ -12987,10 +12987,10 @@
     <row r="101" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="220"/>
       <c r="B101" s="128" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C101" s="168" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D101" s="132"/>
       <c r="M101" s="127"/>
@@ -13015,10 +13015,10 @@
     <row r="102" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="220"/>
       <c r="B102" s="128" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C102" s="166" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D102" s="132"/>
       <c r="M102" s="127"/>
@@ -13043,10 +13043,10 @@
     <row r="103" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="220"/>
       <c r="B103" s="128" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C103" s="167" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D103" s="132"/>
       <c r="M103" s="127"/>
@@ -13071,10 +13071,10 @@
     <row r="104" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="220"/>
       <c r="B104" s="128" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C104" s="168" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D104" s="132"/>
       <c r="M104" s="127"/>
@@ -13099,7 +13099,7 @@
     <row r="105" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="220"/>
       <c r="B105" s="128" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C105" s="132"/>
       <c r="D105" s="132"/>
@@ -13125,7 +13125,7 @@
     <row r="106" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="220"/>
       <c r="B106" s="128" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C106" s="132"/>
       <c r="D106" s="132"/>
@@ -13151,7 +13151,7 @@
     <row r="107" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="220"/>
       <c r="B107" s="128" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C107" s="132"/>
       <c r="D107" s="132"/>
@@ -13177,10 +13177,10 @@
     <row r="108" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="220"/>
       <c r="B108" s="128" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C108" s="161" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D108" s="132"/>
       <c r="M108" s="127"/>
@@ -13205,10 +13205,10 @@
     <row r="109" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="220"/>
       <c r="B109" s="128" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C109" s="162" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D109" s="132"/>
       <c r="M109" s="127"/>
@@ -13233,10 +13233,10 @@
     <row r="110" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="220"/>
       <c r="B110" s="128" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C110" s="163" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D110" s="132"/>
       <c r="M110" s="127"/>
@@ -13261,7 +13261,7 @@
     <row r="111" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="220"/>
       <c r="B111" s="128" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C111" s="132"/>
       <c r="D111" s="132"/>
@@ -13287,7 +13287,7 @@
     <row r="112" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="220"/>
       <c r="B112" s="128" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C112" s="132"/>
       <c r="D112" s="132"/>
@@ -13313,7 +13313,7 @@
     <row r="113" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="220"/>
       <c r="B113" s="128" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C113" s="132"/>
       <c r="D113" s="132"/>
@@ -13339,10 +13339,10 @@
     <row r="114" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="220"/>
       <c r="B114" s="128" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C114" s="166" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D114" s="132"/>
       <c r="M114" s="127"/>
@@ -13367,10 +13367,10 @@
     <row r="115" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="220"/>
       <c r="B115" s="128" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C115" s="167" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D115" s="132"/>
       <c r="M115" s="127"/>
@@ -13395,10 +13395,10 @@
     <row r="116" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="220"/>
       <c r="B116" s="128" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C116" s="167" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D116" s="132"/>
       <c r="M116" s="127"/>
@@ -13423,7 +13423,7 @@
     <row r="117" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="220"/>
       <c r="B117" s="128" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C117" s="132"/>
       <c r="D117" s="132"/>
@@ -13431,7 +13431,7 @@
     <row r="118" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="220"/>
       <c r="B118" s="128" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C118" s="132"/>
       <c r="D118" s="132"/>
@@ -13439,7 +13439,7 @@
     <row r="119" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="220"/>
       <c r="B119" s="128" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C119" s="132"/>
       <c r="D119" s="132"/>
@@ -13447,37 +13447,37 @@
     <row r="120" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="220"/>
       <c r="B120" s="128" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C120" s="161" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D120" s="132"/>
     </row>
     <row r="121" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="220"/>
       <c r="B121" s="128" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C121" s="162" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D121" s="132"/>
     </row>
     <row r="122" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="220"/>
       <c r="B122" s="128" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C122" s="163" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D122" s="132"/>
     </row>
     <row r="123" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="220"/>
       <c r="B123" s="128" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C123" s="132"/>
       <c r="D123" s="132"/>
@@ -13485,7 +13485,7 @@
     <row r="124" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="220"/>
       <c r="B124" s="128" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C124" s="132"/>
       <c r="D124" s="132"/>
@@ -13493,7 +13493,7 @@
     <row r="125" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="220"/>
       <c r="B125" s="128" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C125" s="132"/>
       <c r="D125" s="132"/>
@@ -13501,10 +13501,10 @@
     <row r="126" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="220"/>
       <c r="B126" s="128" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C126" s="166" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D126" s="132"/>
       <c r="F126" s="9"/>
@@ -13512,147 +13512,147 @@
     <row r="127" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="220"/>
       <c r="B127" s="128" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C127" s="167" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D127" s="132"/>
     </row>
     <row r="128" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="220"/>
       <c r="B128" s="128" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C128" s="168" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D128" s="132"/>
     </row>
     <row r="129" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="220"/>
       <c r="B129" s="128" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C129" s="151" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D129" s="132"/>
     </row>
     <row r="130" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="220"/>
       <c r="B130" s="128" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C130" s="152" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D130" s="132"/>
     </row>
     <row r="131" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="220"/>
       <c r="B131" s="128" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C131" s="153" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D131" s="132"/>
     </row>
     <row r="132" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="220"/>
       <c r="B132" s="128" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C132" s="161" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D132" s="132"/>
     </row>
     <row r="133" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="220"/>
       <c r="B133" s="128" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C133" s="162" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D133" s="132"/>
     </row>
     <row r="134" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="220"/>
       <c r="B134" s="128" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C134" s="169" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D134" s="132"/>
     </row>
     <row r="135" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="220"/>
       <c r="B135" s="128" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C135" s="155" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D135" s="132"/>
     </row>
     <row r="136" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="220"/>
       <c r="B136" s="128" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C136" s="156" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D136" s="132"/>
     </row>
     <row r="137" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="220"/>
       <c r="B137" s="128" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C137" s="157" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D137" s="132"/>
     </row>
     <row r="138" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="220"/>
       <c r="B138" s="128" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C138" s="170" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D138" s="132"/>
     </row>
     <row r="139" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="220"/>
       <c r="B139" s="128" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C139" s="167" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D139" s="132"/>
     </row>
     <row r="140" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="220"/>
       <c r="B140" s="128" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C140" s="171" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D140" s="132"/>
     </row>
     <row r="141" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="220"/>
       <c r="B141" s="128" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C141" s="132"/>
       <c r="D141" s="132"/>
@@ -13660,7 +13660,7 @@
     <row r="142" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="220"/>
       <c r="B142" s="128" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C142" s="132"/>
       <c r="D142" s="132"/>
@@ -13668,7 +13668,7 @@
     <row r="143" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="220"/>
       <c r="B143" s="128" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C143" s="132"/>
       <c r="D143" s="132"/>
@@ -13676,7 +13676,7 @@
     <row r="144" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="220"/>
       <c r="B144" s="128" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C144" s="132"/>
       <c r="D144" s="132"/>
@@ -13684,7 +13684,7 @@
     <row r="145" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="220"/>
       <c r="B145" s="128" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C145" s="132"/>
       <c r="D145" s="132"/>
@@ -13692,7 +13692,7 @@
     <row r="146" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="220"/>
       <c r="B146" s="128" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C146" s="132"/>
       <c r="D146" s="132"/>
@@ -13700,7 +13700,7 @@
     <row r="147" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="220"/>
       <c r="B147" s="128" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C147" s="132"/>
       <c r="D147" s="132"/>
@@ -13708,7 +13708,7 @@
     <row r="148" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="220"/>
       <c r="B148" s="128" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C148" s="132"/>
       <c r="D148" s="132"/>
@@ -13716,7 +13716,7 @@
     <row r="149" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="220"/>
       <c r="B149" s="128" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C149" s="132"/>
       <c r="D149" s="132"/>
@@ -13724,7 +13724,7 @@
     <row r="150" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="220"/>
       <c r="B150" s="128" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C150" s="132"/>
       <c r="D150" s="132"/>
@@ -13732,7 +13732,7 @@
     <row r="151" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="220"/>
       <c r="B151" s="128" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C151" s="132"/>
       <c r="D151" s="132"/>
@@ -13740,7 +13740,7 @@
     <row r="152" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="220"/>
       <c r="B152" s="128" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C152" s="132"/>
       <c r="D152" s="132"/>
@@ -13748,7 +13748,7 @@
     <row r="153" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="220"/>
       <c r="B153" s="132" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C153" s="132"/>
       <c r="D153" s="132"/>
@@ -13756,7 +13756,7 @@
     <row r="154" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="220"/>
       <c r="B154" s="132" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C154" s="132"/>
       <c r="D154" s="132"/>
@@ -13764,7 +13764,7 @@
     <row r="155" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="220"/>
       <c r="B155" s="132" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C155" s="132"/>
       <c r="D155" s="132"/>
@@ -13772,7 +13772,7 @@
     <row r="156" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="220"/>
       <c r="B156" s="132" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C156" s="132"/>
       <c r="D156" s="132"/>
@@ -13780,7 +13780,7 @@
     <row r="157" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="220"/>
       <c r="B157" s="132" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C157" s="132"/>
       <c r="D157" s="132"/>
@@ -13788,7 +13788,7 @@
     <row r="158" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="220"/>
       <c r="B158" s="132" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C158" s="132"/>
       <c r="D158" s="132"/>
@@ -13796,7 +13796,7 @@
     <row r="159" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="220"/>
       <c r="B159" s="132" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C159" s="132"/>
       <c r="D159" s="132"/>
@@ -13804,7 +13804,7 @@
     <row r="160" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="220"/>
       <c r="B160" s="132" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C160" s="132"/>
       <c r="D160" s="132"/>
@@ -13812,7 +13812,7 @@
     <row r="161" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="220"/>
       <c r="B161" s="132" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C161" s="132"/>
       <c r="D161" s="132"/>
@@ -13820,7 +13820,7 @@
     <row r="162" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="220"/>
       <c r="B162" s="132" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C162" s="132"/>
       <c r="D162" s="132"/>
@@ -13828,7 +13828,7 @@
     <row r="163" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="220"/>
       <c r="B163" s="132" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C163" s="132"/>
       <c r="D163" s="132"/>
@@ -13836,7 +13836,7 @@
     <row r="164" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="220"/>
       <c r="B164" s="132" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C164" s="132"/>
       <c r="D164" s="132"/>
@@ -13844,17 +13844,17 @@
     <row r="165" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="220"/>
       <c r="B165" s="132" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C165" s="172" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D165" s="132"/>
     </row>
     <row r="166" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="220"/>
       <c r="B166" s="132" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C166" s="132"/>
       <c r="D166" s="132"/>
@@ -13862,7 +13862,7 @@
     <row r="167" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="220"/>
       <c r="B167" s="132" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C167" s="132"/>
       <c r="D167" s="132"/>
@@ -13870,17 +13870,17 @@
     <row r="168" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="220"/>
       <c r="B168" s="128" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C168" s="172" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D168" s="132"/>
     </row>
     <row r="169" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="220"/>
       <c r="B169" s="128" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C169" s="132"/>
       <c r="D169" s="132"/>
@@ -13888,7 +13888,7 @@
     <row r="170" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="220"/>
       <c r="B170" s="128" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C170" s="132"/>
       <c r="D170" s="132"/>
@@ -13896,10 +13896,10 @@
     <row r="171" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="220"/>
       <c r="B171" s="132" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C171" s="172" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D171" s="132"/>
       <c r="F171" s="9"/>
@@ -13907,7 +13907,7 @@
     <row r="172" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="220"/>
       <c r="B172" s="132" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C172" s="132"/>
       <c r="D172" s="132"/>
@@ -13915,7 +13915,7 @@
     <row r="173" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="220"/>
       <c r="B173" s="132" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C173" s="132"/>
       <c r="D173" s="132"/>
@@ -13923,17 +13923,17 @@
     <row r="174" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="220"/>
       <c r="B174" s="132" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C174" s="172" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D174" s="132"/>
     </row>
     <row r="175" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="220"/>
       <c r="B175" s="132" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C175" s="132"/>
       <c r="D175" s="132"/>
@@ -13941,7 +13941,7 @@
     <row r="176" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="220"/>
       <c r="B176" s="132" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C176" s="132"/>
       <c r="D176" s="132"/>
@@ -13949,17 +13949,17 @@
     <row r="177" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="220"/>
       <c r="B177" s="132" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C177" s="132" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D177" s="132"/>
     </row>
     <row r="178" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="220"/>
       <c r="B178" s="132" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C178" s="132"/>
       <c r="D178" s="132"/>
@@ -13967,7 +13967,7 @@
     <row r="179" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="220"/>
       <c r="B179" s="132" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C179" s="132"/>
       <c r="D179" s="132"/>
@@ -13975,159 +13975,159 @@
     <row r="180" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="220"/>
       <c r="B180" s="132" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C180" s="172" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D180" s="132"/>
     </row>
     <row r="181" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="220"/>
       <c r="B181" s="132" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C181" s="172" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D181" s="132"/>
     </row>
     <row r="182" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="221"/>
       <c r="B182" s="132" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C182" s="172" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D182" s="132"/>
     </row>
     <row r="183" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="214" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B183" s="132" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C183" s="133" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D183" s="132"/>
     </row>
     <row r="184" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="215"/>
       <c r="B184" s="132" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C184" s="134" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D184" s="132"/>
     </row>
     <row r="185" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="215"/>
       <c r="B185" s="132" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C185" s="135" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D185" s="132"/>
     </row>
     <row r="186" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="215"/>
       <c r="B186" s="132" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C186" s="137" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D186" s="132"/>
     </row>
     <row r="187" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="215"/>
       <c r="B187" s="132" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C187" s="138" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D187" s="132"/>
     </row>
     <row r="188" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="215"/>
       <c r="B188" s="132" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C188" s="139" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D188" s="132"/>
     </row>
     <row r="189" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="215"/>
       <c r="B189" s="132" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C189" s="140" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D189" s="132"/>
     </row>
     <row r="190" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="215"/>
       <c r="B190" s="132" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C190" s="141" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D190" s="132"/>
     </row>
     <row r="191" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="215"/>
       <c r="B191" s="132" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C191" s="142" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D191" s="132"/>
     </row>
     <row r="192" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="215"/>
       <c r="B192" s="132" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C192" s="143" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D192" s="132"/>
     </row>
     <row r="193" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="215"/>
       <c r="B193" s="132" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C193" s="144" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D193" s="132"/>
     </row>
     <row r="194" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="215"/>
       <c r="B194" s="132" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C194" s="145" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D194" s="132"/>
     </row>
     <row r="195" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="215"/>
       <c r="B195" s="132" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C195" s="132"/>
       <c r="D195" s="132"/>
@@ -14135,7 +14135,7 @@
     <row r="196" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="215"/>
       <c r="B196" s="132" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C196" s="132"/>
       <c r="D196" s="132"/>
@@ -14143,7 +14143,7 @@
     <row r="197" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="215"/>
       <c r="B197" s="132" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C197" s="132"/>
       <c r="D197" s="132"/>
@@ -14151,37 +14151,37 @@
     <row r="198" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="215"/>
       <c r="B198" s="132" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C198" s="136" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D198" s="132"/>
     </row>
     <row r="199" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="215"/>
       <c r="B199" s="132" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C199" s="146" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D199" s="132"/>
     </row>
     <row r="200" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="215"/>
       <c r="B200" s="132" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C200" s="147" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D200" s="132"/>
     </row>
     <row r="201" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="215"/>
       <c r="B201" s="132" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C201" s="132"/>
       <c r="D201" s="132"/>
@@ -14189,7 +14189,7 @@
     <row r="202" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="215"/>
       <c r="B202" s="132" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C202" s="132"/>
       <c r="D202" s="132"/>
@@ -14197,7 +14197,7 @@
     <row r="203" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="215"/>
       <c r="B203" s="132" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C203" s="132"/>
       <c r="D203" s="132"/>
@@ -14205,37 +14205,37 @@
     <row r="204" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="215"/>
       <c r="B204" s="132" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C204" s="148" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D204" s="132"/>
     </row>
     <row r="205" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="215"/>
       <c r="B205" s="132" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C205" s="149" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D205" s="132"/>
     </row>
     <row r="206" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="215"/>
       <c r="B206" s="132" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C206" s="149" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D206" s="132"/>
     </row>
     <row r="207" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="215"/>
       <c r="B207" s="132" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C207" s="132"/>
       <c r="D207" s="132"/>
@@ -14243,7 +14243,7 @@
     <row r="208" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="215"/>
       <c r="B208" s="132" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C208" s="132"/>
       <c r="D208" s="132"/>
@@ -14251,7 +14251,7 @@
     <row r="209" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="215"/>
       <c r="B209" s="132" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C209" s="132"/>
       <c r="D209" s="132"/>
@@ -14259,37 +14259,37 @@
     <row r="210" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="215"/>
       <c r="B210" s="132" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C210" s="136" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D210" s="132"/>
     </row>
     <row r="211" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="215"/>
       <c r="B211" s="132" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C211" s="146" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D211" s="132"/>
     </row>
     <row r="212" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="215"/>
       <c r="B212" s="132" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C212" s="147" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D212" s="132"/>
     </row>
     <row r="213" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="215"/>
       <c r="B213" s="132" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C213" s="132"/>
       <c r="D213" s="132"/>
@@ -14297,7 +14297,7 @@
     <row r="214" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="215"/>
       <c r="B214" s="132" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C214" s="132"/>
       <c r="D214" s="132"/>
@@ -14305,7 +14305,7 @@
     <row r="215" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="215"/>
       <c r="B215" s="132" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C215" s="132"/>
       <c r="D215" s="132"/>
@@ -14313,157 +14313,157 @@
     <row r="216" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="215"/>
       <c r="B216" s="132" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C216" s="148" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D216" s="132"/>
     </row>
     <row r="217" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="215"/>
       <c r="B217" s="132" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C217" s="150" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D217" s="132"/>
     </row>
     <row r="218" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="215"/>
       <c r="B218" s="132" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C218" s="150" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D218" s="132"/>
     </row>
     <row r="219" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="215"/>
       <c r="B219" s="132" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C219" s="151" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D219" s="132"/>
     </row>
     <row r="220" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="215"/>
       <c r="B220" s="132" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C220" s="152" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D220" s="132"/>
     </row>
     <row r="221" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="215"/>
       <c r="B221" s="132" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C221" s="153" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D221" s="132"/>
     </row>
     <row r="222" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="215"/>
       <c r="B222" s="132" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C222" s="136" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D222" s="132"/>
     </row>
     <row r="223" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="215"/>
       <c r="B223" s="132" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C223" s="146" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D223" s="132"/>
     </row>
     <row r="224" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="215"/>
       <c r="B224" s="132" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C224" s="154" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D224" s="132"/>
     </row>
     <row r="225" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="215"/>
       <c r="B225" s="132" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C225" s="155" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D225" s="132"/>
     </row>
     <row r="226" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="215"/>
       <c r="B226" s="132" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C226" s="156" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D226" s="132"/>
     </row>
     <row r="227" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="215"/>
       <c r="B227" s="132" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C227" s="157" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D227" s="132"/>
     </row>
     <row r="228" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="215"/>
       <c r="B228" s="132" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C228" s="158" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D228" s="132"/>
     </row>
     <row r="229" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="215"/>
       <c r="B229" s="132" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C229" s="149" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D229" s="132"/>
     </row>
     <row r="230" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="215"/>
       <c r="B230" s="132" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C230" s="159" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D230" s="132"/>
     </row>
     <row r="231" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="215"/>
       <c r="B231" s="132" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C231" s="132"/>
       <c r="D231" s="132"/>
@@ -14471,7 +14471,7 @@
     <row r="232" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="215"/>
       <c r="B232" s="132" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C232" s="132"/>
       <c r="D232" s="132"/>
@@ -14479,7 +14479,7 @@
     <row r="233" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="215"/>
       <c r="B233" s="132" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C233" s="132"/>
       <c r="D233" s="132"/>
@@ -14487,7 +14487,7 @@
     <row r="234" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="215"/>
       <c r="B234" s="132" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C234" s="132"/>
       <c r="D234" s="132"/>
@@ -14495,7 +14495,7 @@
     <row r="235" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="215"/>
       <c r="B235" s="132" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C235" s="132"/>
       <c r="D235" s="132"/>
@@ -14503,7 +14503,7 @@
     <row r="236" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="215"/>
       <c r="B236" s="132" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C236" s="132"/>
       <c r="D236" s="132"/>
@@ -14511,7 +14511,7 @@
     <row r="237" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="215"/>
       <c r="B237" s="132" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C237" s="132"/>
       <c r="D237" s="132"/>
@@ -14519,7 +14519,7 @@
     <row r="238" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="215"/>
       <c r="B238" s="132" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C238" s="132"/>
       <c r="D238" s="132"/>
@@ -14527,7 +14527,7 @@
     <row r="239" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="215"/>
       <c r="B239" s="132" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C239" s="132"/>
       <c r="D239" s="132"/>
@@ -14535,7 +14535,7 @@
     <row r="240" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="215"/>
       <c r="B240" s="132" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C240" s="132"/>
       <c r="D240" s="132"/>
@@ -14543,7 +14543,7 @@
     <row r="241" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="215"/>
       <c r="B241" s="132" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C241" s="132"/>
       <c r="D241" s="132"/>
@@ -14551,7 +14551,7 @@
     <row r="242" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="215"/>
       <c r="B242" s="132" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C242" s="132"/>
       <c r="D242" s="132"/>
@@ -14559,7 +14559,7 @@
     <row r="243" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="215"/>
       <c r="B243" s="132" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C243" s="132"/>
       <c r="D243" s="132"/>
@@ -14567,7 +14567,7 @@
     <row r="244" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="215"/>
       <c r="B244" s="132" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C244" s="132"/>
       <c r="D244" s="132"/>
@@ -14575,7 +14575,7 @@
     <row r="245" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="215"/>
       <c r="B245" s="132" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C245" s="132"/>
       <c r="D245" s="132"/>
@@ -14583,7 +14583,7 @@
     <row r="246" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="215"/>
       <c r="B246" s="132" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C246" s="132"/>
       <c r="D246" s="132"/>
@@ -14591,7 +14591,7 @@
     <row r="247" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="215"/>
       <c r="B247" s="132" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C247" s="132"/>
       <c r="D247" s="132"/>
@@ -14599,7 +14599,7 @@
     <row r="248" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="215"/>
       <c r="B248" s="132" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C248" s="132"/>
       <c r="D248" s="132"/>
@@ -14607,7 +14607,7 @@
     <row r="249" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="215"/>
       <c r="B249" s="132" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C249" s="132"/>
       <c r="D249" s="132"/>
@@ -14615,7 +14615,7 @@
     <row r="250" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="215"/>
       <c r="B250" s="132" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C250" s="132"/>
       <c r="D250" s="132"/>
@@ -14623,7 +14623,7 @@
     <row r="251" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="215"/>
       <c r="B251" s="132" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C251" s="132"/>
       <c r="D251" s="132"/>
@@ -14631,7 +14631,7 @@
     <row r="252" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="215"/>
       <c r="B252" s="132" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C252" s="132"/>
       <c r="D252" s="132"/>
@@ -14639,7 +14639,7 @@
     <row r="253" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="215"/>
       <c r="B253" s="132" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C253" s="132"/>
       <c r="D253" s="132"/>
@@ -14647,7 +14647,7 @@
     <row r="254" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="215"/>
       <c r="B254" s="132" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C254" s="132"/>
       <c r="D254" s="132"/>
@@ -14655,17 +14655,17 @@
     <row r="255" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="215"/>
       <c r="B255" s="132" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C255" s="172" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D255" s="132"/>
     </row>
     <row r="256" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="215"/>
       <c r="B256" s="132" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C256" s="132"/>
       <c r="D256" s="132"/>
@@ -14673,7 +14673,7 @@
     <row r="257" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="215"/>
       <c r="B257" s="132" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C257" s="132"/>
       <c r="D257" s="132"/>
@@ -14681,17 +14681,17 @@
     <row r="258" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="215"/>
       <c r="B258" s="132" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C258" s="172" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D258" s="132"/>
     </row>
     <row r="259" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="215"/>
       <c r="B259" s="132" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C259" s="132"/>
       <c r="D259" s="132"/>
@@ -14699,7 +14699,7 @@
     <row r="260" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="215"/>
       <c r="B260" s="132" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C260" s="132"/>
       <c r="D260" s="132"/>
@@ -14707,17 +14707,17 @@
     <row r="261" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="215"/>
       <c r="B261" s="132" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C261" s="172" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D261" s="132"/>
     </row>
     <row r="262" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="215"/>
       <c r="B262" s="132" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C262" s="132"/>
       <c r="D262" s="132"/>
@@ -14725,7 +14725,7 @@
     <row r="263" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="215"/>
       <c r="B263" s="132" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C263" s="132"/>
       <c r="D263" s="132"/>
@@ -14733,17 +14733,17 @@
     <row r="264" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="215"/>
       <c r="B264" s="132" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C264" s="172" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D264" s="132"/>
     </row>
     <row r="265" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="215"/>
       <c r="B265" s="132" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C265" s="132"/>
       <c r="D265" s="132"/>
@@ -14751,7 +14751,7 @@
     <row r="266" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="215"/>
       <c r="B266" s="132" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C266" s="132"/>
       <c r="D266" s="132"/>
@@ -14759,17 +14759,17 @@
     <row r="267" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="215"/>
       <c r="B267" s="132" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C267" s="172" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D267" s="132"/>
     </row>
     <row r="268" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="215"/>
       <c r="B268" s="132" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C268" s="132"/>
       <c r="D268" s="132"/>
@@ -14777,7 +14777,7 @@
     <row r="269" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="215"/>
       <c r="B269" s="132" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C269" s="132"/>
       <c r="D269" s="132"/>
@@ -14785,30 +14785,30 @@
     <row r="270" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="215"/>
       <c r="B270" s="132" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C270" s="172" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D270" s="132"/>
     </row>
     <row r="271" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="215"/>
       <c r="B271" s="132" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C271" s="172" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D271" s="132"/>
     </row>
     <row r="272" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="216"/>
       <c r="B272" s="132" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C272" s="172" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D272" s="132"/>
     </row>
@@ -25449,7 +25449,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>27</v>
@@ -25462,7 +25462,7 @@
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="224"/>
       <c r="B4" s="7" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>21</v>
@@ -25475,7 +25475,7 @@
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="224"/>
       <c r="B5" s="7" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>22</v>
@@ -25488,7 +25488,7 @@
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="225"/>
       <c r="B6" s="8" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
@@ -26609,10 +26609,10 @@
     <row r="3" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="27" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C3" s="176" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="57"/>
@@ -26622,10 +26622,10 @@
     <row r="4" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="27" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="60"/>
@@ -26635,10 +26635,10 @@
     <row r="5" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="27" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C5" s="176" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="60"/>
@@ -26648,10 +26648,10 @@
     <row r="6" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="27" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C6" s="176" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="60"/>
@@ -26661,10 +26661,10 @@
     <row r="7" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="27" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C7" s="176" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="60"/>
@@ -26674,10 +26674,10 @@
     <row r="8" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="27" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C8" s="176" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="60"/>
@@ -26687,10 +26687,10 @@
     <row r="9" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="27" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C9" s="176" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="60"/>
@@ -26700,10 +26700,10 @@
     <row r="10" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="27" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C10" s="176" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="60"/>
@@ -26713,10 +26713,10 @@
     <row r="11" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="27" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C11" s="176" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="60"/>
@@ -26726,10 +26726,10 @@
     <row r="12" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="27" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C12" s="176" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="60"/>
@@ -26739,10 +26739,10 @@
     <row r="13" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="27" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C13" s="176" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="60"/>
@@ -26752,10 +26752,10 @@
     <row r="14" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="27" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C14" s="176" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="69"/>
@@ -26765,10 +26765,10 @@
     <row r="15" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="27" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="69"/>
@@ -26778,10 +26778,10 @@
     <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="27" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="69"/>
@@ -26791,10 +26791,10 @@
     <row r="17" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="27" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C17" s="177" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="69"/>
@@ -26804,10 +26804,10 @@
     <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="85"/>
       <c r="B18" s="27" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="69"/>
@@ -26817,10 +26817,10 @@
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="85"/>
       <c r="B19" s="27" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="69"/>
@@ -26830,10 +26830,10 @@
     <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="85"/>
       <c r="B20" s="27" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="C20" s="177" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="69"/>
@@ -26843,10 +26843,10 @@
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="49" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C21" s="177" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="69"/>
@@ -26856,10 +26856,10 @@
     <row r="22" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="85"/>
       <c r="B22" s="27" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="69"/>
@@ -26869,10 +26869,10 @@
     <row r="23" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="27" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C23" s="177" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
@@ -26882,10 +26882,10 @@
     <row r="24" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="27" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C24" s="177" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
@@ -26895,10 +26895,10 @@
     <row r="25" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="27" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C25" s="178" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="69"/>
@@ -28969,10 +28969,10 @@
     <row r="3" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="27" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="C3" s="176" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="57"/>
@@ -28982,10 +28982,10 @@
     <row r="4" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="27" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="60"/>
@@ -28995,10 +28995,10 @@
     <row r="5" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="27" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="C5" s="176" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="60"/>
@@ -29008,10 +29008,10 @@
     <row r="6" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="27" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="C6" s="176" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="60"/>
@@ -29021,10 +29021,10 @@
     <row r="7" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="27" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="C7" s="176" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="60"/>
@@ -29034,10 +29034,10 @@
     <row r="8" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="27" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="C8" s="176" t="s">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="60"/>
@@ -29047,10 +29047,10 @@
     <row r="9" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="27" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="C9" s="176" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="60"/>
@@ -29060,10 +29060,10 @@
     <row r="10" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="27" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="C10" s="176" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="60"/>
@@ -29073,10 +29073,10 @@
     <row r="11" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="27" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="C11" s="176" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="60"/>
@@ -29086,10 +29086,10 @@
     <row r="12" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="27" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
       <c r="C12" s="176" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="60"/>
@@ -29099,10 +29099,10 @@
     <row r="13" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="27" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="C13" s="176" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
@@ -29111,10 +29111,10 @@
     <row r="14" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="27" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="C14" s="176" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>

--- a/Docs/Script.xlsx
+++ b/Docs/Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49797681-2FA5-4075-88F1-2693470E3ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E9AC2F-DE21-44F5-9FD9-F0FCD5EE9ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teacher Script" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1094">
   <si>
     <t>Language Code</t>
   </si>
@@ -3248,12 +3248,6 @@
 Ваша репутация снижается.;
 Поэтому следите за своим языком.;
 А теперь ответьте да.</t>
-  </si>
-  <si>
-    <t>Ученик пошел в туалет!  Но не радуйтесь так быстро.;
-Возможно он там хочет списать.;
-Дождитесь когда ученик выйдет;
-И проверьте кабинку.</t>
   </si>
   <si>
     <t>Ага! Шпаргалка!;
@@ -3443,6 +3437,109 @@
 мне было очень приятно познакомиться.;
 Буду рад видеть вас завтра.;
 Успехов на экзамене...</t>
+  </si>
+  <si>
+    <t>Я должен молчать</t>
+  </si>
+  <si>
+    <t>Не мешайте писать</t>
+  </si>
+  <si>
+    <t>Вообще не смешно</t>
+  </si>
+  <si>
+    <t>Прекратите, Вы же взрослый человек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я даже слова не сказал </t>
+  </si>
+  <si>
+    <t>Гниение и размножение микробов - это естественно</t>
+  </si>
+  <si>
+    <t>Герой нашего времени</t>
+  </si>
+  <si>
+    <t>Я бы не отказался, но времени мало на тест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как некультурно </t>
+  </si>
+  <si>
+    <t>А я то думал почему у моего папы нога была сломана</t>
+  </si>
+  <si>
+    <t>Это сансара получается</t>
+  </si>
+  <si>
+    <t>Ха, я на выши уловки не поведусь</t>
+  </si>
+  <si>
+    <t>Хотел бы я быть таким как Ваня</t>
+  </si>
+  <si>
+    <t>А Вы смешной такой</t>
+  </si>
+  <si>
+    <t>Ух ты! Я Ваш любимчик получается</t>
+  </si>
+  <si>
+    <t>Это уже футбол получается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тогда - не сейчас, сейчас - не тогда </t>
+  </si>
+  <si>
+    <t xml:space="preserve">А теперь я запутался что можно, а что нельзя </t>
+  </si>
+  <si>
+    <t>Мы так похожи, учитель</t>
+  </si>
+  <si>
+    <t>Зато девочки от меня без ума</t>
+  </si>
+  <si>
+    <t>Вы уже сказали, вонючка</t>
+  </si>
+  <si>
+    <t>Говоришь на меня - переводишь на себя</t>
+  </si>
+  <si>
+    <t>Моё уважение Ване</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если только ходки в тюрьму </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не хотел бы я таким стать </t>
+  </si>
+  <si>
+    <t>Я бы вам сломал тогда обе ноги</t>
+  </si>
+  <si>
+    <t>Куда меня шлёшь - сам туда и пойдёшь!</t>
+  </si>
+  <si>
+    <t>Надеюсь, что с закрытым ртом вы это делали</t>
+  </si>
+  <si>
+    <t>Я смотрю, вы на ошибках не учитесь</t>
+  </si>
+  <si>
+    <t>А вы за базар ответите?</t>
+  </si>
+  <si>
+    <t>Ученик пошел в туалет!;
+Но не радуйтесь так быстро.;
+Возможно он там хочет списать.;
+Дождитесь когда ученик выйдет;
+И проверьте кабинку.</t>
+  </si>
+  <si>
+    <t>Report_Answered_No_Answer_0</t>
+  </si>
+  <si>
+    <t>Вы не ответили ученику</t>
   </si>
 </sst>
 </file>
@@ -4300,92 +4397,11 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4406,38 +4422,11 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4472,37 +4461,19 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4510,9 +4481,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="15" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4522,9 +4490,6 @@
     <xf numFmtId="49" fontId="14" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4545,9 +4510,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4573,12 +4535,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4641,6 +4597,147 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5046,8 +5143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A47" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.5703125" defaultRowHeight="87" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5056,7 +5153,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="206" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="47" t="s">
@@ -5112,7 +5209,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104"/>
+      <c r="A2" s="207"/>
       <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
@@ -5125,30 +5222,30 @@
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="102"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="205"/>
     </row>
     <row r="3" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="208" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="120" t="s">
         <v>563</v>
       </c>
       <c r="D3" s="64"/>
@@ -5157,11 +5254,11 @@
       <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="166" t="s">
+      <c r="A4" s="202"/>
+      <c r="B4" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="121" t="s">
         <v>564</v>
       </c>
       <c r="D4" s="56"/>
@@ -5170,11 +5267,11 @@
       <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="166" t="s">
+      <c r="A5" s="202"/>
+      <c r="B5" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="121" t="s">
         <v>949</v>
       </c>
       <c r="D5" s="56"/>
@@ -5183,39 +5280,39 @@
       <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:24" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="B6" s="175" t="s">
+      <c r="A6" s="202"/>
+      <c r="B6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="137" t="s">
         <v>562</v>
       </c>
-      <c r="D6" s="177"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
       <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="209" t="s">
         <v>980</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="182" t="s">
+      <c r="C7" s="141" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="183"/>
+      <c r="D7" s="142"/>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
       <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="172"/>
-      <c r="B8" s="167" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="122" t="s">
         <v>334</v>
       </c>
       <c r="D8" s="62"/>
@@ -5224,11 +5321,11 @@
       <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="172"/>
-      <c r="B9" s="167" t="s">
+      <c r="A9" s="198"/>
+      <c r="B9" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="122" t="s">
         <v>335</v>
       </c>
       <c r="D9" s="62"/>
@@ -5237,11 +5334,11 @@
       <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172"/>
-      <c r="B10" s="167" t="s">
+      <c r="A10" s="198"/>
+      <c r="B10" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="122" t="s">
         <v>336</v>
       </c>
       <c r="D10" s="62"/>
@@ -5250,11 +5347,11 @@
       <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="172"/>
-      <c r="B11" s="167" t="s">
+      <c r="A11" s="198"/>
+      <c r="B11" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="122" t="s">
         <v>337</v>
       </c>
       <c r="D11" s="62"/>
@@ -5263,26 +5360,26 @@
       <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:24" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="184"/>
-      <c r="B12" s="185" t="s">
+      <c r="A12" s="199"/>
+      <c r="B12" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="144" t="s">
         <v>950</v>
       </c>
-      <c r="D12" s="187"/>
+      <c r="D12" s="145"/>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
       <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="201" t="s">
         <v>981</v>
       </c>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="179" t="s">
+      <c r="C13" s="139" t="s">
         <v>338</v>
       </c>
       <c r="D13" s="64"/>
@@ -5291,11 +5388,11 @@
       <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="109"/>
-      <c r="B14" s="168" t="s">
+      <c r="A14" s="202"/>
+      <c r="B14" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="123" t="s">
         <v>339</v>
       </c>
       <c r="D14" s="56"/>
@@ -5304,11 +5401,11 @@
       <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="109"/>
-      <c r="B15" s="168" t="s">
+      <c r="A15" s="202"/>
+      <c r="B15" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="124" t="s">
         <v>340</v>
       </c>
       <c r="D15" s="56"/>
@@ -5317,11 +5414,11 @@
       <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="109"/>
-      <c r="B16" s="168" t="s">
+      <c r="A16" s="202"/>
+      <c r="B16" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="123" t="s">
         <v>341</v>
       </c>
       <c r="D16" s="65"/>
@@ -5330,11 +5427,11 @@
       <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="166" t="s">
+      <c r="A17" s="202"/>
+      <c r="B17" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="123" t="s">
         <v>342</v>
       </c>
       <c r="D17" s="65"/>
@@ -5343,39 +5440,39 @@
       <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="109"/>
-      <c r="B18" s="175" t="s">
+      <c r="A18" s="202"/>
+      <c r="B18" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="188" t="s">
+      <c r="C18" s="146" t="s">
         <v>951</v>
       </c>
-      <c r="D18" s="177"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="63"/>
       <c r="F18" s="63"/>
       <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="189" t="s">
+      <c r="A19" s="197" t="s">
         <v>985</v>
       </c>
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="182" t="s">
+      <c r="C19" s="141" t="s">
         <v>952</v>
       </c>
-      <c r="D19" s="183"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
       <c r="G19" s="58"/>
     </row>
     <row r="20" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
-      <c r="B20" s="167" t="s">
+      <c r="A20" s="198"/>
+      <c r="B20" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="122" t="s">
         <v>343</v>
       </c>
       <c r="D20" s="62"/>
@@ -5384,11 +5481,11 @@
       <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="172"/>
-      <c r="B21" s="167" t="s">
+      <c r="A21" s="198"/>
+      <c r="B21" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="158" t="s">
+      <c r="C21" s="122" t="s">
         <v>344</v>
       </c>
       <c r="D21" s="61"/>
@@ -5397,11 +5494,11 @@
       <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="172"/>
-      <c r="B22" s="167" t="s">
+      <c r="A22" s="198"/>
+      <c r="B22" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="158" t="s">
+      <c r="C22" s="122" t="s">
         <v>953</v>
       </c>
       <c r="D22" s="61"/>
@@ -5410,11 +5507,11 @@
       <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="172"/>
-      <c r="B23" s="169" t="s">
+      <c r="A23" s="198"/>
+      <c r="B23" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="158" t="s">
+      <c r="C23" s="122" t="s">
         <v>345</v>
       </c>
       <c r="D23" s="66"/>
@@ -5423,26 +5520,26 @@
       <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="184"/>
-      <c r="B24" s="190" t="s">
+      <c r="A24" s="199"/>
+      <c r="B24" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="186" t="s">
+      <c r="C24" s="144" t="s">
         <v>954</v>
       </c>
-      <c r="D24" s="191"/>
+      <c r="D24" s="148"/>
       <c r="E24" s="63"/>
       <c r="F24" s="63"/>
       <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="196" t="s">
         <v>982</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="179" t="s">
+      <c r="C25" s="139" t="s">
         <v>955</v>
       </c>
       <c r="D25" s="77"/>
@@ -5451,11 +5548,11 @@
       <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="173"/>
-      <c r="B26" s="166" t="s">
+      <c r="A26" s="196"/>
+      <c r="B26" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="159" t="s">
+      <c r="C26" s="123" t="s">
         <v>956</v>
       </c>
       <c r="D26" s="73"/>
@@ -5464,11 +5561,11 @@
       <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="173"/>
-      <c r="B27" s="166" t="s">
+      <c r="A27" s="196"/>
+      <c r="B27" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="159" t="s">
+      <c r="C27" s="123" t="s">
         <v>957</v>
       </c>
       <c r="D27" s="73"/>
@@ -5477,11 +5574,11 @@
       <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="173"/>
-      <c r="B28" s="166" t="s">
+      <c r="A28" s="196"/>
+      <c r="B28" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="159" t="s">
+      <c r="C28" s="123" t="s">
         <v>958</v>
       </c>
       <c r="D28" s="73"/>
@@ -5490,11 +5587,11 @@
       <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="173"/>
-      <c r="B29" s="166" t="s">
+      <c r="A29" s="196"/>
+      <c r="B29" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="159" t="s">
+      <c r="C29" s="123" t="s">
         <v>959</v>
       </c>
       <c r="D29" s="73"/>
@@ -5503,11 +5600,11 @@
       <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="173"/>
-      <c r="B30" s="175" t="s">
+      <c r="A30" s="196"/>
+      <c r="B30" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="188" t="s">
+      <c r="C30" s="146" t="s">
         <v>960</v>
       </c>
       <c r="D30" s="78"/>
@@ -5516,26 +5613,26 @@
       <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="189" t="s">
+      <c r="A31" s="197" t="s">
         <v>983</v>
       </c>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="182" t="s">
+      <c r="C31" s="141" t="s">
         <v>346</v>
       </c>
-      <c r="D31" s="192"/>
+      <c r="D31" s="149"/>
       <c r="E31" s="63"/>
       <c r="F31" s="63"/>
       <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="172"/>
-      <c r="B32" s="167" t="s">
+      <c r="A32" s="198"/>
+      <c r="B32" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="158" t="s">
+      <c r="C32" s="122" t="s">
         <v>347</v>
       </c>
       <c r="D32" s="69"/>
@@ -5544,11 +5641,11 @@
       <c r="G32" s="58"/>
     </row>
     <row r="33" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="172"/>
-      <c r="B33" s="167" t="s">
+      <c r="A33" s="198"/>
+      <c r="B33" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="158" t="s">
+      <c r="C33" s="122" t="s">
         <v>961</v>
       </c>
       <c r="D33" s="69"/>
@@ -5557,11 +5654,11 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="172"/>
-      <c r="B34" s="167" t="s">
+      <c r="A34" s="198"/>
+      <c r="B34" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="158" t="s">
+      <c r="C34" s="122" t="s">
         <v>348</v>
       </c>
       <c r="D34" s="69"/>
@@ -5570,11 +5667,11 @@
       <c r="G34" s="58"/>
     </row>
     <row r="35" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="172"/>
-      <c r="B35" s="167" t="s">
+      <c r="A35" s="198"/>
+      <c r="B35" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="158" t="s">
+      <c r="C35" s="122" t="s">
         <v>962</v>
       </c>
       <c r="D35" s="69"/>
@@ -5583,11 +5680,11 @@
       <c r="G35" s="58"/>
     </row>
     <row r="36" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="184"/>
-      <c r="B36" s="185" t="s">
+      <c r="A36" s="199"/>
+      <c r="B36" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="186" t="s">
+      <c r="C36" s="144" t="s">
         <v>963</v>
       </c>
       <c r="D36" s="76"/>
@@ -5596,13 +5693,13 @@
       <c r="G36" s="58"/>
     </row>
     <row r="37" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="178" t="s">
+      <c r="A37" s="201" t="s">
         <v>984</v>
       </c>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="179" t="s">
+      <c r="C37" s="139" t="s">
         <v>964</v>
       </c>
       <c r="D37" s="77"/>
@@ -5611,11 +5708,11 @@
       <c r="G37" s="58"/>
     </row>
     <row r="38" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
-      <c r="B38" s="166" t="s">
+      <c r="A38" s="202"/>
+      <c r="B38" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="159" t="s">
+      <c r="C38" s="123" t="s">
         <v>965</v>
       </c>
       <c r="D38" s="73"/>
@@ -5624,11 +5721,11 @@
       <c r="G38" s="58"/>
     </row>
     <row r="39" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="109"/>
-      <c r="B39" s="166" t="s">
+      <c r="A39" s="202"/>
+      <c r="B39" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="159" t="s">
+      <c r="C39" s="123" t="s">
         <v>966</v>
       </c>
       <c r="D39" s="73"/>
@@ -5637,11 +5734,11 @@
       <c r="G39" s="58"/>
     </row>
     <row r="40" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
-      <c r="B40" s="166" t="s">
+      <c r="A40" s="202"/>
+      <c r="B40" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="161" t="s">
+      <c r="C40" s="125" t="s">
         <v>967</v>
       </c>
       <c r="D40" s="73"/>
@@ -5650,11 +5747,11 @@
       <c r="G40" s="58"/>
     </row>
     <row r="41" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="170" t="s">
+      <c r="A41" s="202"/>
+      <c r="B41" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="161" t="s">
+      <c r="C41" s="125" t="s">
         <v>968</v>
       </c>
       <c r="D41" s="73"/>
@@ -5663,11 +5760,11 @@
       <c r="G41" s="58"/>
     </row>
     <row r="42" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="109"/>
-      <c r="B42" s="193" t="s">
+      <c r="A42" s="202"/>
+      <c r="B42" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="194" t="s">
+      <c r="C42" s="151" t="s">
         <v>969</v>
       </c>
       <c r="D42" s="78"/>
@@ -5676,26 +5773,26 @@
       <c r="G42" s="58"/>
     </row>
     <row r="43" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="197" t="s">
         <v>986</v>
       </c>
-      <c r="B43" s="198" t="s">
+      <c r="B43" s="154" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="199" t="s">
+      <c r="C43" s="155" t="s">
         <v>970</v>
       </c>
-      <c r="D43" s="192"/>
+      <c r="D43" s="149"/>
       <c r="E43" s="63"/>
       <c r="F43" s="63"/>
       <c r="G43" s="58"/>
     </row>
     <row r="44" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="172"/>
-      <c r="B44" s="167" t="s">
+      <c r="A44" s="198"/>
+      <c r="B44" s="131" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="162" t="s">
+      <c r="C44" s="126" t="s">
         <v>971</v>
       </c>
       <c r="D44" s="69"/>
@@ -5704,11 +5801,11 @@
       <c r="G44" s="58"/>
     </row>
     <row r="45" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="172"/>
-      <c r="B45" s="169" t="s">
+      <c r="A45" s="198"/>
+      <c r="B45" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="C45" s="162" t="s">
+      <c r="C45" s="126" t="s">
         <v>972</v>
       </c>
       <c r="D45" s="69"/>
@@ -5717,11 +5814,11 @@
       <c r="G45" s="58"/>
     </row>
     <row r="46" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="172"/>
-      <c r="B46" s="167" t="s">
+      <c r="A46" s="198"/>
+      <c r="B46" s="131" t="s">
         <v>315</v>
       </c>
-      <c r="C46" s="162" t="s">
+      <c r="C46" s="126" t="s">
         <v>973</v>
       </c>
       <c r="D46" s="69"/>
@@ -5730,11 +5827,11 @@
       <c r="G46" s="58"/>
     </row>
     <row r="47" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
-      <c r="B47" s="169" t="s">
+      <c r="A47" s="198"/>
+      <c r="B47" s="133" t="s">
         <v>316</v>
       </c>
-      <c r="C47" s="162" t="s">
+      <c r="C47" s="126" t="s">
         <v>974</v>
       </c>
       <c r="D47" s="69"/>
@@ -5743,11 +5840,11 @@
       <c r="G47" s="58"/>
     </row>
     <row r="48" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="184"/>
-      <c r="B48" s="185" t="s">
+      <c r="A48" s="199"/>
+      <c r="B48" s="143" t="s">
         <v>317</v>
       </c>
-      <c r="C48" s="200" t="s">
+      <c r="C48" s="156" t="s">
         <v>975</v>
       </c>
       <c r="D48" s="76"/>
@@ -5759,10 +5856,10 @@
       <c r="A49" s="195" t="s">
         <v>987</v>
       </c>
-      <c r="B49" s="196" t="s">
+      <c r="B49" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="C49" s="197" t="s">
+      <c r="C49" s="153" t="s">
         <v>329</v>
       </c>
       <c r="D49" s="77"/>
@@ -5771,11 +5868,11 @@
       <c r="G49" s="58"/>
     </row>
     <row r="50" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="173"/>
-      <c r="B50" s="166" t="s">
+      <c r="A50" s="196"/>
+      <c r="B50" s="130" t="s">
         <v>312</v>
       </c>
-      <c r="C50" s="163" t="s">
+      <c r="C50" s="127" t="s">
         <v>947</v>
       </c>
       <c r="D50" s="73"/>
@@ -5784,11 +5881,11 @@
       <c r="G50" s="58"/>
     </row>
     <row r="51" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="173"/>
-      <c r="B51" s="170" t="s">
+      <c r="A51" s="196"/>
+      <c r="B51" s="134" t="s">
         <v>318</v>
       </c>
-      <c r="C51" s="163" t="s">
+      <c r="C51" s="127" t="s">
         <v>329</v>
       </c>
       <c r="D51" s="73"/>
@@ -5797,11 +5894,11 @@
       <c r="G51" s="58"/>
     </row>
     <row r="52" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="173"/>
-      <c r="B52" s="166" t="s">
+      <c r="A52" s="196"/>
+      <c r="B52" s="130" t="s">
         <v>319</v>
       </c>
-      <c r="C52" s="163" t="s">
+      <c r="C52" s="127" t="s">
         <v>947</v>
       </c>
       <c r="D52" s="73"/>
@@ -5810,11 +5907,11 @@
       <c r="G52" s="58"/>
     </row>
     <row r="53" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="173"/>
-      <c r="B53" s="170" t="s">
+      <c r="A53" s="196"/>
+      <c r="B53" s="134" t="s">
         <v>320</v>
       </c>
-      <c r="C53" s="163" t="s">
+      <c r="C53" s="127" t="s">
         <v>329</v>
       </c>
       <c r="D53" s="73"/>
@@ -5823,11 +5920,11 @@
       <c r="G53" s="58"/>
     </row>
     <row r="54" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="173"/>
-      <c r="B54" s="175" t="s">
+      <c r="A54" s="196"/>
+      <c r="B54" s="136" t="s">
         <v>321</v>
       </c>
-      <c r="C54" s="201" t="s">
+      <c r="C54" s="157" t="s">
         <v>948</v>
       </c>
       <c r="D54" s="78"/>
@@ -5836,26 +5933,26 @@
       <c r="G54" s="58"/>
     </row>
     <row r="55" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="189" t="s">
+      <c r="A55" s="197" t="s">
         <v>988</v>
       </c>
-      <c r="B55" s="198" t="s">
+      <c r="B55" s="154" t="s">
         <v>313</v>
       </c>
-      <c r="C55" s="199" t="s">
+      <c r="C55" s="155" t="s">
         <v>325</v>
       </c>
-      <c r="D55" s="192"/>
+      <c r="D55" s="149"/>
       <c r="E55" s="63"/>
       <c r="F55" s="63"/>
       <c r="G55" s="58"/>
     </row>
     <row r="56" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="172"/>
-      <c r="B56" s="169" t="s">
+      <c r="A56" s="198"/>
+      <c r="B56" s="133" t="s">
         <v>326</v>
       </c>
-      <c r="C56" s="162" t="s">
+      <c r="C56" s="126" t="s">
         <v>976</v>
       </c>
       <c r="D56" s="69"/>
@@ -5864,11 +5961,11 @@
       <c r="G56" s="58"/>
     </row>
     <row r="57" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="172"/>
-      <c r="B57" s="169" t="s">
+      <c r="A57" s="198"/>
+      <c r="B57" s="133" t="s">
         <v>323</v>
       </c>
-      <c r="C57" s="162" t="s">
+      <c r="C57" s="126" t="s">
         <v>324</v>
       </c>
       <c r="D57" s="69"/>
@@ -5877,11 +5974,11 @@
       <c r="G57" s="58"/>
     </row>
     <row r="58" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="172"/>
-      <c r="B58" s="169" t="s">
+      <c r="A58" s="198"/>
+      <c r="B58" s="133" t="s">
         <v>327</v>
       </c>
-      <c r="C58" s="162" t="s">
+      <c r="C58" s="126" t="s">
         <v>976</v>
       </c>
       <c r="D58" s="69"/>
@@ -5890,11 +5987,11 @@
       <c r="G58" s="58"/>
     </row>
     <row r="59" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="172"/>
-      <c r="B59" s="169" t="s">
+      <c r="A59" s="198"/>
+      <c r="B59" s="133" t="s">
         <v>322</v>
       </c>
-      <c r="C59" s="162" t="s">
+      <c r="C59" s="126" t="s">
         <v>325</v>
       </c>
       <c r="D59" s="69"/>
@@ -5903,11 +6000,11 @@
       <c r="G59" s="58"/>
     </row>
     <row r="60" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="184"/>
-      <c r="B60" s="190" t="s">
+      <c r="A60" s="199"/>
+      <c r="B60" s="147" t="s">
         <v>328</v>
       </c>
-      <c r="C60" s="200" t="s">
+      <c r="C60" s="156" t="s">
         <v>976</v>
       </c>
       <c r="D60" s="76"/>
@@ -5916,13 +6013,13 @@
       <c r="G60" s="58"/>
     </row>
     <row r="61" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="173" t="s">
+      <c r="A61" s="196" t="s">
         <v>989</v>
       </c>
-      <c r="B61" s="165" t="s">
+      <c r="B61" s="129" t="s">
         <v>330</v>
       </c>
-      <c r="C61" s="202" t="s">
+      <c r="C61" s="158" t="s">
         <v>977</v>
       </c>
       <c r="D61" s="77"/>
@@ -5931,11 +6028,11 @@
       <c r="G61" s="58"/>
     </row>
     <row r="62" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="173"/>
-      <c r="B62" s="166" t="s">
+      <c r="A62" s="196"/>
+      <c r="B62" s="130" t="s">
         <v>331</v>
       </c>
-      <c r="C62" s="157" t="s">
+      <c r="C62" s="121" t="s">
         <v>978</v>
       </c>
       <c r="D62" s="73"/>
@@ -5944,11 +6041,11 @@
       <c r="G62" s="58"/>
     </row>
     <row r="63" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="174"/>
-      <c r="B63" s="171" t="s">
+      <c r="A63" s="200"/>
+      <c r="B63" s="135" t="s">
         <v>332</v>
       </c>
-      <c r="C63" s="164" t="s">
+      <c r="C63" s="128" t="s">
         <v>979</v>
       </c>
       <c r="D63" s="75"/>
@@ -6255,19 +6352,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="L2:X2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A18"/>
     <mergeCell ref="A49:A54"/>
     <mergeCell ref="A55:A60"/>
     <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A36"/>
-    <mergeCell ref="L2:X2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A43:A48"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6279,8 +6376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED7673E-04F8-432C-BDD2-F8DC231601DD}">
   <dimension ref="A1:Z142"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="92.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6291,7 +6388,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="206" t="s">
         <v>308</v>
       </c>
       <c r="B1" s="47" t="s">
@@ -6324,7 +6421,7 @@
       <c r="Z1" s="27"/>
     </row>
     <row r="2" spans="1:26" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
+      <c r="A2" s="216"/>
       <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
@@ -6338,27 +6435,27 @@
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
       <c r="Y2" s="27"/>
       <c r="Z2" s="27"/>
     </row>
     <row r="3" spans="1:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="217" t="s">
         <v>851</v>
       </c>
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="160" t="s">
         <v>850</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -6386,8 +6483,8 @@
       <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
-      <c r="B4" s="206" t="s">
+      <c r="A4" s="218"/>
+      <c r="B4" s="161" t="s">
         <v>852</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -6415,8 +6512,8 @@
       <c r="Z4" s="27"/>
     </row>
     <row r="5" spans="1:26" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
-      <c r="B5" s="206" t="s">
+      <c r="A5" s="218"/>
+      <c r="B5" s="161" t="s">
         <v>853</v>
       </c>
       <c r="C5" s="72" t="s">
@@ -6444,8 +6541,8 @@
       <c r="Z5" s="27"/>
     </row>
     <row r="6" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="206" t="s">
+      <c r="A6" s="218"/>
+      <c r="B6" s="161" t="s">
         <v>854</v>
       </c>
       <c r="C6" s="72" t="s">
@@ -6473,8 +6570,8 @@
       <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="105"/>
-      <c r="B7" s="206" t="s">
+      <c r="A7" s="218"/>
+      <c r="B7" s="161" t="s">
         <v>855</v>
       </c>
       <c r="C7" s="72" t="s">
@@ -6486,8 +6583,8 @@
       <c r="G7" s="72"/>
     </row>
     <row r="8" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105"/>
-      <c r="B8" s="206" t="s">
+      <c r="A8" s="218"/>
+      <c r="B8" s="161" t="s">
         <v>856</v>
       </c>
       <c r="C8" s="72" t="s">
@@ -6499,8 +6596,8 @@
       <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
-      <c r="B9" s="206" t="s">
+      <c r="A9" s="218"/>
+      <c r="B9" s="161" t="s">
         <v>857</v>
       </c>
       <c r="C9" s="72" t="s">
@@ -6512,8 +6609,8 @@
       <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="206" t="s">
+      <c r="A10" s="218"/>
+      <c r="B10" s="161" t="s">
         <v>858</v>
       </c>
       <c r="C10" s="72" t="s">
@@ -6525,8 +6622,8 @@
       <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="105"/>
-      <c r="B11" s="206" t="s">
+      <c r="A11" s="218"/>
+      <c r="B11" s="161" t="s">
         <v>859</v>
       </c>
       <c r="C11" s="72" t="s">
@@ -6538,8 +6635,8 @@
       <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="105"/>
-      <c r="B12" s="206" t="s">
+      <c r="A12" s="218"/>
+      <c r="B12" s="161" t="s">
         <v>860</v>
       </c>
       <c r="C12" s="72" t="s">
@@ -6551,12 +6648,12 @@
       <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="105"/>
-      <c r="B13" s="206" t="s">
+      <c r="A13" s="218"/>
+      <c r="B13" s="161" t="s">
         <v>861</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>1029</v>
+        <v>1091</v>
       </c>
       <c r="D13" s="73"/>
       <c r="E13" s="57"/>
@@ -6564,12 +6661,12 @@
       <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="105"/>
-      <c r="B14" s="206" t="s">
+      <c r="A14" s="218"/>
+      <c r="B14" s="161" t="s">
         <v>862</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D14" s="73"/>
       <c r="E14" s="63"/>
@@ -6577,12 +6674,12 @@
       <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="105"/>
-      <c r="B15" s="206" t="s">
+      <c r="A15" s="218"/>
+      <c r="B15" s="161" t="s">
         <v>863</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D15" s="73"/>
       <c r="E15" s="63"/>
@@ -6590,8 +6687,8 @@
       <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="105"/>
-      <c r="B16" s="206" t="s">
+      <c r="A16" s="218"/>
+      <c r="B16" s="161" t="s">
         <v>864</v>
       </c>
       <c r="C16" s="72"/>
@@ -6601,8 +6698,8 @@
       <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="105"/>
-      <c r="B17" s="206" t="s">
+      <c r="A17" s="218"/>
+      <c r="B17" s="161" t="s">
         <v>865</v>
       </c>
       <c r="C17" s="72"/>
@@ -6612,12 +6709,12 @@
       <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="105"/>
-      <c r="B18" s="206" t="s">
+      <c r="A18" s="218"/>
+      <c r="B18" s="161" t="s">
         <v>866</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D18" s="73"/>
       <c r="E18" s="63"/>
@@ -6625,12 +6722,12 @@
       <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105"/>
-      <c r="B19" s="206" t="s">
+      <c r="A19" s="218"/>
+      <c r="B19" s="161" t="s">
         <v>867</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D19" s="73"/>
       <c r="E19" s="63"/>
@@ -6638,12 +6735,12 @@
       <c r="G19" s="58"/>
     </row>
     <row r="20" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105"/>
-      <c r="B20" s="206" t="s">
+      <c r="A20" s="218"/>
+      <c r="B20" s="161" t="s">
         <v>868</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D20" s="73"/>
       <c r="E20" s="63"/>
@@ -6651,12 +6748,12 @@
       <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="206" t="s">
+      <c r="A21" s="218"/>
+      <c r="B21" s="161" t="s">
         <v>869</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D21" s="73"/>
       <c r="E21" s="63"/>
@@ -6664,12 +6761,12 @@
       <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="206" t="s">
+      <c r="A22" s="218"/>
+      <c r="B22" s="161" t="s">
         <v>870</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="63"/>
@@ -6677,12 +6774,12 @@
       <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="206" t="s">
+      <c r="A23" s="218"/>
+      <c r="B23" s="161" t="s">
         <v>871</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D23" s="73"/>
       <c r="E23" s="63"/>
@@ -6690,12 +6787,12 @@
       <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
-      <c r="B24" s="206" t="s">
+      <c r="A24" s="218"/>
+      <c r="B24" s="161" t="s">
         <v>936</v>
       </c>
       <c r="C24" s="86" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="63"/>
@@ -6703,23 +6800,23 @@
       <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="105"/>
-      <c r="B25" s="206" t="s">
+      <c r="A25" s="218"/>
+      <c r="B25" s="161" t="s">
         <v>938</v>
       </c>
       <c r="C25" s="86" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D25" s="65"/>
       <c r="F25" s="63"/>
       <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="206" t="s">
+      <c r="A26" s="218"/>
+      <c r="B26" s="161" t="s">
         <v>939</v>
       </c>
-      <c r="C26" s="206" t="s">
+      <c r="C26" s="161" t="s">
         <v>905</v>
       </c>
       <c r="D26" s="65"/>
@@ -6727,12 +6824,12 @@
       <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="105"/>
-      <c r="B27" s="206" t="s">
+      <c r="A27" s="218"/>
+      <c r="B27" s="161" t="s">
         <v>943</v>
       </c>
-      <c r="C27" s="206" t="s">
-        <v>1040</v>
+      <c r="C27" s="161" t="s">
+        <v>1039</v>
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="63"/>
@@ -6740,12 +6837,12 @@
       <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
-      <c r="B28" s="215" t="s">
+      <c r="A28" s="219"/>
+      <c r="B28" s="170" t="s">
         <v>944</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D28" s="75"/>
       <c r="E28" s="63"/>
@@ -6753,25 +6850,25 @@
       <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="213" t="s">
         <v>1017</v>
       </c>
-      <c r="B29" s="213" t="s">
+      <c r="B29" s="168" t="s">
         <v>848</v>
       </c>
-      <c r="C29" s="214" t="s">
-        <v>1042</v>
+      <c r="C29" s="169" t="s">
+        <v>1041</v>
       </c>
       <c r="D29" s="60"/>
       <c r="F29" s="63"/>
       <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="106"/>
-      <c r="B30" s="207" t="s">
+      <c r="A30" s="213"/>
+      <c r="B30" s="162" t="s">
         <v>849</v>
       </c>
-      <c r="C30" s="210" t="s">
+      <c r="C30" s="165" t="s">
         <v>903</v>
       </c>
       <c r="D30" s="69"/>
@@ -6780,11 +6877,11 @@
       <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="106"/>
-      <c r="B31" s="207" t="s">
+      <c r="A31" s="213"/>
+      <c r="B31" s="162" t="s">
         <v>921</v>
       </c>
-      <c r="C31" s="210" t="s">
+      <c r="C31" s="165" t="s">
         <v>925</v>
       </c>
       <c r="D31" s="69"/>
@@ -6793,12 +6890,12 @@
       <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="106"/>
-      <c r="B32" s="207" t="s">
+      <c r="A32" s="213"/>
+      <c r="B32" s="162" t="s">
         <v>922</v>
       </c>
-      <c r="C32" s="210" t="s">
-        <v>1043</v>
+      <c r="C32" s="165" t="s">
+        <v>1042</v>
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="63"/>
@@ -6806,12 +6903,12 @@
       <c r="G32" s="58"/>
     </row>
     <row r="33" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="106"/>
-      <c r="B33" s="207" t="s">
+      <c r="A33" s="213"/>
+      <c r="B33" s="162" t="s">
         <v>924</v>
       </c>
-      <c r="C33" s="210" t="s">
-        <v>1044</v>
+      <c r="C33" s="165" t="s">
+        <v>1043</v>
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="63"/>
@@ -6819,11 +6916,11 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="106"/>
-      <c r="B34" s="207" t="s">
+      <c r="A34" s="213"/>
+      <c r="B34" s="162" t="s">
         <v>923</v>
       </c>
-      <c r="C34" s="208" t="s">
+      <c r="C34" s="163" t="s">
         <v>926</v>
       </c>
       <c r="D34" s="69"/>
@@ -6832,12 +6929,12 @@
       <c r="G34" s="58"/>
     </row>
     <row r="35" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
-      <c r="B35" s="216" t="s">
+      <c r="A35" s="213"/>
+      <c r="B35" s="171" t="s">
         <v>927</v>
       </c>
-      <c r="C35" s="217" t="s">
-        <v>1046</v>
+      <c r="C35" s="172" t="s">
+        <v>1045</v>
       </c>
       <c r="D35" s="61"/>
       <c r="E35" s="63"/>
@@ -6845,14 +6942,14 @@
       <c r="G35" s="58"/>
     </row>
     <row r="36" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="219" t="s">
+      <c r="A36" s="210" t="s">
         <v>1018</v>
       </c>
-      <c r="B36" s="205" t="s">
+      <c r="B36" s="160" t="s">
         <v>880</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="63"/>
@@ -6860,8 +6957,8 @@
       <c r="G36" s="58"/>
     </row>
     <row r="37" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="204"/>
-      <c r="B37" s="206" t="s">
+      <c r="A37" s="211"/>
+      <c r="B37" s="161" t="s">
         <v>882</v>
       </c>
       <c r="C37" s="72" t="s">
@@ -6873,12 +6970,12 @@
       <c r="G37" s="58"/>
     </row>
     <row r="38" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="204"/>
-      <c r="B38" s="206" t="s">
+      <c r="A38" s="211"/>
+      <c r="B38" s="161" t="s">
         <v>883</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D38" s="65"/>
       <c r="E38" s="63"/>
@@ -6886,8 +6983,8 @@
       <c r="G38" s="58"/>
     </row>
     <row r="39" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="204"/>
-      <c r="B39" s="206" t="s">
+      <c r="A39" s="211"/>
+      <c r="B39" s="161" t="s">
         <v>884</v>
       </c>
       <c r="C39" s="72" t="s">
@@ -6899,12 +6996,12 @@
       <c r="G39" s="58"/>
     </row>
     <row r="40" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="204"/>
-      <c r="B40" s="206" t="s">
+      <c r="A40" s="211"/>
+      <c r="B40" s="161" t="s">
         <v>885</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D40" s="73"/>
       <c r="E40" s="63"/>
@@ -6912,8 +7009,8 @@
       <c r="G40" s="58"/>
     </row>
     <row r="41" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="204"/>
-      <c r="B41" s="206" t="s">
+      <c r="A41" s="211"/>
+      <c r="B41" s="161" t="s">
         <v>886</v>
       </c>
       <c r="C41" s="72" t="s">
@@ -6925,12 +7022,12 @@
       <c r="G41" s="58"/>
     </row>
     <row r="42" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="204"/>
-      <c r="B42" s="206" t="s">
+      <c r="A42" s="211"/>
+      <c r="B42" s="161" t="s">
         <v>888</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D42" s="73"/>
       <c r="E42" s="63"/>
@@ -6938,12 +7035,12 @@
       <c r="G42" s="58"/>
     </row>
     <row r="43" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="204"/>
-      <c r="B43" s="206" t="s">
+      <c r="A43" s="211"/>
+      <c r="B43" s="161" t="s">
         <v>889</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D43" s="73"/>
       <c r="E43" s="63"/>
@@ -6951,8 +7048,8 @@
       <c r="G43" s="58"/>
     </row>
     <row r="44" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="204"/>
-      <c r="B44" s="206" t="s">
+      <c r="A44" s="211"/>
+      <c r="B44" s="161" t="s">
         <v>890</v>
       </c>
       <c r="C44" s="72" t="s">
@@ -6964,8 +7061,8 @@
       <c r="G44" s="58"/>
     </row>
     <row r="45" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="204"/>
-      <c r="B45" s="206" t="s">
+      <c r="A45" s="211"/>
+      <c r="B45" s="161" t="s">
         <v>891</v>
       </c>
       <c r="C45" s="72" t="s">
@@ -6977,12 +7074,12 @@
       <c r="G45" s="58"/>
     </row>
     <row r="46" spans="1:7" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="204"/>
-      <c r="B46" s="206" t="s">
+      <c r="A46" s="211"/>
+      <c r="B46" s="161" t="s">
         <v>892</v>
       </c>
       <c r="C46" s="72" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D46" s="73"/>
       <c r="E46" s="63"/>
@@ -6990,12 +7087,12 @@
       <c r="G46" s="58"/>
     </row>
     <row r="47" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="204"/>
-      <c r="B47" s="206" t="s">
+      <c r="A47" s="211"/>
+      <c r="B47" s="161" t="s">
         <v>893</v>
       </c>
       <c r="C47" s="72" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D47" s="73"/>
       <c r="E47" s="63"/>
@@ -7003,24 +7100,24 @@
       <c r="G47" s="58"/>
     </row>
     <row r="48" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="204"/>
-      <c r="B48" s="206" t="s">
+      <c r="A48" s="211"/>
+      <c r="B48" s="161" t="s">
         <v>894</v>
       </c>
       <c r="C48" s="72" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D48" s="65"/>
       <c r="F48" s="63"/>
       <c r="G48" s="58"/>
     </row>
     <row r="49" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="204"/>
-      <c r="B49" s="206" t="s">
+      <c r="A49" s="211"/>
+      <c r="B49" s="161" t="s">
         <v>895</v>
       </c>
       <c r="C49" s="72" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D49" s="73"/>
       <c r="E49" s="63"/>
@@ -7028,12 +7125,12 @@
       <c r="G49" s="58"/>
     </row>
     <row r="50" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="204"/>
-      <c r="B50" s="206" t="s">
+      <c r="A50" s="211"/>
+      <c r="B50" s="161" t="s">
         <v>896</v>
       </c>
       <c r="C50" s="72" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D50" s="73"/>
       <c r="E50" s="63"/>
@@ -7041,11 +7138,11 @@
       <c r="G50" s="58"/>
     </row>
     <row r="51" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="204"/>
-      <c r="B51" s="206" t="s">
+      <c r="A51" s="211"/>
+      <c r="B51" s="161" t="s">
         <v>940</v>
       </c>
-      <c r="C51" s="206" t="s">
+      <c r="C51" s="161" t="s">
         <v>945</v>
       </c>
       <c r="D51" s="73"/>
@@ -7054,12 +7151,12 @@
       <c r="G51" s="58"/>
     </row>
     <row r="52" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="204"/>
-      <c r="B52" s="206" t="s">
+      <c r="A52" s="211"/>
+      <c r="B52" s="161" t="s">
         <v>898</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D52" s="73"/>
       <c r="E52" s="63"/>
@@ -7067,12 +7164,12 @@
       <c r="G52" s="58"/>
     </row>
     <row r="53" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="204"/>
-      <c r="B53" s="206" t="s">
+      <c r="A53" s="211"/>
+      <c r="B53" s="161" t="s">
         <v>899</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D53" s="73"/>
       <c r="E53" s="63"/>
@@ -7080,8 +7177,8 @@
       <c r="G53" s="58"/>
     </row>
     <row r="54" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="204"/>
-      <c r="B54" s="206" t="s">
+      <c r="A54" s="211"/>
+      <c r="B54" s="161" t="s">
         <v>900</v>
       </c>
       <c r="C54" s="72" t="s">
@@ -7093,8 +7190,8 @@
       <c r="G54" s="58"/>
     </row>
     <row r="55" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="204"/>
-      <c r="B55" s="206" t="s">
+      <c r="A55" s="211"/>
+      <c r="B55" s="161" t="s">
         <v>897</v>
       </c>
       <c r="C55" s="72" t="s">
@@ -7105,12 +7202,12 @@
       <c r="G55" s="58"/>
     </row>
     <row r="56" spans="1:7" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="220"/>
-      <c r="B56" s="215" t="s">
+      <c r="A56" s="212"/>
+      <c r="B56" s="170" t="s">
         <v>901</v>
       </c>
       <c r="C56" s="74" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D56" s="73"/>
       <c r="E56" s="63"/>
@@ -7118,14 +7215,14 @@
       <c r="G56" s="58"/>
     </row>
     <row r="57" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="213" t="s">
         <v>1019</v>
       </c>
-      <c r="B57" s="218" t="s">
+      <c r="B57" s="173" t="s">
         <v>908</v>
       </c>
-      <c r="C57" s="214" t="s">
-        <v>1059</v>
+      <c r="C57" s="169" t="s">
+        <v>1058</v>
       </c>
       <c r="D57" s="69"/>
       <c r="E57" s="63"/>
@@ -7133,12 +7230,12 @@
       <c r="G57" s="58"/>
     </row>
     <row r="58" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="106"/>
-      <c r="B58" s="208" t="s">
+      <c r="A58" s="213"/>
+      <c r="B58" s="163" t="s">
         <v>941</v>
       </c>
-      <c r="C58" s="211" t="s">
-        <v>1060</v>
+      <c r="C58" s="166" t="s">
+        <v>1059</v>
       </c>
       <c r="D58" s="69"/>
       <c r="E58" s="63"/>
@@ -7146,12 +7243,12 @@
       <c r="G58" s="58"/>
     </row>
     <row r="59" spans="1:7" ht="341.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="107"/>
-      <c r="B59" s="209" t="s">
+      <c r="A59" s="214"/>
+      <c r="B59" s="164" t="s">
         <v>935</v>
       </c>
-      <c r="C59" s="212" t="s">
-        <v>1061</v>
+      <c r="C59" s="167" t="s">
+        <v>1060</v>
       </c>
       <c r="D59" s="76"/>
       <c r="E59" s="63"/>
@@ -7160,7 +7257,7 @@
     </row>
     <row r="60" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="67"/>
-      <c r="C60" s="203"/>
+      <c r="C60" s="159"/>
       <c r="D60" s="79"/>
       <c r="E60" s="63"/>
       <c r="F60" s="63"/>
@@ -7465,8 +7562,8 @@
   </sheetPr>
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D242" sqref="D242"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7475,7 +7572,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="235" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="85" t="s">
@@ -7579,14 +7676,14 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122"/>
+      <c r="A2" s="236"/>
       <c r="B2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="110" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="83" t="s">
@@ -7681,16 +7778,16 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="220" t="s">
         <v>990</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="102" t="s">
         <v>573</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="174" t="s">
         <v>517</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="111"/>
       <c r="G3" s="83" t="s">
         <v>372</v>
       </c>
@@ -7783,64 +7880,64 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="130" t="s">
+      <c r="A4" s="221"/>
+      <c r="B4" s="103" t="s">
         <v>574</v>
       </c>
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="175" t="s">
         <v>518</v>
       </c>
-      <c r="D4" s="139"/>
+      <c r="D4" s="112"/>
     </row>
     <row r="5" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="130" t="s">
+      <c r="A5" s="221"/>
+      <c r="B5" s="103" t="s">
         <v>575</v>
       </c>
-      <c r="C5" s="222" t="s">
+      <c r="C5" s="175" t="s">
         <v>519</v>
       </c>
-      <c r="D5" s="139"/>
+      <c r="D5" s="112"/>
     </row>
     <row r="6" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
-      <c r="B6" s="130" t="s">
+      <c r="A6" s="221"/>
+      <c r="B6" s="103" t="s">
         <v>576</v>
       </c>
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="175" t="s">
         <v>520</v>
       </c>
-      <c r="D6" s="139"/>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
-      <c r="B7" s="130" t="s">
+      <c r="A7" s="221"/>
+      <c r="B7" s="103" t="s">
         <v>577</v>
       </c>
-      <c r="C7" s="222" t="s">
+      <c r="C7" s="175" t="s">
         <v>521</v>
       </c>
-      <c r="D7" s="139"/>
+      <c r="D7" s="112"/>
     </row>
     <row r="8" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="124"/>
-      <c r="B8" s="130" t="s">
+      <c r="A8" s="221"/>
+      <c r="B8" s="103" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="222" t="s">
+      <c r="C8" s="175" t="s">
         <v>510</v>
       </c>
-      <c r="D8" s="139"/>
+      <c r="D8" s="112"/>
     </row>
     <row r="9" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="130" t="s">
+      <c r="A9" s="221"/>
+      <c r="B9" s="103" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="222" t="s">
+      <c r="C9" s="175" t="s">
         <v>522</v>
       </c>
-      <c r="D9" s="139"/>
+      <c r="D9" s="112"/>
       <c r="M9" s="82"/>
       <c r="N9" s="82"/>
       <c r="O9" s="82"/>
@@ -7861,14 +7958,14 @@
       <c r="AD9" s="82"/>
     </row>
     <row r="10" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124"/>
-      <c r="B10" s="130" t="s">
+      <c r="A10" s="221"/>
+      <c r="B10" s="103" t="s">
         <v>580</v>
       </c>
-      <c r="C10" s="222" t="s">
+      <c r="C10" s="175" t="s">
         <v>523</v>
       </c>
-      <c r="D10" s="139"/>
+      <c r="D10" s="112"/>
       <c r="M10" s="82"/>
       <c r="N10" s="82"/>
       <c r="O10" s="82"/>
@@ -7889,14 +7986,14 @@
       <c r="AD10" s="82"/>
     </row>
     <row r="11" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
-      <c r="B11" s="130" t="s">
+      <c r="A11" s="221"/>
+      <c r="B11" s="103" t="s">
         <v>581</v>
       </c>
-      <c r="C11" s="222" t="s">
+      <c r="C11" s="175" t="s">
         <v>524</v>
       </c>
-      <c r="D11" s="139"/>
+      <c r="D11" s="112"/>
       <c r="G11" t="s">
         <v>349</v>
       </c>
@@ -7940,14 +8037,14 @@
       <c r="AD11" s="82"/>
     </row>
     <row r="12" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="124"/>
-      <c r="B12" s="130" t="s">
+      <c r="A12" s="221"/>
+      <c r="B12" s="103" t="s">
         <v>582</v>
       </c>
-      <c r="C12" s="222" t="s">
+      <c r="C12" s="175" t="s">
         <v>525</v>
       </c>
-      <c r="D12" s="139"/>
+      <c r="D12" s="112"/>
       <c r="J12" s="83" t="s">
         <v>371</v>
       </c>
@@ -7982,14 +8079,14 @@
       <c r="AD12" s="82"/>
     </row>
     <row r="13" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
-      <c r="B13" s="130" t="s">
+      <c r="A13" s="221"/>
+      <c r="B13" s="103" t="s">
         <v>583</v>
       </c>
-      <c r="C13" s="222" t="s">
+      <c r="C13" s="175" t="s">
         <v>511</v>
       </c>
-      <c r="D13" s="130"/>
+      <c r="D13" s="103"/>
       <c r="J13" s="83" t="s">
         <v>372</v>
       </c>
@@ -8024,14 +8121,14 @@
       <c r="AD13" s="82"/>
     </row>
     <row r="14" spans="1:36" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="125"/>
-      <c r="B14" s="131" t="s">
+      <c r="A14" s="222"/>
+      <c r="B14" s="104" t="s">
         <v>584</v>
       </c>
-      <c r="C14" s="223" t="s">
+      <c r="C14" s="176" t="s">
         <v>512</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="104"/>
       <c r="J14" s="83" t="s">
         <v>373</v>
       </c>
@@ -8066,14 +8163,14 @@
       <c r="AD14" s="82"/>
     </row>
     <row r="15" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="226" t="s">
         <v>991</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="132"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="105"/>
       <c r="J15" s="83" t="s">
         <v>374</v>
       </c>
@@ -8108,12 +8205,12 @@
       <c r="AD15" s="82"/>
     </row>
     <row r="16" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="133" t="s">
+      <c r="A16" s="227"/>
+      <c r="B16" s="106" t="s">
         <v>586</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="140"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="113"/>
       <c r="J16" s="83" t="s">
         <v>375</v>
       </c>
@@ -8148,12 +8245,12 @@
       <c r="AD16" s="82"/>
     </row>
     <row r="17" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
-      <c r="B17" s="133" t="s">
+      <c r="A17" s="227"/>
+      <c r="B17" s="106" t="s">
         <v>587</v>
       </c>
-      <c r="C17" s="225"/>
-      <c r="D17" s="133"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="106"/>
       <c r="J17" s="83" t="s">
         <v>376</v>
       </c>
@@ -8188,14 +8285,14 @@
       <c r="AD17" s="82"/>
     </row>
     <row r="18" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="133" t="s">
+      <c r="A18" s="227"/>
+      <c r="B18" s="106" t="s">
         <v>588</v>
       </c>
-      <c r="C18" s="226" t="s">
+      <c r="C18" s="179" t="s">
         <v>526</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="106"/>
       <c r="J18" s="83" t="s">
         <v>377</v>
       </c>
@@ -8230,14 +8327,14 @@
       <c r="AD18" s="82"/>
     </row>
     <row r="19" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="133" t="s">
+      <c r="A19" s="227"/>
+      <c r="B19" s="106" t="s">
         <v>589</v>
       </c>
-      <c r="C19" s="226" t="s">
+      <c r="C19" s="179" t="s">
         <v>527</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="106"/>
       <c r="J19" s="83" t="s">
         <v>378</v>
       </c>
@@ -8272,14 +8369,14 @@
       <c r="AD19" s="82"/>
     </row>
     <row r="20" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="133" t="s">
+      <c r="A20" s="227"/>
+      <c r="B20" s="106" t="s">
         <v>590</v>
       </c>
-      <c r="C20" s="226" t="s">
+      <c r="C20" s="179" t="s">
         <v>528</v>
       </c>
-      <c r="D20" s="133"/>
+      <c r="D20" s="106"/>
       <c r="J20" s="83" t="s">
         <v>379</v>
       </c>
@@ -8314,12 +8411,12 @@
       <c r="AD20" s="82"/>
     </row>
     <row r="21" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
-      <c r="B21" s="133" t="s">
+      <c r="A21" s="227"/>
+      <c r="B21" s="106" t="s">
         <v>591</v>
       </c>
-      <c r="C21" s="225"/>
-      <c r="D21" s="133"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="106"/>
       <c r="J21" s="83" t="s">
         <v>380</v>
       </c>
@@ -8354,12 +8451,12 @@
       <c r="AD21" s="82"/>
     </row>
     <row r="22" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
-      <c r="B22" s="133" t="s">
+      <c r="A22" s="227"/>
+      <c r="B22" s="106" t="s">
         <v>592</v>
       </c>
-      <c r="C22" s="225"/>
-      <c r="D22" s="133"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="106"/>
       <c r="J22" s="83" t="s">
         <v>381</v>
       </c>
@@ -8394,12 +8491,12 @@
       <c r="AD22" s="82"/>
     </row>
     <row r="23" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="133" t="s">
+      <c r="A23" s="227"/>
+      <c r="B23" s="106" t="s">
         <v>593</v>
       </c>
-      <c r="C23" s="225"/>
-      <c r="D23" s="133"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="106"/>
       <c r="J23" s="83" t="s">
         <v>382</v>
       </c>
@@ -8434,14 +8531,14 @@
       <c r="AD23" s="82"/>
     </row>
     <row r="24" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
-      <c r="B24" s="133" t="s">
+      <c r="A24" s="227"/>
+      <c r="B24" s="106" t="s">
         <v>594</v>
       </c>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="179" t="s">
         <v>529</v>
       </c>
-      <c r="D24" s="133"/>
+      <c r="D24" s="106"/>
       <c r="J24" s="83" t="s">
         <v>383</v>
       </c>
@@ -8476,14 +8573,14 @@
       <c r="AD24" s="82"/>
     </row>
     <row r="25" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="133" t="s">
+      <c r="A25" s="227"/>
+      <c r="B25" s="106" t="s">
         <v>595</v>
       </c>
-      <c r="C25" s="226" t="s">
+      <c r="C25" s="179" t="s">
         <v>530</v>
       </c>
-      <c r="D25" s="133"/>
+      <c r="D25" s="106"/>
       <c r="J25" s="83" t="s">
         <v>384</v>
       </c>
@@ -8518,14 +8615,14 @@
       <c r="AD25" s="82"/>
     </row>
     <row r="26" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="142"/>
-      <c r="B26" s="143" t="s">
+      <c r="A26" s="228"/>
+      <c r="B26" s="115" t="s">
         <v>596</v>
       </c>
-      <c r="C26" s="227" t="s">
+      <c r="C26" s="180" t="s">
         <v>531</v>
       </c>
-      <c r="D26" s="143"/>
+      <c r="D26" s="115"/>
       <c r="J26" s="83" t="s">
         <v>385</v>
       </c>
@@ -8560,14 +8657,14 @@
       <c r="AD26" s="82"/>
     </row>
     <row r="27" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123" t="s">
+      <c r="A27" s="220" t="s">
         <v>992</v>
       </c>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="102" t="s">
         <v>597</v>
       </c>
-      <c r="C27" s="228"/>
-      <c r="D27" s="129"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="102"/>
       <c r="J27" s="83" t="s">
         <v>386</v>
       </c>
@@ -8602,12 +8699,12 @@
       <c r="AD27" s="82"/>
     </row>
     <row r="28" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="124"/>
-      <c r="B28" s="130" t="s">
+      <c r="A28" s="221"/>
+      <c r="B28" s="103" t="s">
         <v>598</v>
       </c>
-      <c r="C28" s="229"/>
-      <c r="D28" s="130"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="103"/>
       <c r="J28" s="83" t="s">
         <v>387</v>
       </c>
@@ -8642,12 +8739,12 @@
       <c r="AD28" s="82"/>
     </row>
     <row r="29" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="130" t="s">
+      <c r="A29" s="221"/>
+      <c r="B29" s="103" t="s">
         <v>599</v>
       </c>
-      <c r="C29" s="229"/>
-      <c r="D29" s="130"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="103"/>
       <c r="J29" s="83" t="s">
         <v>388</v>
       </c>
@@ -8682,14 +8779,14 @@
       <c r="AD29" s="82"/>
     </row>
     <row r="30" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="124"/>
-      <c r="B30" s="130" t="s">
+      <c r="A30" s="221"/>
+      <c r="B30" s="103" t="s">
         <v>600</v>
       </c>
-      <c r="C30" s="222" t="s">
+      <c r="C30" s="175" t="s">
         <v>532</v>
       </c>
-      <c r="D30" s="130"/>
+      <c r="D30" s="103"/>
       <c r="J30" s="83" t="s">
         <v>389</v>
       </c>
@@ -8724,14 +8821,14 @@
       <c r="AD30" s="82"/>
     </row>
     <row r="31" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="124"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="221"/>
+      <c r="B31" s="103" t="s">
         <v>601</v>
       </c>
-      <c r="C31" s="222" t="s">
+      <c r="C31" s="175" t="s">
         <v>533</v>
       </c>
-      <c r="D31" s="130"/>
+      <c r="D31" s="103"/>
       <c r="J31" s="83" t="s">
         <v>390</v>
       </c>
@@ -8766,14 +8863,14 @@
       <c r="AD31" s="82"/>
     </row>
     <row r="32" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="124"/>
-      <c r="B32" s="130" t="s">
+      <c r="A32" s="221"/>
+      <c r="B32" s="103" t="s">
         <v>602</v>
       </c>
-      <c r="C32" s="222" t="s">
+      <c r="C32" s="175" t="s">
         <v>534</v>
       </c>
-      <c r="D32" s="130"/>
+      <c r="D32" s="103"/>
       <c r="J32" s="83" t="s">
         <v>391</v>
       </c>
@@ -8808,12 +8905,12 @@
       <c r="AD32" s="82"/>
     </row>
     <row r="33" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="124"/>
-      <c r="B33" s="130" t="s">
+      <c r="A33" s="221"/>
+      <c r="B33" s="103" t="s">
         <v>603</v>
       </c>
-      <c r="C33" s="229"/>
-      <c r="D33" s="130"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="103"/>
       <c r="J33" s="83" t="s">
         <v>392</v>
       </c>
@@ -8848,12 +8945,12 @@
       <c r="AD33" s="82"/>
     </row>
     <row r="34" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="124"/>
-      <c r="B34" s="130" t="s">
+      <c r="A34" s="221"/>
+      <c r="B34" s="103" t="s">
         <v>604</v>
       </c>
-      <c r="C34" s="229"/>
-      <c r="D34" s="130"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="103"/>
       <c r="J34" s="83" t="s">
         <v>393</v>
       </c>
@@ -8888,12 +8985,12 @@
       <c r="AD34" s="82"/>
     </row>
     <row r="35" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="130" t="s">
+      <c r="A35" s="221"/>
+      <c r="B35" s="103" t="s">
         <v>605</v>
       </c>
-      <c r="C35" s="229"/>
-      <c r="D35" s="139"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="112"/>
       <c r="J35" s="83" t="s">
         <v>394</v>
       </c>
@@ -8928,14 +9025,14 @@
       <c r="AD35" s="82"/>
     </row>
     <row r="36" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="124"/>
-      <c r="B36" s="130" t="s">
+      <c r="A36" s="221"/>
+      <c r="B36" s="103" t="s">
         <v>606</v>
       </c>
-      <c r="C36" s="222" t="s">
+      <c r="C36" s="175" t="s">
         <v>535</v>
       </c>
-      <c r="D36" s="130"/>
+      <c r="D36" s="103"/>
       <c r="J36" s="83" t="s">
         <v>395</v>
       </c>
@@ -8970,14 +9067,14 @@
       <c r="AD36" s="82"/>
     </row>
     <row r="37" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
-      <c r="B37" s="130" t="s">
+      <c r="A37" s="221"/>
+      <c r="B37" s="103" t="s">
         <v>607</v>
       </c>
-      <c r="C37" s="222" t="s">
+      <c r="C37" s="175" t="s">
         <v>536</v>
       </c>
-      <c r="D37" s="130"/>
+      <c r="D37" s="103"/>
       <c r="J37" s="83" t="s">
         <v>396</v>
       </c>
@@ -9012,14 +9109,14 @@
       <c r="AD37" s="82"/>
     </row>
     <row r="38" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="125"/>
-      <c r="B38" s="131" t="s">
+      <c r="A38" s="222"/>
+      <c r="B38" s="104" t="s">
         <v>608</v>
       </c>
-      <c r="C38" s="223" t="s">
+      <c r="C38" s="176" t="s">
         <v>537</v>
       </c>
-      <c r="D38" s="131"/>
+      <c r="D38" s="104"/>
       <c r="J38" s="83" t="s">
         <v>397</v>
       </c>
@@ -9054,16 +9151,16 @@
       <c r="AD38" s="82"/>
     </row>
     <row r="39" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="144" t="s">
+      <c r="A39" s="223" t="s">
         <v>993</v>
       </c>
-      <c r="B39" s="132" t="s">
+      <c r="B39" s="105" t="s">
         <v>609</v>
       </c>
-      <c r="C39" s="230" t="s">
+      <c r="C39" s="183" t="s">
         <v>538</v>
       </c>
-      <c r="D39" s="132"/>
+      <c r="D39" s="105"/>
       <c r="J39" s="83" t="s">
         <v>398</v>
       </c>
@@ -9098,14 +9195,14 @@
       <c r="AD39" s="82"/>
     </row>
     <row r="40" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="128"/>
-      <c r="B40" s="133" t="s">
+      <c r="A40" s="224"/>
+      <c r="B40" s="106" t="s">
         <v>610</v>
       </c>
-      <c r="C40" s="226" t="s">
+      <c r="C40" s="179" t="s">
         <v>539</v>
       </c>
-      <c r="D40" s="133"/>
+      <c r="D40" s="106"/>
       <c r="J40" s="83" t="s">
         <v>399</v>
       </c>
@@ -9140,14 +9237,14 @@
       <c r="AD40" s="82"/>
     </row>
     <row r="41" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="128"/>
-      <c r="B41" s="133" t="s">
+      <c r="A41" s="224"/>
+      <c r="B41" s="106" t="s">
         <v>611</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="179" t="s">
         <v>540</v>
       </c>
-      <c r="D41" s="133"/>
+      <c r="D41" s="106"/>
       <c r="J41" s="83" t="s">
         <v>400</v>
       </c>
@@ -9182,14 +9279,14 @@
       <c r="AD41" s="82"/>
     </row>
     <row r="42" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="128"/>
-      <c r="B42" s="133" t="s">
+      <c r="A42" s="224"/>
+      <c r="B42" s="106" t="s">
         <v>612</v>
       </c>
-      <c r="C42" s="226" t="s">
+      <c r="C42" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="D42" s="133"/>
+      <c r="D42" s="106"/>
       <c r="J42" s="83" t="s">
         <v>401</v>
       </c>
@@ -9224,14 +9321,14 @@
       <c r="AD42" s="82"/>
     </row>
     <row r="43" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
-      <c r="B43" s="133" t="s">
+      <c r="A43" s="224"/>
+      <c r="B43" s="106" t="s">
         <v>613</v>
       </c>
-      <c r="C43" s="226" t="s">
+      <c r="C43" s="179" t="s">
         <v>542</v>
       </c>
-      <c r="D43" s="141"/>
+      <c r="D43" s="114"/>
       <c r="J43" s="83" t="s">
         <v>402</v>
       </c>
@@ -9266,14 +9363,14 @@
       <c r="AD43" s="82"/>
     </row>
     <row r="44" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="128"/>
-      <c r="B44" s="133" t="s">
+      <c r="A44" s="224"/>
+      <c r="B44" s="106" t="s">
         <v>614</v>
       </c>
-      <c r="C44" s="226" t="s">
+      <c r="C44" s="179" t="s">
         <v>513</v>
       </c>
-      <c r="D44" s="133"/>
+      <c r="D44" s="106"/>
       <c r="J44" s="83" t="s">
         <v>403</v>
       </c>
@@ -9308,14 +9405,14 @@
       <c r="AD44" s="82"/>
     </row>
     <row r="45" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="128"/>
-      <c r="B45" s="133" t="s">
+      <c r="A45" s="224"/>
+      <c r="B45" s="106" t="s">
         <v>615</v>
       </c>
-      <c r="C45" s="226" t="s">
+      <c r="C45" s="179" t="s">
         <v>543</v>
       </c>
-      <c r="D45" s="133"/>
+      <c r="D45" s="106"/>
       <c r="J45" s="83" t="s">
         <v>404</v>
       </c>
@@ -9350,14 +9447,14 @@
       <c r="AD45" s="82"/>
     </row>
     <row r="46" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="128"/>
-      <c r="B46" s="133" t="s">
+      <c r="A46" s="224"/>
+      <c r="B46" s="106" t="s">
         <v>616</v>
       </c>
-      <c r="C46" s="226" t="s">
+      <c r="C46" s="179" t="s">
         <v>544</v>
       </c>
-      <c r="D46" s="133"/>
+      <c r="D46" s="106"/>
       <c r="J46" s="83" t="s">
         <v>405</v>
       </c>
@@ -9392,14 +9489,14 @@
       <c r="AD46" s="82"/>
     </row>
     <row r="47" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="128"/>
-      <c r="B47" s="133" t="s">
+      <c r="A47" s="224"/>
+      <c r="B47" s="106" t="s">
         <v>617</v>
       </c>
-      <c r="C47" s="226" t="s">
+      <c r="C47" s="179" t="s">
         <v>514</v>
       </c>
-      <c r="D47" s="133"/>
+      <c r="D47" s="106"/>
       <c r="J47" s="83" t="s">
         <v>406</v>
       </c>
@@ -9434,14 +9531,14 @@
       <c r="AD47" s="82"/>
     </row>
     <row r="48" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="128"/>
-      <c r="B48" s="133" t="s">
+      <c r="A48" s="224"/>
+      <c r="B48" s="106" t="s">
         <v>618</v>
       </c>
-      <c r="C48" s="226" t="s">
+      <c r="C48" s="179" t="s">
         <v>545</v>
       </c>
-      <c r="D48" s="133"/>
+      <c r="D48" s="106"/>
       <c r="J48" s="83" t="s">
         <v>407</v>
       </c>
@@ -9476,14 +9573,14 @@
       <c r="AD48" s="82"/>
     </row>
     <row r="49" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="128"/>
-      <c r="B49" s="133" t="s">
+      <c r="A49" s="224"/>
+      <c r="B49" s="106" t="s">
         <v>619</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="179" t="s">
         <v>515</v>
       </c>
-      <c r="D49" s="133"/>
+      <c r="D49" s="106"/>
       <c r="J49" s="83" t="s">
         <v>408</v>
       </c>
@@ -9518,14 +9615,14 @@
       <c r="AD49" s="82"/>
     </row>
     <row r="50" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="145"/>
-      <c r="B50" s="143" t="s">
+      <c r="A50" s="225"/>
+      <c r="B50" s="115" t="s">
         <v>620</v>
       </c>
-      <c r="C50" s="227" t="s">
+      <c r="C50" s="180" t="s">
         <v>516</v>
       </c>
-      <c r="D50" s="143"/>
+      <c r="D50" s="115"/>
       <c r="J50" s="83" t="s">
         <v>409</v>
       </c>
@@ -9560,14 +9657,14 @@
       <c r="AD50" s="82"/>
     </row>
     <row r="51" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="220" t="s">
         <v>994</v>
       </c>
-      <c r="B51" s="129" t="s">
+      <c r="B51" s="102" t="s">
         <v>621</v>
       </c>
-      <c r="C51" s="228"/>
-      <c r="D51" s="129"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="102"/>
       <c r="J51" s="83" t="s">
         <v>410</v>
       </c>
@@ -9602,12 +9699,12 @@
       <c r="AD51" s="82"/>
     </row>
     <row r="52" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="124"/>
-      <c r="B52" s="130" t="s">
+      <c r="A52" s="221"/>
+      <c r="B52" s="103" t="s">
         <v>622</v>
       </c>
-      <c r="C52" s="229"/>
-      <c r="D52" s="130"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="103"/>
       <c r="J52" s="83" t="s">
         <v>411</v>
       </c>
@@ -9642,12 +9739,12 @@
       <c r="AD52" s="82"/>
     </row>
     <row r="53" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="124"/>
-      <c r="B53" s="130" t="s">
+      <c r="A53" s="221"/>
+      <c r="B53" s="103" t="s">
         <v>623</v>
       </c>
-      <c r="C53" s="229"/>
-      <c r="D53" s="130"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="103"/>
       <c r="J53" s="83" t="s">
         <v>412</v>
       </c>
@@ -9682,12 +9779,14 @@
       <c r="AD53" s="82"/>
     </row>
     <row r="54" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
-      <c r="B54" s="130" t="s">
+      <c r="A54" s="221"/>
+      <c r="B54" s="103" t="s">
         <v>624</v>
       </c>
-      <c r="C54" s="229"/>
-      <c r="D54" s="130"/>
+      <c r="C54" s="182" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D54" s="103"/>
       <c r="J54" s="83" t="s">
         <v>413</v>
       </c>
@@ -9722,12 +9821,14 @@
       <c r="AD54" s="82"/>
     </row>
     <row r="55" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="124"/>
-      <c r="B55" s="130" t="s">
+      <c r="A55" s="221"/>
+      <c r="B55" s="103" t="s">
         <v>625</v>
       </c>
-      <c r="C55" s="229"/>
-      <c r="D55" s="130"/>
+      <c r="C55" s="182" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D55" s="103"/>
       <c r="J55" s="83" t="s">
         <v>414</v>
       </c>
@@ -9762,12 +9863,14 @@
       <c r="AD55" s="82"/>
     </row>
     <row r="56" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="124"/>
-      <c r="B56" s="130" t="s">
+      <c r="A56" s="221"/>
+      <c r="B56" s="103" t="s">
         <v>626</v>
       </c>
-      <c r="C56" s="229"/>
-      <c r="D56" s="130"/>
+      <c r="C56" s="182" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D56" s="103"/>
       <c r="J56" s="83" t="s">
         <v>415</v>
       </c>
@@ -9802,12 +9905,12 @@
       <c r="AD56" s="82"/>
     </row>
     <row r="57" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="124"/>
-      <c r="B57" s="130" t="s">
+      <c r="A57" s="221"/>
+      <c r="B57" s="103" t="s">
         <v>627</v>
       </c>
-      <c r="C57" s="229"/>
-      <c r="D57" s="130"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="103"/>
       <c r="J57" s="83" t="s">
         <v>416</v>
       </c>
@@ -9842,12 +9945,12 @@
       <c r="AD57" s="82"/>
     </row>
     <row r="58" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="124"/>
-      <c r="B58" s="130" t="s">
+      <c r="A58" s="221"/>
+      <c r="B58" s="103" t="s">
         <v>628</v>
       </c>
-      <c r="C58" s="229"/>
-      <c r="D58" s="130"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="103"/>
       <c r="J58" s="83" t="s">
         <v>417</v>
       </c>
@@ -9882,12 +9985,12 @@
       <c r="AD58" s="82"/>
     </row>
     <row r="59" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="124"/>
-      <c r="B59" s="130" t="s">
+      <c r="A59" s="221"/>
+      <c r="B59" s="103" t="s">
         <v>629</v>
       </c>
-      <c r="C59" s="229"/>
-      <c r="D59" s="130"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="103"/>
       <c r="J59" s="83" t="s">
         <v>418</v>
       </c>
@@ -9922,12 +10025,14 @@
       <c r="AD59" s="82"/>
     </row>
     <row r="60" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="124"/>
-      <c r="B60" s="130" t="s">
+      <c r="A60" s="221"/>
+      <c r="B60" s="103" t="s">
         <v>630</v>
       </c>
-      <c r="C60" s="229"/>
-      <c r="D60" s="130"/>
+      <c r="C60" s="182" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D60" s="103"/>
       <c r="J60" s="83" t="s">
         <v>419</v>
       </c>
@@ -9962,12 +10067,14 @@
       <c r="AD60" s="82"/>
     </row>
     <row r="61" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="124"/>
-      <c r="B61" s="130" t="s">
+      <c r="A61" s="221"/>
+      <c r="B61" s="103" t="s">
         <v>631</v>
       </c>
-      <c r="C61" s="229"/>
-      <c r="D61" s="130"/>
+      <c r="C61" s="182" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D61" s="103"/>
       <c r="J61" s="83" t="s">
         <v>420</v>
       </c>
@@ -10002,12 +10109,14 @@
       <c r="AD61" s="82"/>
     </row>
     <row r="62" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="125"/>
-      <c r="B62" s="131" t="s">
+      <c r="A62" s="222"/>
+      <c r="B62" s="104" t="s">
         <v>632</v>
       </c>
-      <c r="C62" s="231"/>
-      <c r="D62" s="131"/>
+      <c r="C62" s="184" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D62" s="104"/>
       <c r="J62" s="83" t="s">
         <v>421</v>
       </c>
@@ -10042,14 +10151,14 @@
       <c r="AD62" s="82"/>
     </row>
     <row r="63" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="126" t="s">
+      <c r="A63" s="226" t="s">
         <v>995</v>
       </c>
-      <c r="B63" s="132" t="s">
+      <c r="B63" s="105" t="s">
         <v>633</v>
       </c>
-      <c r="C63" s="224"/>
-      <c r="D63" s="132"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="105"/>
       <c r="J63" s="83" t="s">
         <v>422</v>
       </c>
@@ -10084,12 +10193,12 @@
       <c r="AD63" s="82"/>
     </row>
     <row r="64" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="127"/>
-      <c r="B64" s="133" t="s">
+      <c r="A64" s="227"/>
+      <c r="B64" s="106" t="s">
         <v>634</v>
       </c>
-      <c r="C64" s="225"/>
-      <c r="D64" s="133"/>
+      <c r="C64" s="178"/>
+      <c r="D64" s="106"/>
       <c r="J64" s="83" t="s">
         <v>423</v>
       </c>
@@ -10124,12 +10233,12 @@
       <c r="AD64" s="82"/>
     </row>
     <row r="65" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="127"/>
-      <c r="B65" s="133" t="s">
+      <c r="A65" s="227"/>
+      <c r="B65" s="106" t="s">
         <v>635</v>
       </c>
-      <c r="C65" s="225"/>
-      <c r="D65" s="133"/>
+      <c r="C65" s="178"/>
+      <c r="D65" s="106"/>
       <c r="J65" s="83" t="s">
         <v>424</v>
       </c>
@@ -10164,12 +10273,14 @@
       <c r="AD65" s="82"/>
     </row>
     <row r="66" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="127"/>
-      <c r="B66" s="133" t="s">
+      <c r="A66" s="227"/>
+      <c r="B66" s="106" t="s">
         <v>636</v>
       </c>
-      <c r="C66" s="225"/>
-      <c r="D66" s="133"/>
+      <c r="C66" s="178" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D66" s="106"/>
       <c r="J66" s="83" t="s">
         <v>425</v>
       </c>
@@ -10204,12 +10315,14 @@
       <c r="AD66" s="82"/>
     </row>
     <row r="67" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="127"/>
-      <c r="B67" s="133" t="s">
+      <c r="A67" s="227"/>
+      <c r="B67" s="106" t="s">
         <v>637</v>
       </c>
-      <c r="C67" s="225"/>
-      <c r="D67" s="133"/>
+      <c r="C67" s="178" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D67" s="106"/>
       <c r="J67" s="83" t="s">
         <v>426</v>
       </c>
@@ -10244,12 +10357,14 @@
       <c r="AD67" s="82"/>
     </row>
     <row r="68" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="127"/>
-      <c r="B68" s="133" t="s">
+      <c r="A68" s="227"/>
+      <c r="B68" s="106" t="s">
         <v>638</v>
       </c>
-      <c r="C68" s="225"/>
-      <c r="D68" s="133"/>
+      <c r="C68" s="178" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D68" s="106"/>
       <c r="J68" s="83" t="s">
         <v>427</v>
       </c>
@@ -10284,12 +10399,12 @@
       <c r="AD68" s="82"/>
     </row>
     <row r="69" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="127"/>
-      <c r="B69" s="133" t="s">
+      <c r="A69" s="227"/>
+      <c r="B69" s="106" t="s">
         <v>639</v>
       </c>
-      <c r="C69" s="225"/>
-      <c r="D69" s="133"/>
+      <c r="C69" s="178"/>
+      <c r="D69" s="106"/>
       <c r="J69" s="83" t="s">
         <v>428</v>
       </c>
@@ -10324,12 +10439,12 @@
       <c r="AD69" s="82"/>
     </row>
     <row r="70" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="127"/>
-      <c r="B70" s="133" t="s">
+      <c r="A70" s="227"/>
+      <c r="B70" s="106" t="s">
         <v>640</v>
       </c>
-      <c r="C70" s="225"/>
-      <c r="D70" s="133"/>
+      <c r="C70" s="178"/>
+      <c r="D70" s="106"/>
       <c r="J70" s="83" t="s">
         <v>429</v>
       </c>
@@ -10364,12 +10479,12 @@
       <c r="AD70" s="82"/>
     </row>
     <row r="71" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="127"/>
-      <c r="B71" s="133" t="s">
+      <c r="A71" s="227"/>
+      <c r="B71" s="106" t="s">
         <v>641</v>
       </c>
-      <c r="C71" s="225"/>
-      <c r="D71" s="133"/>
+      <c r="C71" s="178"/>
+      <c r="D71" s="106"/>
       <c r="J71" s="83" t="s">
         <v>430</v>
       </c>
@@ -10404,12 +10519,14 @@
       <c r="AD71" s="82"/>
     </row>
     <row r="72" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="127"/>
-      <c r="B72" s="133" t="s">
+      <c r="A72" s="227"/>
+      <c r="B72" s="106" t="s">
         <v>642</v>
       </c>
-      <c r="C72" s="225"/>
-      <c r="D72" s="133"/>
+      <c r="C72" s="178" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D72" s="106"/>
       <c r="J72" s="83" t="s">
         <v>431</v>
       </c>
@@ -10444,12 +10561,14 @@
       <c r="AD72" s="82"/>
     </row>
     <row r="73" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="127"/>
-      <c r="B73" s="133" t="s">
+      <c r="A73" s="227"/>
+      <c r="B73" s="106" t="s">
         <v>643</v>
       </c>
-      <c r="C73" s="225"/>
-      <c r="D73" s="133"/>
+      <c r="C73" s="178" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D73" s="106"/>
       <c r="J73" s="83" t="s">
         <v>432</v>
       </c>
@@ -10484,12 +10603,14 @@
       <c r="AD73" s="82"/>
     </row>
     <row r="74" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="142"/>
-      <c r="B74" s="143" t="s">
+      <c r="A74" s="228"/>
+      <c r="B74" s="115" t="s">
         <v>644</v>
       </c>
-      <c r="C74" s="232"/>
-      <c r="D74" s="143"/>
+      <c r="C74" s="185" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D74" s="115"/>
       <c r="J74" s="83" t="s">
         <v>433</v>
       </c>
@@ -10524,16 +10645,16 @@
       <c r="AD74" s="82"/>
     </row>
     <row r="75" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="123" t="s">
+      <c r="A75" s="220" t="s">
         <v>996</v>
       </c>
-      <c r="B75" s="129" t="s">
+      <c r="B75" s="102" t="s">
         <v>645</v>
       </c>
-      <c r="C75" s="233" t="s">
+      <c r="C75" s="186" t="s">
         <v>546</v>
       </c>
-      <c r="D75" s="129"/>
+      <c r="D75" s="102"/>
       <c r="J75" s="83" t="s">
         <v>434</v>
       </c>
@@ -10568,14 +10689,14 @@
       <c r="AD75" s="82"/>
     </row>
     <row r="76" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="124"/>
-      <c r="B76" s="130" t="s">
+      <c r="A76" s="221"/>
+      <c r="B76" s="103" t="s">
         <v>646</v>
       </c>
-      <c r="C76" s="234" t="s">
+      <c r="C76" s="187" t="s">
         <v>547</v>
       </c>
-      <c r="D76" s="130"/>
+      <c r="D76" s="103"/>
       <c r="J76" s="83" t="s">
         <v>435</v>
       </c>
@@ -10610,14 +10731,14 @@
       <c r="AD76" s="82"/>
     </row>
     <row r="77" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="125"/>
-      <c r="B77" s="131" t="s">
+      <c r="A77" s="222"/>
+      <c r="B77" s="104" t="s">
         <v>647</v>
       </c>
-      <c r="C77" s="235" t="s">
+      <c r="C77" s="188" t="s">
         <v>548</v>
       </c>
-      <c r="D77" s="131"/>
+      <c r="D77" s="104"/>
       <c r="J77" s="83" t="s">
         <v>436</v>
       </c>
@@ -10652,16 +10773,16 @@
       <c r="AD77" s="82"/>
     </row>
     <row r="78" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="126" t="s">
+      <c r="A78" s="226" t="s">
         <v>997</v>
       </c>
-      <c r="B78" s="132" t="s">
+      <c r="B78" s="105" t="s">
         <v>648</v>
       </c>
-      <c r="C78" s="236" t="s">
+      <c r="C78" s="189" t="s">
         <v>549</v>
       </c>
-      <c r="D78" s="132"/>
+      <c r="D78" s="105"/>
       <c r="J78" s="83" t="s">
         <v>437</v>
       </c>
@@ -10696,14 +10817,14 @@
       <c r="AD78" s="82"/>
     </row>
     <row r="79" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="142"/>
-      <c r="B79" s="143" t="s">
+      <c r="A79" s="228"/>
+      <c r="B79" s="115" t="s">
         <v>649</v>
       </c>
-      <c r="C79" s="237" t="s">
+      <c r="C79" s="190" t="s">
         <v>550</v>
       </c>
-      <c r="D79" s="143"/>
+      <c r="D79" s="115"/>
       <c r="J79" s="83" t="s">
         <v>438</v>
       </c>
@@ -10738,16 +10859,16 @@
       <c r="AD79" s="82"/>
     </row>
     <row r="80" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="123" t="s">
+      <c r="A80" s="220" t="s">
         <v>998</v>
       </c>
-      <c r="B80" s="129" t="s">
+      <c r="B80" s="102" t="s">
         <v>650</v>
       </c>
-      <c r="C80" s="233" t="s">
+      <c r="C80" s="186" t="s">
         <v>551</v>
       </c>
-      <c r="D80" s="129"/>
+      <c r="D80" s="102"/>
       <c r="J80" s="83" t="s">
         <v>439</v>
       </c>
@@ -10782,14 +10903,14 @@
       <c r="AD80" s="82"/>
     </row>
     <row r="81" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="124"/>
-      <c r="B81" s="130" t="s">
+      <c r="A81" s="221"/>
+      <c r="B81" s="103" t="s">
         <v>651</v>
       </c>
-      <c r="C81" s="234" t="s">
+      <c r="C81" s="187" t="s">
         <v>551</v>
       </c>
-      <c r="D81" s="130"/>
+      <c r="D81" s="103"/>
       <c r="J81" s="83" t="s">
         <v>440</v>
       </c>
@@ -10824,14 +10945,14 @@
       <c r="AD81" s="82"/>
     </row>
     <row r="82" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="125"/>
-      <c r="B82" s="131" t="s">
+      <c r="A82" s="222"/>
+      <c r="B82" s="104" t="s">
         <v>652</v>
       </c>
-      <c r="C82" s="235" t="s">
+      <c r="C82" s="188" t="s">
         <v>551</v>
       </c>
-      <c r="D82" s="131"/>
+      <c r="D82" s="104"/>
       <c r="J82" s="83" t="s">
         <v>441</v>
       </c>
@@ -10866,16 +10987,16 @@
       <c r="AD82" s="82"/>
     </row>
     <row r="83" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="146" t="s">
+      <c r="A83" s="231" t="s">
         <v>999</v>
       </c>
-      <c r="B83" s="147" t="s">
+      <c r="B83" s="116" t="s">
         <v>653</v>
       </c>
-      <c r="C83" s="230" t="s">
+      <c r="C83" s="183" t="s">
         <v>477</v>
       </c>
-      <c r="D83" s="132"/>
+      <c r="D83" s="105"/>
       <c r="J83" s="83" t="s">
         <v>352</v>
       </c>
@@ -10910,14 +11031,14 @@
       <c r="AD83" s="82"/>
     </row>
     <row r="84" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="124"/>
-      <c r="B84" s="134" t="s">
+      <c r="A84" s="221"/>
+      <c r="B84" s="107" t="s">
         <v>654</v>
       </c>
-      <c r="C84" s="226" t="s">
+      <c r="C84" s="179" t="s">
         <v>478</v>
       </c>
-      <c r="D84" s="133"/>
+      <c r="D84" s="106"/>
       <c r="J84" s="83" t="s">
         <v>354</v>
       </c>
@@ -10952,14 +11073,14 @@
       <c r="AD84" s="82"/>
     </row>
     <row r="85" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="124"/>
-      <c r="B85" s="134" t="s">
+      <c r="A85" s="221"/>
+      <c r="B85" s="107" t="s">
         <v>655</v>
       </c>
-      <c r="C85" s="226" t="s">
+      <c r="C85" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="D85" s="133"/>
+      <c r="D85" s="106"/>
       <c r="J85" s="83" t="s">
         <v>356</v>
       </c>
@@ -10994,14 +11115,14 @@
       <c r="AD85" s="82"/>
     </row>
     <row r="86" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="124"/>
-      <c r="B86" s="134" t="s">
+      <c r="A86" s="221"/>
+      <c r="B86" s="107" t="s">
         <v>656</v>
       </c>
-      <c r="C86" s="226" t="s">
+      <c r="C86" s="179" t="s">
         <v>480</v>
       </c>
-      <c r="D86" s="133"/>
+      <c r="D86" s="106"/>
       <c r="J86" s="83" t="s">
         <v>359</v>
       </c>
@@ -11036,14 +11157,14 @@
       <c r="AD86" s="82"/>
     </row>
     <row r="87" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="124"/>
-      <c r="B87" s="134" t="s">
+      <c r="A87" s="221"/>
+      <c r="B87" s="107" t="s">
         <v>657</v>
       </c>
-      <c r="C87" s="226" t="s">
+      <c r="C87" s="179" t="s">
         <v>481</v>
       </c>
-      <c r="D87" s="133"/>
+      <c r="D87" s="106"/>
       <c r="J87" s="83" t="s">
         <v>358</v>
       </c>
@@ -11078,14 +11199,14 @@
       <c r="AD87" s="82"/>
     </row>
     <row r="88" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="124"/>
-      <c r="B88" s="134" t="s">
+      <c r="A88" s="221"/>
+      <c r="B88" s="107" t="s">
         <v>658</v>
       </c>
-      <c r="C88" s="226" t="s">
+      <c r="C88" s="179" t="s">
         <v>482</v>
       </c>
-      <c r="D88" s="133"/>
+      <c r="D88" s="106"/>
       <c r="J88" s="83" t="s">
         <v>360</v>
       </c>
@@ -11120,14 +11241,14 @@
       <c r="AD88" s="82"/>
     </row>
     <row r="89" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="124"/>
-      <c r="B89" s="134" t="s">
+      <c r="A89" s="221"/>
+      <c r="B89" s="107" t="s">
         <v>659</v>
       </c>
-      <c r="C89" s="226" t="s">
+      <c r="C89" s="179" t="s">
         <v>483</v>
       </c>
-      <c r="D89" s="133"/>
+      <c r="D89" s="106"/>
       <c r="J89" s="83" t="s">
         <v>361</v>
       </c>
@@ -11162,14 +11283,14 @@
       <c r="AD89" s="82"/>
     </row>
     <row r="90" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="124"/>
-      <c r="B90" s="134" t="s">
+      <c r="A90" s="221"/>
+      <c r="B90" s="107" t="s">
         <v>660</v>
       </c>
-      <c r="C90" s="226" t="s">
+      <c r="C90" s="179" t="s">
         <v>484</v>
       </c>
-      <c r="D90" s="133"/>
+      <c r="D90" s="106"/>
       <c r="J90" s="83" t="s">
         <v>362</v>
       </c>
@@ -11204,14 +11325,14 @@
       <c r="AD90" s="82"/>
     </row>
     <row r="91" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="124"/>
-      <c r="B91" s="134" t="s">
+      <c r="A91" s="221"/>
+      <c r="B91" s="107" t="s">
         <v>661</v>
       </c>
-      <c r="C91" s="226" t="s">
+      <c r="C91" s="179" t="s">
         <v>485</v>
       </c>
-      <c r="D91" s="133"/>
+      <c r="D91" s="106"/>
       <c r="J91" s="83" t="s">
         <v>363</v>
       </c>
@@ -11246,14 +11367,14 @@
       <c r="AD91" s="82"/>
     </row>
     <row r="92" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="124"/>
-      <c r="B92" s="134" t="s">
+      <c r="A92" s="221"/>
+      <c r="B92" s="107" t="s">
         <v>662</v>
       </c>
-      <c r="C92" s="226" t="s">
+      <c r="C92" s="179" t="s">
         <v>483</v>
       </c>
-      <c r="D92" s="133"/>
+      <c r="D92" s="106"/>
       <c r="J92" s="83" t="s">
         <v>365</v>
       </c>
@@ -11288,14 +11409,14 @@
       <c r="AD92" s="82"/>
     </row>
     <row r="93" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="124"/>
-      <c r="B93" s="134" t="s">
+      <c r="A93" s="221"/>
+      <c r="B93" s="107" t="s">
         <v>663</v>
       </c>
-      <c r="C93" s="226" t="s">
+      <c r="C93" s="179" t="s">
         <v>484</v>
       </c>
-      <c r="D93" s="133"/>
+      <c r="D93" s="106"/>
       <c r="J93" s="83" t="s">
         <v>366</v>
       </c>
@@ -11330,14 +11451,14 @@
       <c r="AD93" s="82"/>
     </row>
     <row r="94" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="148"/>
-      <c r="B94" s="149" t="s">
+      <c r="A94" s="232"/>
+      <c r="B94" s="117" t="s">
         <v>664</v>
       </c>
-      <c r="C94" s="227" t="s">
+      <c r="C94" s="180" t="s">
         <v>485</v>
       </c>
-      <c r="D94" s="143"/>
+      <c r="D94" s="115"/>
       <c r="J94" s="83" t="s">
         <v>368</v>
       </c>
@@ -11372,14 +11493,14 @@
       <c r="AD94" s="82"/>
     </row>
     <row r="95" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="150" t="s">
+      <c r="A95" s="229" t="s">
         <v>1000</v>
       </c>
-      <c r="B95" s="151" t="s">
+      <c r="B95" s="118" t="s">
         <v>665</v>
       </c>
-      <c r="C95" s="228"/>
-      <c r="D95" s="129"/>
+      <c r="C95" s="181"/>
+      <c r="D95" s="102"/>
       <c r="J95" s="83" t="s">
         <v>364</v>
       </c>
@@ -11414,12 +11535,12 @@
       <c r="AD95" s="82"/>
     </row>
     <row r="96" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="127"/>
-      <c r="B96" s="135" t="s">
+      <c r="A96" s="227"/>
+      <c r="B96" s="108" t="s">
         <v>666</v>
       </c>
-      <c r="C96" s="229"/>
-      <c r="D96" s="130"/>
+      <c r="C96" s="182"/>
+      <c r="D96" s="103"/>
       <c r="J96" s="83" t="s">
         <v>367</v>
       </c>
@@ -11454,12 +11575,12 @@
       <c r="AD96" s="82"/>
     </row>
     <row r="97" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="127"/>
-      <c r="B97" s="135" t="s">
+      <c r="A97" s="227"/>
+      <c r="B97" s="108" t="s">
         <v>667</v>
       </c>
-      <c r="C97" s="229"/>
-      <c r="D97" s="130"/>
+      <c r="C97" s="182"/>
+      <c r="D97" s="103"/>
       <c r="J97" s="83" t="s">
         <v>369</v>
       </c>
@@ -11494,14 +11615,14 @@
       <c r="AD97" s="82"/>
     </row>
     <row r="98" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="127"/>
-      <c r="B98" s="135" t="s">
+      <c r="A98" s="227"/>
+      <c r="B98" s="108" t="s">
         <v>668</v>
       </c>
-      <c r="C98" s="222" t="s">
+      <c r="C98" s="175" t="s">
         <v>486</v>
       </c>
-      <c r="D98" s="130"/>
+      <c r="D98" s="103"/>
       <c r="J98" s="83" t="s">
         <v>353</v>
       </c>
@@ -11536,14 +11657,14 @@
       <c r="AD98" s="82"/>
     </row>
     <row r="99" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="127"/>
-      <c r="B99" s="135" t="s">
+      <c r="A99" s="227"/>
+      <c r="B99" s="108" t="s">
         <v>669</v>
       </c>
-      <c r="C99" s="222" t="s">
+      <c r="C99" s="175" t="s">
         <v>487</v>
       </c>
-      <c r="D99" s="130"/>
+      <c r="D99" s="103"/>
       <c r="J99" s="83" t="s">
         <v>355</v>
       </c>
@@ -11578,14 +11699,14 @@
       <c r="AD99" s="82"/>
     </row>
     <row r="100" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="127"/>
-      <c r="B100" s="135" t="s">
+      <c r="A100" s="227"/>
+      <c r="B100" s="108" t="s">
         <v>670</v>
       </c>
-      <c r="C100" s="222" t="s">
+      <c r="C100" s="175" t="s">
         <v>488</v>
       </c>
-      <c r="D100" s="130"/>
+      <c r="D100" s="103"/>
       <c r="J100" s="83" t="s">
         <v>357</v>
       </c>
@@ -11620,12 +11741,12 @@
       <c r="AD100" s="82"/>
     </row>
     <row r="101" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="127"/>
-      <c r="B101" s="135" t="s">
+      <c r="A101" s="227"/>
+      <c r="B101" s="108" t="s">
         <v>671</v>
       </c>
-      <c r="C101" s="229"/>
-      <c r="D101" s="130"/>
+      <c r="C101" s="182"/>
+      <c r="D101" s="103"/>
       <c r="M101" s="82"/>
       <c r="N101" s="10"/>
       <c r="O101" s="82"/>
@@ -11646,12 +11767,12 @@
       <c r="AD101" s="82"/>
     </row>
     <row r="102" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="127"/>
-      <c r="B102" s="135" t="s">
+      <c r="A102" s="227"/>
+      <c r="B102" s="108" t="s">
         <v>672</v>
       </c>
-      <c r="C102" s="229"/>
-      <c r="D102" s="130"/>
+      <c r="C102" s="182"/>
+      <c r="D102" s="103"/>
       <c r="M102" s="82"/>
       <c r="N102" s="82"/>
       <c r="O102" s="82"/>
@@ -11672,12 +11793,12 @@
       <c r="AD102" s="82"/>
     </row>
     <row r="103" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="127"/>
-      <c r="B103" s="135" t="s">
+      <c r="A103" s="227"/>
+      <c r="B103" s="108" t="s">
         <v>673</v>
       </c>
-      <c r="C103" s="229"/>
-      <c r="D103" s="130"/>
+      <c r="C103" s="182"/>
+      <c r="D103" s="103"/>
       <c r="M103" s="82"/>
       <c r="N103" s="82"/>
       <c r="O103" s="82"/>
@@ -11698,14 +11819,14 @@
       <c r="AD103" s="82"/>
     </row>
     <row r="104" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="127"/>
-      <c r="B104" s="135" t="s">
+      <c r="A104" s="227"/>
+      <c r="B104" s="108" t="s">
         <v>674</v>
       </c>
-      <c r="C104" s="222" t="s">
+      <c r="C104" s="175" t="s">
         <v>489</v>
       </c>
-      <c r="D104" s="130"/>
+      <c r="D104" s="103"/>
       <c r="M104" s="82"/>
       <c r="N104" s="82"/>
       <c r="O104" s="82"/>
@@ -11726,14 +11847,14 @@
       <c r="AD104" s="82"/>
     </row>
     <row r="105" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="127"/>
-      <c r="B105" s="135" t="s">
+      <c r="A105" s="227"/>
+      <c r="B105" s="108" t="s">
         <v>675</v>
       </c>
-      <c r="C105" s="222" t="s">
+      <c r="C105" s="175" t="s">
         <v>490</v>
       </c>
-      <c r="D105" s="130"/>
+      <c r="D105" s="103"/>
       <c r="M105" s="82"/>
       <c r="N105" s="82"/>
       <c r="O105" s="82"/>
@@ -11754,14 +11875,14 @@
       <c r="AD105" s="82"/>
     </row>
     <row r="106" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="152"/>
-      <c r="B106" s="153" t="s">
+      <c r="A106" s="230"/>
+      <c r="B106" s="119" t="s">
         <v>676</v>
       </c>
-      <c r="C106" s="223" t="s">
+      <c r="C106" s="176" t="s">
         <v>491</v>
       </c>
-      <c r="D106" s="131"/>
+      <c r="D106" s="104"/>
       <c r="M106" s="82"/>
       <c r="N106" s="82"/>
       <c r="O106" s="82"/>
@@ -11782,14 +11903,14 @@
       <c r="AD106" s="82"/>
     </row>
     <row r="107" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="146" t="s">
+      <c r="A107" s="231" t="s">
         <v>1001</v>
       </c>
-      <c r="B107" s="147" t="s">
+      <c r="B107" s="116" t="s">
         <v>677</v>
       </c>
-      <c r="C107" s="224"/>
-      <c r="D107" s="132"/>
+      <c r="C107" s="177"/>
+      <c r="D107" s="105"/>
       <c r="M107" s="82"/>
       <c r="N107" s="82"/>
       <c r="O107" s="82"/>
@@ -11810,12 +11931,12 @@
       <c r="AD107" s="82"/>
     </row>
     <row r="108" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="124"/>
-      <c r="B108" s="134" t="s">
+      <c r="A108" s="221"/>
+      <c r="B108" s="107" t="s">
         <v>678</v>
       </c>
-      <c r="C108" s="225"/>
-      <c r="D108" s="133"/>
+      <c r="C108" s="178"/>
+      <c r="D108" s="106"/>
       <c r="M108" s="82"/>
       <c r="N108" s="82"/>
       <c r="O108" s="82"/>
@@ -11836,12 +11957,12 @@
       <c r="AD108" s="82"/>
     </row>
     <row r="109" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="124"/>
-      <c r="B109" s="134" t="s">
+      <c r="A109" s="221"/>
+      <c r="B109" s="107" t="s">
         <v>679</v>
       </c>
-      <c r="C109" s="225"/>
-      <c r="D109" s="133"/>
+      <c r="C109" s="178"/>
+      <c r="D109" s="106"/>
       <c r="M109" s="82"/>
       <c r="N109" s="82"/>
       <c r="O109" s="82"/>
@@ -11862,14 +11983,14 @@
       <c r="AD109" s="82"/>
     </row>
     <row r="110" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="124"/>
-      <c r="B110" s="134" t="s">
+      <c r="A110" s="221"/>
+      <c r="B110" s="107" t="s">
         <v>680</v>
       </c>
-      <c r="C110" s="226" t="s">
+      <c r="C110" s="179" t="s">
         <v>492</v>
       </c>
-      <c r="D110" s="133"/>
+      <c r="D110" s="106"/>
       <c r="M110" s="82"/>
       <c r="N110" s="82"/>
       <c r="O110" s="82"/>
@@ -11890,14 +12011,14 @@
       <c r="AD110" s="82"/>
     </row>
     <row r="111" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="124"/>
-      <c r="B111" s="134" t="s">
+      <c r="A111" s="221"/>
+      <c r="B111" s="107" t="s">
         <v>681</v>
       </c>
-      <c r="C111" s="226" t="s">
+      <c r="C111" s="179" t="s">
         <v>493</v>
       </c>
-      <c r="D111" s="133"/>
+      <c r="D111" s="106"/>
       <c r="M111" s="82"/>
       <c r="N111" s="82"/>
       <c r="O111" s="82"/>
@@ -11918,14 +12039,14 @@
       <c r="AD111" s="82"/>
     </row>
     <row r="112" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="124"/>
-      <c r="B112" s="134" t="s">
+      <c r="A112" s="221"/>
+      <c r="B112" s="107" t="s">
         <v>682</v>
       </c>
-      <c r="C112" s="226" t="s">
+      <c r="C112" s="179" t="s">
         <v>494</v>
       </c>
-      <c r="D112" s="133"/>
+      <c r="D112" s="106"/>
       <c r="M112" s="82"/>
       <c r="N112" s="82"/>
       <c r="O112" s="82"/>
@@ -11946,12 +12067,12 @@
       <c r="AD112" s="82"/>
     </row>
     <row r="113" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="124"/>
-      <c r="B113" s="134" t="s">
+      <c r="A113" s="221"/>
+      <c r="B113" s="107" t="s">
         <v>683</v>
       </c>
-      <c r="C113" s="225"/>
-      <c r="D113" s="133"/>
+      <c r="C113" s="178"/>
+      <c r="D113" s="106"/>
       <c r="M113" s="82"/>
       <c r="N113" s="82"/>
       <c r="O113" s="82"/>
@@ -11972,12 +12093,12 @@
       <c r="AD113" s="82"/>
     </row>
     <row r="114" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="124"/>
-      <c r="B114" s="134" t="s">
+      <c r="A114" s="221"/>
+      <c r="B114" s="107" t="s">
         <v>684</v>
       </c>
-      <c r="C114" s="225"/>
-      <c r="D114" s="133"/>
+      <c r="C114" s="178"/>
+      <c r="D114" s="106"/>
       <c r="M114" s="82"/>
       <c r="N114" s="82"/>
       <c r="O114" s="82"/>
@@ -11998,12 +12119,12 @@
       <c r="AD114" s="82"/>
     </row>
     <row r="115" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="124"/>
-      <c r="B115" s="134" t="s">
+      <c r="A115" s="221"/>
+      <c r="B115" s="107" t="s">
         <v>685</v>
       </c>
-      <c r="C115" s="225"/>
-      <c r="D115" s="133"/>
+      <c r="C115" s="178"/>
+      <c r="D115" s="106"/>
       <c r="M115" s="82"/>
       <c r="N115" s="82"/>
       <c r="O115" s="82"/>
@@ -12024,14 +12145,14 @@
       <c r="AD115" s="82"/>
     </row>
     <row r="116" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="124"/>
-      <c r="B116" s="134" t="s">
+      <c r="A116" s="221"/>
+      <c r="B116" s="107" t="s">
         <v>686</v>
       </c>
-      <c r="C116" s="226" t="s">
+      <c r="C116" s="179" t="s">
         <v>495</v>
       </c>
-      <c r="D116" s="133"/>
+      <c r="D116" s="106"/>
       <c r="M116" s="82"/>
       <c r="N116" s="82"/>
       <c r="O116" s="82"/>
@@ -12052,1176 +12173,1224 @@
       <c r="AD116" s="82"/>
     </row>
     <row r="117" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="124"/>
-      <c r="B117" s="134" t="s">
+      <c r="A117" s="221"/>
+      <c r="B117" s="107" t="s">
         <v>687</v>
       </c>
-      <c r="C117" s="226" t="s">
+      <c r="C117" s="179" t="s">
         <v>496</v>
       </c>
-      <c r="D117" s="133"/>
+      <c r="D117" s="106"/>
     </row>
     <row r="118" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="148"/>
-      <c r="B118" s="149" t="s">
+      <c r="A118" s="232"/>
+      <c r="B118" s="117" t="s">
         <v>688</v>
       </c>
-      <c r="C118" s="227" t="s">
+      <c r="C118" s="180" t="s">
         <v>497</v>
       </c>
-      <c r="D118" s="143"/>
+      <c r="D118" s="115"/>
     </row>
     <row r="119" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="154" t="s">
+      <c r="A119" s="233" t="s">
         <v>1002</v>
       </c>
-      <c r="B119" s="151" t="s">
+      <c r="B119" s="118" t="s">
         <v>689</v>
       </c>
-      <c r="C119" s="221" t="s">
+      <c r="C119" s="174" t="s">
         <v>498</v>
       </c>
-      <c r="D119" s="129"/>
+      <c r="D119" s="102"/>
     </row>
     <row r="120" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="128"/>
-      <c r="B120" s="135" t="s">
+      <c r="A120" s="224"/>
+      <c r="B120" s="108" t="s">
         <v>690</v>
       </c>
-      <c r="C120" s="222" t="s">
+      <c r="C120" s="175" t="s">
         <v>499</v>
       </c>
-      <c r="D120" s="130"/>
+      <c r="D120" s="103"/>
     </row>
     <row r="121" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="128"/>
-      <c r="B121" s="135" t="s">
+      <c r="A121" s="224"/>
+      <c r="B121" s="108" t="s">
         <v>691</v>
       </c>
-      <c r="C121" s="222" t="s">
+      <c r="C121" s="175" t="s">
         <v>500</v>
       </c>
-      <c r="D121" s="130"/>
+      <c r="D121" s="103"/>
     </row>
     <row r="122" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="128"/>
-      <c r="B122" s="135" t="s">
+      <c r="A122" s="224"/>
+      <c r="B122" s="108" t="s">
         <v>692</v>
       </c>
-      <c r="C122" s="222" t="s">
+      <c r="C122" s="175" t="s">
         <v>501</v>
       </c>
-      <c r="D122" s="130"/>
+      <c r="D122" s="103"/>
     </row>
     <row r="123" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="128"/>
-      <c r="B123" s="135" t="s">
+      <c r="A123" s="224"/>
+      <c r="B123" s="108" t="s">
         <v>693</v>
       </c>
-      <c r="C123" s="222" t="s">
+      <c r="C123" s="175" t="s">
         <v>502</v>
       </c>
-      <c r="D123" s="130"/>
+      <c r="D123" s="103"/>
     </row>
     <row r="124" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="128"/>
-      <c r="B124" s="135" t="s">
+      <c r="A124" s="224"/>
+      <c r="B124" s="108" t="s">
         <v>694</v>
       </c>
-      <c r="C124" s="222" t="s">
+      <c r="C124" s="175" t="s">
         <v>503</v>
       </c>
-      <c r="D124" s="130"/>
+      <c r="D124" s="103"/>
     </row>
     <row r="125" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="128"/>
-      <c r="B125" s="135" t="s">
+      <c r="A125" s="224"/>
+      <c r="B125" s="108" t="s">
         <v>695</v>
       </c>
-      <c r="C125" s="222" t="s">
+      <c r="C125" s="175" t="s">
         <v>504</v>
       </c>
-      <c r="D125" s="130"/>
+      <c r="D125" s="103"/>
     </row>
     <row r="126" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="128"/>
-      <c r="B126" s="135" t="s">
+      <c r="A126" s="224"/>
+      <c r="B126" s="108" t="s">
         <v>696</v>
       </c>
-      <c r="C126" s="222" t="s">
+      <c r="C126" s="175" t="s">
         <v>505</v>
       </c>
-      <c r="D126" s="130"/>
+      <c r="D126" s="103"/>
       <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="128"/>
-      <c r="B127" s="135" t="s">
+      <c r="A127" s="224"/>
+      <c r="B127" s="108" t="s">
         <v>697</v>
       </c>
-      <c r="C127" s="222" t="s">
+      <c r="C127" s="175" t="s">
         <v>506</v>
       </c>
-      <c r="D127" s="130"/>
+      <c r="D127" s="103"/>
     </row>
     <row r="128" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="128"/>
-      <c r="B128" s="135" t="s">
+      <c r="A128" s="224"/>
+      <c r="B128" s="108" t="s">
         <v>698</v>
       </c>
-      <c r="C128" s="222" t="s">
+      <c r="C128" s="175" t="s">
         <v>507</v>
       </c>
-      <c r="D128" s="130"/>
+      <c r="D128" s="103"/>
     </row>
     <row r="129" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="128"/>
-      <c r="B129" s="135" t="s">
+      <c r="A129" s="224"/>
+      <c r="B129" s="108" t="s">
         <v>699</v>
       </c>
-      <c r="C129" s="222" t="s">
+      <c r="C129" s="175" t="s">
         <v>508</v>
       </c>
-      <c r="D129" s="130"/>
+      <c r="D129" s="103"/>
     </row>
     <row r="130" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="155"/>
-      <c r="B130" s="153" t="s">
+      <c r="A130" s="234"/>
+      <c r="B130" s="119" t="s">
         <v>700</v>
       </c>
-      <c r="C130" s="223" t="s">
+      <c r="C130" s="176" t="s">
         <v>509</v>
       </c>
-      <c r="D130" s="131"/>
+      <c r="D130" s="104"/>
     </row>
     <row r="131" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="146" t="s">
+      <c r="A131" s="231" t="s">
         <v>1003</v>
       </c>
-      <c r="B131" s="147" t="s">
+      <c r="B131" s="116" t="s">
         <v>701</v>
       </c>
-      <c r="C131" s="224"/>
-      <c r="D131" s="132"/>
+      <c r="C131" s="177"/>
+      <c r="D131" s="105"/>
     </row>
     <row r="132" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="124"/>
-      <c r="B132" s="134" t="s">
+      <c r="A132" s="221"/>
+      <c r="B132" s="107" t="s">
         <v>702</v>
       </c>
-      <c r="C132" s="225"/>
-      <c r="D132" s="133"/>
+      <c r="C132" s="178"/>
+      <c r="D132" s="106"/>
     </row>
     <row r="133" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="124"/>
-      <c r="B133" s="134" t="s">
+      <c r="A133" s="221"/>
+      <c r="B133" s="107" t="s">
         <v>703</v>
       </c>
-      <c r="C133" s="225"/>
-      <c r="D133" s="133"/>
+      <c r="C133" s="178"/>
+      <c r="D133" s="106"/>
     </row>
     <row r="134" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="124"/>
-      <c r="B134" s="134" t="s">
+      <c r="A134" s="221"/>
+      <c r="B134" s="107" t="s">
         <v>704</v>
       </c>
-      <c r="C134" s="225"/>
-      <c r="D134" s="133"/>
+      <c r="C134" s="178" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D134" s="106"/>
     </row>
     <row r="135" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="124"/>
-      <c r="B135" s="134" t="s">
+      <c r="A135" s="221"/>
+      <c r="B135" s="107" t="s">
         <v>705</v>
       </c>
-      <c r="C135" s="225"/>
-      <c r="D135" s="133"/>
+      <c r="C135" s="178" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D135" s="106"/>
     </row>
     <row r="136" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="124"/>
-      <c r="B136" s="134" t="s">
+      <c r="A136" s="221"/>
+      <c r="B136" s="107" t="s">
         <v>706</v>
       </c>
-      <c r="C136" s="225"/>
-      <c r="D136" s="133"/>
+      <c r="C136" s="178" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D136" s="106"/>
     </row>
     <row r="137" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="124"/>
-      <c r="B137" s="134" t="s">
+      <c r="A137" s="221"/>
+      <c r="B137" s="107" t="s">
         <v>707</v>
       </c>
-      <c r="C137" s="225"/>
-      <c r="D137" s="133"/>
+      <c r="C137" s="178"/>
+      <c r="D137" s="106"/>
     </row>
     <row r="138" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="124"/>
-      <c r="B138" s="134" t="s">
+      <c r="A138" s="221"/>
+      <c r="B138" s="107" t="s">
         <v>708</v>
       </c>
-      <c r="C138" s="225"/>
-      <c r="D138" s="133"/>
+      <c r="C138" s="178"/>
+      <c r="D138" s="106"/>
     </row>
     <row r="139" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="124"/>
-      <c r="B139" s="134" t="s">
+      <c r="A139" s="221"/>
+      <c r="B139" s="107" t="s">
         <v>709</v>
       </c>
-      <c r="C139" s="225"/>
-      <c r="D139" s="133"/>
+      <c r="C139" s="178"/>
+      <c r="D139" s="106"/>
     </row>
     <row r="140" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="124"/>
-      <c r="B140" s="134" t="s">
+      <c r="A140" s="221"/>
+      <c r="B140" s="107" t="s">
         <v>710</v>
       </c>
-      <c r="C140" s="225"/>
-      <c r="D140" s="133"/>
+      <c r="C140" s="178" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D140" s="106"/>
     </row>
     <row r="141" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="124"/>
-      <c r="B141" s="134" t="s">
+      <c r="A141" s="221"/>
+      <c r="B141" s="107" t="s">
         <v>711</v>
       </c>
-      <c r="C141" s="225"/>
-      <c r="D141" s="133"/>
+      <c r="C141" s="178" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D141" s="106"/>
     </row>
     <row r="142" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="148"/>
-      <c r="B142" s="149" t="s">
+      <c r="A142" s="232"/>
+      <c r="B142" s="117" t="s">
         <v>712</v>
       </c>
-      <c r="C142" s="232"/>
-      <c r="D142" s="143"/>
+      <c r="C142" s="185" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D142" s="115"/>
     </row>
     <row r="143" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="150" t="s">
+      <c r="A143" s="229" t="s">
         <v>1004</v>
       </c>
-      <c r="B143" s="129" t="s">
+      <c r="B143" s="102" t="s">
         <v>713</v>
       </c>
-      <c r="C143" s="228"/>
-      <c r="D143" s="129"/>
+      <c r="C143" s="181"/>
+      <c r="D143" s="102"/>
     </row>
     <row r="144" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="127"/>
-      <c r="B144" s="130" t="s">
+      <c r="A144" s="227"/>
+      <c r="B144" s="103" t="s">
         <v>714</v>
       </c>
-      <c r="C144" s="229"/>
-      <c r="D144" s="130"/>
+      <c r="C144" s="182"/>
+      <c r="D144" s="103"/>
     </row>
     <row r="145" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="127"/>
-      <c r="B145" s="130" t="s">
+      <c r="A145" s="227"/>
+      <c r="B145" s="103" t="s">
         <v>715</v>
       </c>
-      <c r="C145" s="229"/>
-      <c r="D145" s="130"/>
+      <c r="C145" s="182"/>
+      <c r="D145" s="103"/>
     </row>
     <row r="146" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="127"/>
-      <c r="B146" s="130" t="s">
+      <c r="A146" s="227"/>
+      <c r="B146" s="103" t="s">
         <v>716</v>
       </c>
-      <c r="C146" s="229"/>
-      <c r="D146" s="130"/>
+      <c r="C146" s="182" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D146" s="103"/>
     </row>
     <row r="147" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="127"/>
-      <c r="B147" s="130" t="s">
+      <c r="A147" s="227"/>
+      <c r="B147" s="103" t="s">
         <v>717</v>
       </c>
-      <c r="C147" s="229"/>
-      <c r="D147" s="130"/>
+      <c r="C147" s="182" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D147" s="103"/>
     </row>
     <row r="148" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="127"/>
-      <c r="B148" s="130" t="s">
+      <c r="A148" s="227"/>
+      <c r="B148" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="C148" s="229"/>
-      <c r="D148" s="130"/>
+      <c r="C148" s="182" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D148" s="103"/>
     </row>
     <row r="149" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="127"/>
-      <c r="B149" s="130" t="s">
+      <c r="A149" s="227"/>
+      <c r="B149" s="103" t="s">
         <v>719</v>
       </c>
-      <c r="C149" s="229"/>
-      <c r="D149" s="130"/>
+      <c r="C149" s="182"/>
+      <c r="D149" s="103"/>
     </row>
     <row r="150" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="127"/>
-      <c r="B150" s="130" t="s">
+      <c r="A150" s="227"/>
+      <c r="B150" s="103" t="s">
         <v>720</v>
       </c>
-      <c r="C150" s="229"/>
-      <c r="D150" s="130"/>
+      <c r="C150" s="182"/>
+      <c r="D150" s="103"/>
     </row>
     <row r="151" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="127"/>
-      <c r="B151" s="130" t="s">
+      <c r="A151" s="227"/>
+      <c r="B151" s="103" t="s">
         <v>721</v>
       </c>
-      <c r="C151" s="229"/>
-      <c r="D151" s="130"/>
+      <c r="C151" s="182"/>
+      <c r="D151" s="103"/>
     </row>
     <row r="152" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="127"/>
-      <c r="B152" s="130" t="s">
+      <c r="A152" s="227"/>
+      <c r="B152" s="103" t="s">
         <v>722</v>
       </c>
-      <c r="C152" s="229"/>
-      <c r="D152" s="130"/>
+      <c r="C152" s="182" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D152" s="103"/>
     </row>
     <row r="153" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="127"/>
-      <c r="B153" s="130" t="s">
+      <c r="A153" s="227"/>
+      <c r="B153" s="103" t="s">
         <v>723</v>
       </c>
-      <c r="C153" s="229"/>
-      <c r="D153" s="130"/>
+      <c r="C153" s="182" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D153" s="103"/>
     </row>
     <row r="154" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="152"/>
-      <c r="B154" s="131" t="s">
+      <c r="A154" s="230"/>
+      <c r="B154" s="104" t="s">
         <v>724</v>
       </c>
-      <c r="C154" s="231"/>
-      <c r="D154" s="131"/>
+      <c r="C154" s="184" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D154" s="104"/>
     </row>
     <row r="155" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="146" t="s">
+      <c r="A155" s="231" t="s">
         <v>1005</v>
       </c>
-      <c r="B155" s="132" t="s">
+      <c r="B155" s="105" t="s">
         <v>725</v>
       </c>
-      <c r="C155" s="236" t="s">
+      <c r="C155" s="189" t="s">
         <v>552</v>
       </c>
-      <c r="D155" s="132"/>
+      <c r="D155" s="105"/>
     </row>
     <row r="156" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="124"/>
-      <c r="B156" s="134" t="s">
+      <c r="A156" s="221"/>
+      <c r="B156" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="C156" s="238" t="s">
+      <c r="C156" s="191" t="s">
         <v>553</v>
       </c>
-      <c r="D156" s="133"/>
+      <c r="D156" s="106"/>
     </row>
     <row r="157" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="148"/>
-      <c r="B157" s="143" t="s">
+      <c r="A157" s="232"/>
+      <c r="B157" s="115" t="s">
         <v>727</v>
       </c>
-      <c r="C157" s="237" t="s">
+      <c r="C157" s="190" t="s">
         <v>554</v>
       </c>
-      <c r="D157" s="143"/>
+      <c r="D157" s="115"/>
     </row>
     <row r="158" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="150" t="s">
+      <c r="A158" s="229" t="s">
         <v>1006</v>
       </c>
-      <c r="B158" s="129" t="s">
+      <c r="B158" s="102" t="s">
         <v>728</v>
       </c>
-      <c r="C158" s="233" t="s">
+      <c r="C158" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="D158" s="129"/>
+      <c r="D158" s="102"/>
     </row>
     <row r="159" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="152"/>
-      <c r="B159" s="131" t="s">
+      <c r="A159" s="230"/>
+      <c r="B159" s="104" t="s">
         <v>729</v>
       </c>
-      <c r="C159" s="231" t="s">
+      <c r="C159" s="184" t="s">
         <v>555</v>
       </c>
-      <c r="D159" s="131"/>
+      <c r="D159" s="104"/>
     </row>
     <row r="160" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="146" t="s">
+      <c r="A160" s="231" t="s">
         <v>1007</v>
       </c>
-      <c r="B160" s="132" t="s">
+      <c r="B160" s="105" t="s">
         <v>730</v>
       </c>
-      <c r="C160" s="236" t="s">
+      <c r="C160" s="189" t="s">
         <v>551</v>
       </c>
-      <c r="D160" s="132"/>
+      <c r="D160" s="105"/>
     </row>
     <row r="161" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="124"/>
-      <c r="B161" s="133" t="s">
+      <c r="A161" s="221"/>
+      <c r="B161" s="106" t="s">
         <v>731</v>
       </c>
-      <c r="C161" s="238" t="s">
+      <c r="C161" s="191" t="s">
         <v>551</v>
       </c>
-      <c r="D161" s="133"/>
+      <c r="D161" s="106"/>
     </row>
     <row r="162" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="148"/>
-      <c r="B162" s="143" t="s">
+      <c r="A162" s="232"/>
+      <c r="B162" s="115" t="s">
         <v>732</v>
       </c>
-      <c r="C162" s="237" t="s">
+      <c r="C162" s="190" t="s">
         <v>551</v>
       </c>
-      <c r="D162" s="143"/>
+      <c r="D162" s="115"/>
     </row>
     <row r="163" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="123" t="s">
+      <c r="A163" s="220" t="s">
         <v>1008</v>
       </c>
-      <c r="B163" s="129" t="s">
+      <c r="B163" s="102" t="s">
         <v>733</v>
       </c>
-      <c r="C163" s="239" t="s">
+      <c r="C163" s="192" t="s">
         <v>442</v>
       </c>
-      <c r="D163" s="129"/>
+      <c r="D163" s="102"/>
     </row>
     <row r="164" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="124"/>
-      <c r="B164" s="130" t="s">
+      <c r="A164" s="221"/>
+      <c r="B164" s="103" t="s">
         <v>734</v>
       </c>
-      <c r="C164" s="240" t="s">
+      <c r="C164" s="193" t="s">
         <v>443</v>
       </c>
-      <c r="D164" s="130"/>
+      <c r="D164" s="103"/>
     </row>
     <row r="165" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="124"/>
-      <c r="B165" s="130" t="s">
+      <c r="A165" s="221"/>
+      <c r="B165" s="103" t="s">
         <v>735</v>
       </c>
-      <c r="C165" s="240" t="s">
+      <c r="C165" s="193" t="s">
         <v>444</v>
       </c>
-      <c r="D165" s="130"/>
+      <c r="D165" s="103"/>
     </row>
     <row r="166" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="124"/>
-      <c r="B166" s="130" t="s">
+      <c r="A166" s="221"/>
+      <c r="B166" s="103" t="s">
         <v>736</v>
       </c>
-      <c r="C166" s="240" t="s">
+      <c r="C166" s="193" t="s">
         <v>445</v>
       </c>
-      <c r="D166" s="130"/>
+      <c r="D166" s="103"/>
     </row>
     <row r="167" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="124"/>
-      <c r="B167" s="130" t="s">
+      <c r="A167" s="221"/>
+      <c r="B167" s="103" t="s">
         <v>737</v>
       </c>
-      <c r="C167" s="240" t="s">
+      <c r="C167" s="193" t="s">
         <v>446</v>
       </c>
-      <c r="D167" s="130"/>
+      <c r="D167" s="103"/>
     </row>
     <row r="168" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="124"/>
-      <c r="B168" s="130" t="s">
+      <c r="A168" s="221"/>
+      <c r="B168" s="103" t="s">
         <v>738</v>
       </c>
-      <c r="C168" s="240" t="s">
+      <c r="C168" s="193" t="s">
         <v>447</v>
       </c>
-      <c r="D168" s="130"/>
+      <c r="D168" s="103"/>
     </row>
     <row r="169" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="124"/>
-      <c r="B169" s="130" t="s">
+      <c r="A169" s="221"/>
+      <c r="B169" s="103" t="s">
         <v>739</v>
       </c>
-      <c r="C169" s="240" t="s">
+      <c r="C169" s="193" t="s">
         <v>448</v>
       </c>
-      <c r="D169" s="130"/>
+      <c r="D169" s="103"/>
     </row>
     <row r="170" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="124"/>
-      <c r="B170" s="130" t="s">
+      <c r="A170" s="221"/>
+      <c r="B170" s="103" t="s">
         <v>740</v>
       </c>
-      <c r="C170" s="240" t="s">
+      <c r="C170" s="193" t="s">
         <v>449</v>
       </c>
-      <c r="D170" s="130"/>
+      <c r="D170" s="103"/>
     </row>
     <row r="171" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="124"/>
-      <c r="B171" s="130" t="s">
+      <c r="A171" s="221"/>
+      <c r="B171" s="103" t="s">
         <v>741</v>
       </c>
-      <c r="C171" s="240" t="s">
+      <c r="C171" s="193" t="s">
         <v>450</v>
       </c>
-      <c r="D171" s="130"/>
+      <c r="D171" s="103"/>
       <c r="F171" s="9"/>
     </row>
     <row r="172" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="124"/>
-      <c r="B172" s="130" t="s">
+      <c r="A172" s="221"/>
+      <c r="B172" s="103" t="s">
         <v>742</v>
       </c>
-      <c r="C172" s="240" t="s">
+      <c r="C172" s="193" t="s">
         <v>451</v>
       </c>
-      <c r="D172" s="130"/>
+      <c r="D172" s="103"/>
     </row>
     <row r="173" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="124"/>
-      <c r="B173" s="130" t="s">
+      <c r="A173" s="221"/>
+      <c r="B173" s="103" t="s">
         <v>743</v>
       </c>
-      <c r="C173" s="240" t="s">
+      <c r="C173" s="193" t="s">
         <v>452</v>
       </c>
-      <c r="D173" s="130"/>
+      <c r="D173" s="103"/>
     </row>
     <row r="174" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="125"/>
-      <c r="B174" s="131" t="s">
+      <c r="A174" s="222"/>
+      <c r="B174" s="104" t="s">
         <v>744</v>
       </c>
-      <c r="C174" s="241" t="s">
+      <c r="C174" s="194" t="s">
         <v>453</v>
       </c>
-      <c r="D174" s="131"/>
+      <c r="D174" s="104"/>
     </row>
     <row r="175" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="126" t="s">
+      <c r="A175" s="226" t="s">
         <v>1009</v>
       </c>
-      <c r="B175" s="132" t="s">
+      <c r="B175" s="105" t="s">
         <v>745</v>
       </c>
-      <c r="C175" s="224"/>
-      <c r="D175" s="132"/>
+      <c r="C175" s="177"/>
+      <c r="D175" s="105"/>
     </row>
     <row r="176" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="127"/>
-      <c r="B176" s="133" t="s">
+      <c r="A176" s="227"/>
+      <c r="B176" s="106" t="s">
         <v>746</v>
       </c>
-      <c r="C176" s="225"/>
-      <c r="D176" s="133"/>
+      <c r="C176" s="178"/>
+      <c r="D176" s="106"/>
     </row>
     <row r="177" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="127"/>
-      <c r="B177" s="133" t="s">
+      <c r="A177" s="227"/>
+      <c r="B177" s="106" t="s">
         <v>747</v>
       </c>
-      <c r="C177" s="225"/>
-      <c r="D177" s="133"/>
+      <c r="C177" s="178"/>
+      <c r="D177" s="106"/>
     </row>
     <row r="178" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="127"/>
-      <c r="B178" s="133" t="s">
+      <c r="A178" s="227"/>
+      <c r="B178" s="106" t="s">
         <v>748</v>
       </c>
-      <c r="C178" s="226" t="s">
+      <c r="C178" s="179" t="s">
         <v>454</v>
       </c>
-      <c r="D178" s="133"/>
+      <c r="D178" s="106"/>
     </row>
     <row r="179" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="127"/>
-      <c r="B179" s="133" t="s">
+      <c r="A179" s="227"/>
+      <c r="B179" s="106" t="s">
         <v>749</v>
       </c>
-      <c r="C179" s="226" t="s">
+      <c r="C179" s="179" t="s">
         <v>455</v>
       </c>
-      <c r="D179" s="133"/>
+      <c r="D179" s="106"/>
     </row>
     <row r="180" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="127"/>
-      <c r="B180" s="133" t="s">
+      <c r="A180" s="227"/>
+      <c r="B180" s="106" t="s">
         <v>750</v>
       </c>
-      <c r="C180" s="226" t="s">
+      <c r="C180" s="179" t="s">
         <v>456</v>
       </c>
-      <c r="D180" s="133"/>
+      <c r="D180" s="106"/>
     </row>
     <row r="181" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="127"/>
-      <c r="B181" s="133" t="s">
+      <c r="A181" s="227"/>
+      <c r="B181" s="106" t="s">
         <v>751</v>
       </c>
-      <c r="C181" s="225"/>
-      <c r="D181" s="133"/>
+      <c r="C181" s="178"/>
+      <c r="D181" s="106"/>
     </row>
     <row r="182" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="127"/>
-      <c r="B182" s="133" t="s">
+      <c r="A182" s="227"/>
+      <c r="B182" s="106" t="s">
         <v>752</v>
       </c>
-      <c r="C182" s="225"/>
-      <c r="D182" s="133"/>
+      <c r="C182" s="178"/>
+      <c r="D182" s="106"/>
     </row>
     <row r="183" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="127"/>
-      <c r="B183" s="133" t="s">
+      <c r="A183" s="227"/>
+      <c r="B183" s="106" t="s">
         <v>753</v>
       </c>
-      <c r="C183" s="225"/>
-      <c r="D183" s="133"/>
+      <c r="C183" s="178"/>
+      <c r="D183" s="106"/>
     </row>
     <row r="184" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="127"/>
-      <c r="B184" s="133" t="s">
+      <c r="A184" s="227"/>
+      <c r="B184" s="106" t="s">
         <v>754</v>
       </c>
-      <c r="C184" s="226" t="s">
+      <c r="C184" s="179" t="s">
         <v>457</v>
       </c>
-      <c r="D184" s="133"/>
+      <c r="D184" s="106"/>
     </row>
     <row r="185" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="127"/>
-      <c r="B185" s="133" t="s">
+      <c r="A185" s="227"/>
+      <c r="B185" s="106" t="s">
         <v>755</v>
       </c>
-      <c r="C185" s="226" t="s">
+      <c r="C185" s="179" t="s">
         <v>458</v>
       </c>
-      <c r="D185" s="133"/>
+      <c r="D185" s="106"/>
     </row>
     <row r="186" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="142"/>
-      <c r="B186" s="143" t="s">
+      <c r="A186" s="228"/>
+      <c r="B186" s="115" t="s">
         <v>756</v>
       </c>
-      <c r="C186" s="227" t="s">
+      <c r="C186" s="180" t="s">
         <v>459</v>
       </c>
-      <c r="D186" s="143"/>
+      <c r="D186" s="115"/>
     </row>
     <row r="187" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="123" t="s">
+      <c r="A187" s="220" t="s">
         <v>1010</v>
       </c>
-      <c r="B187" s="129" t="s">
+      <c r="B187" s="102" t="s">
         <v>757</v>
       </c>
-      <c r="C187" s="228"/>
-      <c r="D187" s="129"/>
+      <c r="C187" s="181"/>
+      <c r="D187" s="102"/>
     </row>
     <row r="188" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="124"/>
-      <c r="B188" s="130" t="s">
+      <c r="A188" s="221"/>
+      <c r="B188" s="103" t="s">
         <v>758</v>
       </c>
-      <c r="C188" s="229"/>
-      <c r="D188" s="130"/>
+      <c r="C188" s="182"/>
+      <c r="D188" s="103"/>
     </row>
     <row r="189" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="124"/>
-      <c r="B189" s="130" t="s">
+      <c r="A189" s="221"/>
+      <c r="B189" s="103" t="s">
         <v>759</v>
       </c>
-      <c r="C189" s="229"/>
-      <c r="D189" s="130"/>
+      <c r="C189" s="182"/>
+      <c r="D189" s="103"/>
     </row>
     <row r="190" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="124"/>
-      <c r="B190" s="130" t="s">
+      <c r="A190" s="221"/>
+      <c r="B190" s="103" t="s">
         <v>760</v>
       </c>
-      <c r="C190" s="222" t="s">
+      <c r="C190" s="175" t="s">
         <v>460</v>
       </c>
-      <c r="D190" s="130"/>
+      <c r="D190" s="103"/>
     </row>
     <row r="191" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="124"/>
-      <c r="B191" s="130" t="s">
+      <c r="A191" s="221"/>
+      <c r="B191" s="103" t="s">
         <v>761</v>
       </c>
-      <c r="C191" s="222" t="s">
+      <c r="C191" s="175" t="s">
         <v>461</v>
       </c>
-      <c r="D191" s="130"/>
+      <c r="D191" s="103"/>
     </row>
     <row r="192" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="124"/>
-      <c r="B192" s="130" t="s">
+      <c r="A192" s="221"/>
+      <c r="B192" s="103" t="s">
         <v>762</v>
       </c>
-      <c r="C192" s="222" t="s">
+      <c r="C192" s="175" t="s">
         <v>462</v>
       </c>
-      <c r="D192" s="130"/>
+      <c r="D192" s="103"/>
     </row>
     <row r="193" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="124"/>
-      <c r="B193" s="130" t="s">
+      <c r="A193" s="221"/>
+      <c r="B193" s="103" t="s">
         <v>763</v>
       </c>
-      <c r="C193" s="229"/>
-      <c r="D193" s="130"/>
+      <c r="C193" s="182"/>
+      <c r="D193" s="103"/>
     </row>
     <row r="194" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="124"/>
-      <c r="B194" s="130" t="s">
+      <c r="A194" s="221"/>
+      <c r="B194" s="103" t="s">
         <v>764</v>
       </c>
-      <c r="C194" s="229"/>
-      <c r="D194" s="130"/>
+      <c r="C194" s="182"/>
+      <c r="D194" s="103"/>
     </row>
     <row r="195" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="124"/>
-      <c r="B195" s="130" t="s">
+      <c r="A195" s="221"/>
+      <c r="B195" s="103" t="s">
         <v>765</v>
       </c>
-      <c r="C195" s="229"/>
-      <c r="D195" s="130"/>
+      <c r="C195" s="182"/>
+      <c r="D195" s="103"/>
     </row>
     <row r="196" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="124"/>
-      <c r="B196" s="130" t="s">
+      <c r="A196" s="221"/>
+      <c r="B196" s="103" t="s">
         <v>766</v>
       </c>
-      <c r="C196" s="222" t="s">
+      <c r="C196" s="175" t="s">
         <v>463</v>
       </c>
-      <c r="D196" s="130"/>
+      <c r="D196" s="103"/>
     </row>
     <row r="197" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="124"/>
-      <c r="B197" s="130" t="s">
+      <c r="A197" s="221"/>
+      <c r="B197" s="103" t="s">
         <v>767</v>
       </c>
-      <c r="C197" s="222" t="s">
+      <c r="C197" s="175" t="s">
         <v>464</v>
       </c>
-      <c r="D197" s="130"/>
+      <c r="D197" s="103"/>
     </row>
     <row r="198" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="125"/>
-      <c r="B198" s="131" t="s">
+      <c r="A198" s="222"/>
+      <c r="B198" s="104" t="s">
         <v>768</v>
       </c>
-      <c r="C198" s="223" t="s">
+      <c r="C198" s="176" t="s">
         <v>464</v>
       </c>
-      <c r="D198" s="131"/>
+      <c r="D198" s="104"/>
     </row>
     <row r="199" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="144" t="s">
+      <c r="A199" s="223" t="s">
         <v>1011</v>
       </c>
-      <c r="B199" s="132" t="s">
+      <c r="B199" s="105" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="230" t="s">
+      <c r="C199" s="183" t="s">
         <v>465</v>
       </c>
-      <c r="D199" s="132"/>
+      <c r="D199" s="105"/>
     </row>
     <row r="200" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="128"/>
-      <c r="B200" s="133" t="s">
+      <c r="A200" s="224"/>
+      <c r="B200" s="106" t="s">
         <v>770</v>
       </c>
-      <c r="C200" s="226" t="s">
+      <c r="C200" s="179" t="s">
         <v>466</v>
       </c>
-      <c r="D200" s="133"/>
+      <c r="D200" s="106"/>
     </row>
     <row r="201" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="128"/>
-      <c r="B201" s="133" t="s">
+      <c r="A201" s="224"/>
+      <c r="B201" s="106" t="s">
         <v>771</v>
       </c>
-      <c r="C201" s="226" t="s">
+      <c r="C201" s="179" t="s">
         <v>467</v>
       </c>
-      <c r="D201" s="133"/>
+      <c r="D201" s="106"/>
     </row>
     <row r="202" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="128"/>
-      <c r="B202" s="133" t="s">
+      <c r="A202" s="224"/>
+      <c r="B202" s="106" t="s">
         <v>772</v>
       </c>
-      <c r="C202" s="226" t="s">
+      <c r="C202" s="179" t="s">
         <v>468</v>
       </c>
-      <c r="D202" s="133"/>
+      <c r="D202" s="106"/>
     </row>
     <row r="203" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="128"/>
-      <c r="B203" s="133" t="s">
+      <c r="A203" s="224"/>
+      <c r="B203" s="106" t="s">
         <v>773</v>
       </c>
-      <c r="C203" s="226" t="s">
+      <c r="C203" s="179" t="s">
         <v>469</v>
       </c>
-      <c r="D203" s="133"/>
+      <c r="D203" s="106"/>
     </row>
     <row r="204" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="128"/>
-      <c r="B204" s="133" t="s">
+      <c r="A204" s="224"/>
+      <c r="B204" s="106" t="s">
         <v>774</v>
       </c>
-      <c r="C204" s="226" t="s">
+      <c r="C204" s="179" t="s">
         <v>470</v>
       </c>
-      <c r="D204" s="133"/>
+      <c r="D204" s="106"/>
     </row>
     <row r="205" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="128"/>
-      <c r="B205" s="133" t="s">
+      <c r="A205" s="224"/>
+      <c r="B205" s="106" t="s">
         <v>775</v>
       </c>
-      <c r="C205" s="226" t="s">
+      <c r="C205" s="179" t="s">
         <v>473</v>
       </c>
-      <c r="D205" s="133"/>
+      <c r="D205" s="106"/>
     </row>
     <row r="206" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="128"/>
-      <c r="B206" s="133" t="s">
+      <c r="A206" s="224"/>
+      <c r="B206" s="106" t="s">
         <v>776</v>
       </c>
-      <c r="C206" s="226" t="s">
+      <c r="C206" s="179" t="s">
         <v>471</v>
       </c>
-      <c r="D206" s="133"/>
+      <c r="D206" s="106"/>
     </row>
     <row r="207" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="128"/>
-      <c r="B207" s="133" t="s">
+      <c r="A207" s="224"/>
+      <c r="B207" s="106" t="s">
         <v>777</v>
       </c>
-      <c r="C207" s="226" t="s">
+      <c r="C207" s="179" t="s">
         <v>472</v>
       </c>
-      <c r="D207" s="133"/>
+      <c r="D207" s="106"/>
     </row>
     <row r="208" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="128"/>
-      <c r="B208" s="133" t="s">
+      <c r="A208" s="224"/>
+      <c r="B208" s="106" t="s">
         <v>778</v>
       </c>
-      <c r="C208" s="226" t="s">
+      <c r="C208" s="179" t="s">
         <v>474</v>
       </c>
-      <c r="D208" s="133"/>
+      <c r="D208" s="106"/>
     </row>
     <row r="209" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="128"/>
-      <c r="B209" s="133" t="s">
+      <c r="A209" s="224"/>
+      <c r="B209" s="106" t="s">
         <v>779</v>
       </c>
-      <c r="C209" s="226" t="s">
+      <c r="C209" s="179" t="s">
         <v>475</v>
       </c>
-      <c r="D209" s="133"/>
+      <c r="D209" s="106"/>
     </row>
     <row r="210" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="145"/>
-      <c r="B210" s="143" t="s">
+      <c r="A210" s="225"/>
+      <c r="B210" s="115" t="s">
         <v>780</v>
       </c>
-      <c r="C210" s="227" t="s">
+      <c r="C210" s="180" t="s">
         <v>476</v>
       </c>
-      <c r="D210" s="143"/>
+      <c r="D210" s="115"/>
     </row>
     <row r="211" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="123" t="s">
+      <c r="A211" s="220" t="s">
         <v>1012</v>
       </c>
-      <c r="B211" s="129" t="s">
+      <c r="B211" s="102" t="s">
         <v>781</v>
       </c>
-      <c r="C211" s="228"/>
-      <c r="D211" s="129"/>
+      <c r="C211" s="181"/>
+      <c r="D211" s="102"/>
     </row>
     <row r="212" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="124"/>
-      <c r="B212" s="130" t="s">
+      <c r="A212" s="221"/>
+      <c r="B212" s="103" t="s">
         <v>782</v>
       </c>
-      <c r="C212" s="229"/>
-      <c r="D212" s="130"/>
+      <c r="C212" s="182"/>
+      <c r="D212" s="103"/>
     </row>
     <row r="213" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="124"/>
-      <c r="B213" s="130" t="s">
+      <c r="A213" s="221"/>
+      <c r="B213" s="103" t="s">
         <v>783</v>
       </c>
-      <c r="C213" s="229"/>
-      <c r="D213" s="130"/>
+      <c r="C213" s="182"/>
+      <c r="D213" s="103"/>
     </row>
     <row r="214" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="124"/>
-      <c r="B214" s="130" t="s">
+      <c r="A214" s="221"/>
+      <c r="B214" s="103" t="s">
         <v>784</v>
       </c>
-      <c r="C214" s="229"/>
-      <c r="D214" s="130"/>
+      <c r="C214" s="182" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D214" s="103"/>
     </row>
     <row r="215" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="124"/>
-      <c r="B215" s="130" t="s">
+      <c r="A215" s="221"/>
+      <c r="B215" s="103" t="s">
         <v>785</v>
       </c>
-      <c r="C215" s="229"/>
-      <c r="D215" s="130"/>
+      <c r="C215" s="182" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D215" s="103"/>
     </row>
     <row r="216" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="124"/>
-      <c r="B216" s="130" t="s">
+      <c r="A216" s="221"/>
+      <c r="B216" s="103" t="s">
         <v>786</v>
       </c>
-      <c r="C216" s="229"/>
-      <c r="D216" s="130"/>
+      <c r="C216" s="182" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D216" s="103"/>
     </row>
     <row r="217" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="124"/>
-      <c r="B217" s="130" t="s">
+      <c r="A217" s="221"/>
+      <c r="B217" s="103" t="s">
         <v>787</v>
       </c>
-      <c r="C217" s="229"/>
-      <c r="D217" s="130"/>
+      <c r="C217" s="182"/>
+      <c r="D217" s="103"/>
     </row>
     <row r="218" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="124"/>
-      <c r="B218" s="130" t="s">
+      <c r="A218" s="221"/>
+      <c r="B218" s="103" t="s">
         <v>788</v>
       </c>
-      <c r="C218" s="229"/>
-      <c r="D218" s="130"/>
+      <c r="C218" s="182"/>
+      <c r="D218" s="103"/>
     </row>
     <row r="219" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="124"/>
-      <c r="B219" s="130" t="s">
+      <c r="A219" s="221"/>
+      <c r="B219" s="103" t="s">
         <v>789</v>
       </c>
-      <c r="C219" s="229"/>
-      <c r="D219" s="130"/>
+      <c r="C219" s="182"/>
+      <c r="D219" s="103"/>
     </row>
     <row r="220" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="124"/>
-      <c r="B220" s="130" t="s">
+      <c r="A220" s="221"/>
+      <c r="B220" s="103" t="s">
         <v>790</v>
       </c>
-      <c r="C220" s="229"/>
-      <c r="D220" s="130"/>
+      <c r="C220" s="182" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D220" s="103"/>
     </row>
     <row r="221" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="124"/>
-      <c r="B221" s="130" t="s">
+      <c r="A221" s="221"/>
+      <c r="B221" s="103" t="s">
         <v>791</v>
       </c>
-      <c r="C221" s="229"/>
-      <c r="D221" s="130"/>
+      <c r="C221" s="182" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D221" s="103"/>
     </row>
     <row r="222" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="125"/>
-      <c r="B222" s="131" t="s">
+      <c r="A222" s="222"/>
+      <c r="B222" s="104" t="s">
         <v>792</v>
       </c>
-      <c r="C222" s="231"/>
-      <c r="D222" s="131"/>
+      <c r="C222" s="184" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D222" s="104"/>
     </row>
     <row r="223" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="126" t="s">
+      <c r="A223" s="226" t="s">
         <v>1013</v>
       </c>
-      <c r="B223" s="132" t="s">
+      <c r="B223" s="105" t="s">
         <v>793</v>
       </c>
-      <c r="C223" s="224"/>
-      <c r="D223" s="132"/>
+      <c r="C223" s="177"/>
+      <c r="D223" s="105"/>
     </row>
     <row r="224" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="127"/>
-      <c r="B224" s="133" t="s">
+      <c r="A224" s="227"/>
+      <c r="B224" s="106" t="s">
         <v>794</v>
       </c>
-      <c r="C224" s="225"/>
-      <c r="D224" s="133"/>
+      <c r="C224" s="178"/>
+      <c r="D224" s="106"/>
     </row>
     <row r="225" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="127"/>
-      <c r="B225" s="133" t="s">
+      <c r="A225" s="227"/>
+      <c r="B225" s="106" t="s">
         <v>795</v>
       </c>
-      <c r="C225" s="225"/>
-      <c r="D225" s="133"/>
+      <c r="C225" s="178"/>
+      <c r="D225" s="106"/>
     </row>
     <row r="226" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="127"/>
-      <c r="B226" s="133" t="s">
+      <c r="A226" s="227"/>
+      <c r="B226" s="106" t="s">
         <v>796</v>
       </c>
-      <c r="C226" s="225"/>
-      <c r="D226" s="133"/>
+      <c r="C226" s="178" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D226" s="106"/>
     </row>
     <row r="227" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="127"/>
-      <c r="B227" s="133" t="s">
+      <c r="A227" s="227"/>
+      <c r="B227" s="106" t="s">
         <v>797</v>
       </c>
-      <c r="C227" s="225"/>
-      <c r="D227" s="133"/>
+      <c r="C227" s="178" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D227" s="106"/>
     </row>
     <row r="228" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="127"/>
-      <c r="B228" s="133" t="s">
+      <c r="A228" s="227"/>
+      <c r="B228" s="106" t="s">
         <v>798</v>
       </c>
-      <c r="C228" s="225"/>
-      <c r="D228" s="133"/>
+      <c r="C228" s="178" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D228" s="106"/>
     </row>
     <row r="229" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="127"/>
-      <c r="B229" s="133" t="s">
+      <c r="A229" s="227"/>
+      <c r="B229" s="106" t="s">
         <v>799</v>
       </c>
-      <c r="C229" s="225"/>
-      <c r="D229" s="133"/>
+      <c r="C229" s="178"/>
+      <c r="D229" s="106"/>
     </row>
     <row r="230" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="127"/>
-      <c r="B230" s="133" t="s">
+      <c r="A230" s="227"/>
+      <c r="B230" s="106" t="s">
         <v>800</v>
       </c>
-      <c r="C230" s="225"/>
-      <c r="D230" s="133"/>
+      <c r="C230" s="178"/>
+      <c r="D230" s="106"/>
     </row>
     <row r="231" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="127"/>
-      <c r="B231" s="133" t="s">
+      <c r="A231" s="227"/>
+      <c r="B231" s="106" t="s">
         <v>801</v>
       </c>
-      <c r="C231" s="225"/>
-      <c r="D231" s="133"/>
+      <c r="C231" s="178"/>
+      <c r="D231" s="106"/>
     </row>
     <row r="232" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="127"/>
-      <c r="B232" s="133" t="s">
+      <c r="A232" s="227"/>
+      <c r="B232" s="106" t="s">
         <v>802</v>
       </c>
-      <c r="C232" s="225"/>
-      <c r="D232" s="133"/>
+      <c r="C232" s="178" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D232" s="106"/>
     </row>
     <row r="233" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="127"/>
-      <c r="B233" s="133" t="s">
+      <c r="A233" s="227"/>
+      <c r="B233" s="106" t="s">
         <v>803</v>
       </c>
-      <c r="C233" s="225"/>
-      <c r="D233" s="133"/>
+      <c r="C233" s="178" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D233" s="106"/>
     </row>
     <row r="234" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="142"/>
-      <c r="B234" s="143" t="s">
+      <c r="A234" s="228"/>
+      <c r="B234" s="115" t="s">
         <v>804</v>
       </c>
-      <c r="C234" s="232"/>
-      <c r="D234" s="143"/>
+      <c r="C234" s="185" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D234" s="115"/>
     </row>
     <row r="235" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="123" t="s">
+      <c r="A235" s="220" t="s">
         <v>1014</v>
       </c>
-      <c r="B235" s="129" t="s">
+      <c r="B235" s="102" t="s">
         <v>805</v>
       </c>
-      <c r="C235" s="233" t="s">
+      <c r="C235" s="186" t="s">
         <v>557</v>
       </c>
-      <c r="D235" s="129"/>
+      <c r="D235" s="102"/>
     </row>
     <row r="236" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="124"/>
-      <c r="B236" s="130" t="s">
+      <c r="A236" s="221"/>
+      <c r="B236" s="103" t="s">
         <v>806</v>
       </c>
-      <c r="C236" s="234" t="s">
+      <c r="C236" s="187" t="s">
         <v>558</v>
       </c>
-      <c r="D236" s="130"/>
+      <c r="D236" s="103"/>
     </row>
     <row r="237" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="125"/>
-      <c r="B237" s="131" t="s">
+      <c r="A237" s="222"/>
+      <c r="B237" s="104" t="s">
         <v>807</v>
       </c>
-      <c r="C237" s="235" t="s">
+      <c r="C237" s="188" t="s">
         <v>559</v>
       </c>
-      <c r="D237" s="131"/>
+      <c r="D237" s="104"/>
     </row>
     <row r="238" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="126" t="s">
+      <c r="A238" s="226" t="s">
         <v>1015</v>
       </c>
-      <c r="B238" s="132" t="s">
+      <c r="B238" s="105" t="s">
         <v>808</v>
       </c>
-      <c r="C238" s="236" t="s">
+      <c r="C238" s="189" t="s">
         <v>560</v>
       </c>
-      <c r="D238" s="132"/>
+      <c r="D238" s="105"/>
     </row>
     <row r="239" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="142"/>
-      <c r="B239" s="143" t="s">
+      <c r="A239" s="228"/>
+      <c r="B239" s="115" t="s">
         <v>809</v>
       </c>
-      <c r="C239" s="237" t="s">
+      <c r="C239" s="190" t="s">
         <v>561</v>
       </c>
-      <c r="D239" s="143"/>
+      <c r="D239" s="115"/>
     </row>
     <row r="240" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="123" t="s">
+      <c r="A240" s="220" t="s">
         <v>1016</v>
       </c>
-      <c r="B240" s="129" t="s">
+      <c r="B240" s="102" t="s">
         <v>810</v>
       </c>
-      <c r="C240" s="233" t="s">
+      <c r="C240" s="186" t="s">
         <v>551</v>
       </c>
-      <c r="D240" s="129"/>
+      <c r="D240" s="102"/>
     </row>
     <row r="241" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="124"/>
-      <c r="B241" s="130" t="s">
+      <c r="A241" s="221"/>
+      <c r="B241" s="103" t="s">
         <v>811</v>
       </c>
-      <c r="C241" s="234" t="s">
+      <c r="C241" s="187" t="s">
         <v>551</v>
       </c>
-      <c r="D241" s="130"/>
+      <c r="D241" s="103"/>
     </row>
     <row r="242" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="125"/>
-      <c r="B242" s="131" t="s">
+      <c r="A242" s="222"/>
+      <c r="B242" s="104" t="s">
         <v>812</v>
       </c>
-      <c r="C242" s="235" t="s">
+      <c r="C242" s="188" t="s">
         <v>551</v>
       </c>
-      <c r="D242" s="131"/>
+      <c r="D242" s="104"/>
     </row>
     <row r="243" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="244" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13234,34 +13403,34 @@
     <row r="251" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="252" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="253" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="119"/>
+      <c r="A253" s="100"/>
     </row>
     <row r="254" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="119"/>
+      <c r="A254" s="100"/>
     </row>
     <row r="255" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="119"/>
+      <c r="A255" s="100"/>
     </row>
     <row r="256" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="119"/>
+      <c r="A256" s="100"/>
     </row>
     <row r="257" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="119"/>
+      <c r="A257" s="100"/>
     </row>
     <row r="258" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="119"/>
+      <c r="A258" s="100"/>
     </row>
     <row r="259" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="119"/>
+      <c r="A259" s="100"/>
     </row>
     <row r="260" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="119"/>
+      <c r="A260" s="100"/>
     </row>
     <row r="261" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="119"/>
+      <c r="A261" s="100"/>
     </row>
     <row r="262" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="120"/>
+      <c r="A262" s="101"/>
     </row>
     <row r="263" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="264" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14003,34 +14172,34 @@
     <row r="1000" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A83:A94"/>
+    <mergeCell ref="A95:A106"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A107:A118"/>
+    <mergeCell ref="A119:A130"/>
+    <mergeCell ref="A131:A142"/>
+    <mergeCell ref="A143:A154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="A163:A174"/>
+    <mergeCell ref="A175:A186"/>
+    <mergeCell ref="A187:A198"/>
     <mergeCell ref="A240:A242"/>
     <mergeCell ref="A199:A210"/>
     <mergeCell ref="A211:A222"/>
     <mergeCell ref="A223:A234"/>
     <mergeCell ref="A235:A237"/>
     <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="A163:A174"/>
-    <mergeCell ref="A175:A186"/>
-    <mergeCell ref="A187:A198"/>
-    <mergeCell ref="A107:A118"/>
-    <mergeCell ref="A119:A130"/>
-    <mergeCell ref="A131:A142"/>
-    <mergeCell ref="A143:A154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A83:A94"/>
-    <mergeCell ref="A95:A106"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G1:G3">
@@ -14078,7 +14247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63083F68-1B4E-4D52-8F99-BA2C0DEE8001}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -14089,7 +14258,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="206" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -14104,7 +14273,7 @@
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104"/>
+      <c r="A2" s="207"/>
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
@@ -18933,7 +19102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="206" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -18948,7 +19117,7 @@
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104"/>
+      <c r="A2" s="207"/>
       <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
@@ -23902,7 +24071,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="237" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -23917,7 +24086,7 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114"/>
+      <c r="A2" s="238"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
@@ -23930,7 +24099,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="239" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -23945,7 +24114,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
+      <c r="A4" s="240"/>
       <c r="B4" s="7" t="s">
         <v>823</v>
       </c>
@@ -23958,7 +24127,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
+      <c r="A5" s="240"/>
       <c r="B5" s="7" t="s">
         <v>824</v>
       </c>
@@ -23971,7 +24140,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="8" t="s">
         <v>825</v>
       </c>
@@ -24997,7 +25166,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25006,7 +25175,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="206" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="47" t="s">
@@ -25062,7 +25231,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
+      <c r="A2" s="216"/>
       <c r="B2" s="80" t="s">
         <v>2</v>
       </c>
@@ -25075,21 +25244,21 @@
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="102"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="205"/>
     </row>
     <row r="3" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
@@ -25146,10 +25315,10 @@
     <row r="7" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="27" t="s">
-        <v>826</v>
+        <v>1092</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>933</v>
+        <v>1093</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="57"/>
@@ -25159,10 +25328,10 @@
     <row r="8" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="57"/>
@@ -25172,10 +25341,10 @@
     <row r="9" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="27" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>841</v>
+        <v>932</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="57"/>
@@ -25185,10 +25354,10 @@
     <row r="10" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="57"/>
@@ -25198,10 +25367,10 @@
     <row r="11" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="27" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>813</v>
+        <v>842</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="57"/>
@@ -25211,10 +25380,10 @@
     <row r="12" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="57"/>
@@ -25224,10 +25393,10 @@
     <row r="13" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>942</v>
+        <v>814</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="57"/>
@@ -25237,23 +25406,23 @@
     <row r="14" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
       <c r="G14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="27" t="s">
-        <v>832</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>815</v>
+        <v>831</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>934</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="63"/>
@@ -25263,10 +25432,10 @@
     <row r="16" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C16" s="89" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="63"/>
@@ -25276,23 +25445,23 @@
     <row r="17" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C17" s="89" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
       <c r="G17" s="58"/>
     </row>
-    <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
       <c r="B18" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>818</v>
+        <v>834</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>817</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="63"/>
@@ -25302,23 +25471,23 @@
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67"/>
       <c r="B19" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
       <c r="G19" s="58"/>
     </row>
-    <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67"/>
       <c r="B20" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>820</v>
+        <v>836</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>819</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="63"/>
@@ -25327,37 +25496,37 @@
     </row>
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
-      <c r="B21" s="49" t="s">
-        <v>838</v>
+      <c r="B21" s="27" t="s">
+        <v>837</v>
       </c>
       <c r="C21" s="89" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
       <c r="G21" s="58"/>
     </row>
-    <row r="22" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
-      <c r="B22" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>876</v>
+      <c r="B22" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>821</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="63"/>
       <c r="F22" s="63"/>
       <c r="G22" s="58"/>
     </row>
-    <row r="23" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>877</v>
+        <v>872</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>876</v>
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
@@ -25367,10 +25536,10 @@
     <row r="24" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C24" s="89" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
@@ -25380,20 +25549,24 @@
     <row r="25" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="C25" s="90" t="s">
-        <v>879</v>
+        <v>874</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>878</v>
       </c>
       <c r="D25" s="79"/>
       <c r="E25" s="63"/>
       <c r="F25" s="63"/>
       <c r="G25" s="58"/>
     </row>
-    <row r="26" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="27" t="s">
+        <v>875</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>879</v>
+      </c>
       <c r="D26" s="79"/>
       <c r="E26" s="63"/>
       <c r="F26" s="63"/>
@@ -27366,7 +27539,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="206" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="47" t="s">
@@ -27422,7 +27595,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
+      <c r="A2" s="216"/>
       <c r="B2" s="92" t="s">
         <v>2</v>
       </c>
@@ -27435,21 +27608,21 @@
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="102"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="205"/>
     </row>
     <row r="3" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
